--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -444,6 +444,84 @@
   </si>
   <si>
     <t>SSW555tm052015s</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Gender is correct</t>
+  </si>
+  <si>
+    <t>Age is correct</t>
+  </si>
+  <si>
+    <t>Make sure that father is a male and mother is a female</t>
+  </si>
+  <si>
+    <t>Make sure that an individual is elder than child and younger than parents</t>
   </si>
 </sst>
 </file>
@@ -732,11 +810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70195072"/>
-        <c:axId val="70196608"/>
+        <c:axId val="85403904"/>
+        <c:axId val="85405696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="70195072"/>
+        <c:axId val="85403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,14 +824,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70196608"/>
+        <c:crossAx val="85405696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="70196608"/>
+        <c:axId val="85405696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70195072"/>
+        <c:crossAx val="85403904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1138,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1299,25 +1377,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="6.875" customWidth="1"/>
-    <col min="8" max="8" width="7.375" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
@@ -1441,6 +1519,116 @@
       </c>
       <c r="L4" s="7">
         <v>40460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1457,19 +1645,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1492,7 +1680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1512,7 +1700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1720,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1544,6 +1732,128 @@
       </c>
       <c r="D4" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -512,16 +512,61 @@
     <t>US25</t>
   </si>
   <si>
-    <t>Gender is correct</t>
-  </si>
-  <si>
-    <t>Age is correct</t>
-  </si>
-  <si>
-    <t>Make sure that father is a male and mother is a female</t>
-  </si>
-  <si>
     <t>Make sure that an individual is elder than child and younger than parents</t>
+  </si>
+  <si>
+    <t>Gender is valid</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's age is between 0 and 150</t>
+  </si>
+  <si>
+    <t>Make sure that in a family, father is a male and mother is a female</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>A husband can have only one wife and a wife can only have a husban</t>
+  </si>
+  <si>
+    <t>Monogamy</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's divorce date is &gt;= their marriage date</t>
+  </si>
+  <si>
+    <t>Marriage before birth</t>
+  </si>
+  <si>
+    <t>Divorce before marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death before giving birth </t>
+  </si>
+  <si>
+    <t>child birth date is &gt; parent death date + appoximately one year</t>
+  </si>
+  <si>
+    <t>Legal spouse</t>
+  </si>
+  <si>
+    <t>An individual can't marry to their sibling unless they are not biologically related</t>
+  </si>
+  <si>
+    <t>Age is valid in a family</t>
+  </si>
+  <si>
+    <t>Age is valid as an individual</t>
+  </si>
+  <si>
+    <t>Spouse age requirement</t>
+  </si>
+  <si>
+    <t>A man can't get married until 20, a woman can't get married until 18</t>
   </si>
 </sst>
 </file>
@@ -810,11 +855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85403904"/>
-        <c:axId val="85405696"/>
+        <c:axId val="84009344"/>
+        <c:axId val="84010880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85403904"/>
+        <c:axId val="84009344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,14 +869,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85405696"/>
+        <c:crossAx val="84010880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85405696"/>
+        <c:axId val="84010880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85403904"/>
+        <c:crossAx val="84009344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,7 +1425,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1450,9 +1495,6 @@
       <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" t="s">
         <v>52</v>
       </c>
@@ -1488,9 +1530,6 @@
       <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="G3">
         <v>200</v>
       </c>
@@ -1513,9 +1552,6 @@
       </c>
       <c r="D4" t="s">
         <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
       <c r="L4" s="7">
         <v>40460</v>
@@ -1645,17 +1681,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -1725,7 +1761,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>72</v>
@@ -1739,10 +1775,10 @@
         <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1750,41 +1786,77 @@
         <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>118</v>
       </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>121</v>
       </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1854,6 +1926,16 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1877,11 +1959,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1905,7 +1987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1925,7 +2007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2218,15 +2300,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="6"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="176">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -512,12 +512,6 @@
     <t>US25</t>
   </si>
   <si>
-    <t>Make sure that an individual is elder than child and younger than parents</t>
-  </si>
-  <si>
-    <t>Gender is valid</t>
-  </si>
-  <si>
     <t>Make sure that an individual's age is between 0 and 150</t>
   </si>
   <si>
@@ -527,9 +521,6 @@
     <t>US26</t>
   </si>
   <si>
-    <t>A husband can have only one wife and a wife can only have a husban</t>
-  </si>
-  <si>
     <t>Monogamy</t>
   </si>
   <si>
@@ -548,36 +539,102 @@
     <t xml:space="preserve">Death before giving birth </t>
   </si>
   <si>
-    <t>child birth date is &gt; parent death date + appoximately one year</t>
-  </si>
-  <si>
-    <t>Legal spouse</t>
-  </si>
-  <si>
     <t>An individual can't marry to their sibling unless they are not biologically related</t>
   </si>
   <si>
-    <t>Age is valid in a family</t>
-  </si>
-  <si>
-    <t>Age is valid as an individual</t>
-  </si>
-  <si>
-    <t>Spouse age requirement</t>
-  </si>
-  <si>
     <t>A man can't get married until 20, a woman can't get married until 18</t>
+  </si>
+  <si>
+    <t>Death before birth</t>
+  </si>
+  <si>
+    <t>Make sure that the ID of an individual in a family or the ID of a family of an individual exists</t>
+  </si>
+  <si>
+    <t>Inexistent ID</t>
+  </si>
+  <si>
+    <t>Invalid date format</t>
+  </si>
+  <si>
+    <t>Make sure that the date is in the form of 1 JAN 1990</t>
+  </si>
+  <si>
+    <t>Invalid ID format</t>
+  </si>
+  <si>
+    <t>Make sure that the individual ID is in the form of @I1@ and the family ID is in the form of @F1@</t>
+  </si>
+  <si>
+    <t>Invalid gender</t>
+  </si>
+  <si>
+    <t>Invalid age of an individual</t>
+  </si>
+  <si>
+    <t>Invalid ages in a family</t>
+  </si>
+  <si>
+    <t>Make sure that the parents are older than children in one family</t>
+  </si>
+  <si>
+    <t>Illegal spouse</t>
+  </si>
+  <si>
+    <t>Illegal marrige age</t>
+  </si>
+  <si>
+    <t>Invalid date of birth or death</t>
+  </si>
+  <si>
+    <t>Make sure that an individual is born or dead before today</t>
+  </si>
+  <si>
+    <t>child birth date is &gt; parent death date + one year</t>
+  </si>
+  <si>
+    <t>Invalid gender format</t>
+  </si>
+  <si>
+    <t>The gender should be either F or M</t>
+  </si>
+  <si>
+    <t>Invalid name format</t>
+  </si>
+  <si>
+    <t>The surname should be delimited by "/"s</t>
+  </si>
+  <si>
+    <t>Invalid family members</t>
+  </si>
+  <si>
+    <t>An individual can have at most one spouse</t>
+  </si>
+  <si>
+    <t>A family must contain a husband and a wife</t>
+  </si>
+  <si>
+    <t>Multiple roles in a family</t>
+  </si>
+  <si>
+    <t>Make sure an individual can play only one role in a family</t>
+  </si>
+  <si>
+    <t>Unmatched pointers</t>
+  </si>
+  <si>
+    <t>Make sure that the pointers of an individual matches the pointer of the related families, and vice versa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -705,56 +762,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -770,22 +827,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -843,62 +889,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="84009344"/>
-        <c:axId val="84010880"/>
+        <c:axId val="174504960"/>
+        <c:axId val="174510848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84009344"/>
+        <c:axId val="174504960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84010880"/>
+        <c:crossAx val="174510848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84010880"/>
+        <c:axId val="174510848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84009344"/>
+        <c:crossAx val="174504960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1258,14 +1288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1273,7 +1303,7 @@
     <col min="4" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -1290,7 +1320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -1307,7 +1337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1324,7 +1354,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1341,7 +1371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>109</v>
       </c>
@@ -1368,16 +1398,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1421,14 +1451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1444,7 +1474,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -1482,7 +1512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1517,7 +1547,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1540,7 +1570,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1557,112 +1587,112 @@
         <v>40460</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>137</v>
       </c>
@@ -1680,14 +1710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -1696,7 +1726,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1716,226 +1746,259 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5">
       <c r="A12" t="s">
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25.5">
       <c r="A13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1950,14 +2013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1967,7 +2030,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>99</v>
       </c>
@@ -1987,7 +2050,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="63">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2007,7 +2070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2027,7 +2090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="63">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2047,7 +2110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2067,7 +2130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2087,7 +2150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="47.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2119,14 +2182,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -2136,7 +2199,7 @@
     <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2156,7 +2219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2167,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2189,7 +2252,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>40469</v>
       </c>
@@ -2211,7 +2274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>40483</v>
       </c>
@@ -2233,7 +2296,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>40497</v>
       </c>
@@ -2255,7 +2318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>40511</v>
       </c>
@@ -2291,14 +2354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -2312,7 +2375,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2376,7 +2439,7 @@
         <v>40444</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2387,7 +2450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2398,7 +2461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2409,7 +2472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2432,7 +2495,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2446,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2457,7 +2520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2468,36 +2531,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>103</v>
       </c>
@@ -2515,16 +2578,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -2569,16 +2632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2622,16 +2685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -584,12 +584,6 @@
     <t>Illegal marrige age</t>
   </si>
   <si>
-    <t>Invalid date of birth or death</t>
-  </si>
-  <si>
-    <t>Make sure that an individual is born or dead before today</t>
-  </si>
-  <si>
     <t>child birth date is &gt; parent death date + one year</t>
   </si>
   <si>
@@ -624,6 +618,42 @@
   </si>
   <si>
     <t>Make sure that the pointers of an individual matches the pointer of the related families, and vice versa</t>
+  </si>
+  <si>
+    <t>Amount of family members</t>
+  </si>
+  <si>
+    <t>A family can have at most 8 members</t>
+  </si>
+  <si>
+    <t>Age gap among the children</t>
+  </si>
+  <si>
+    <t>There should be at least 1 year age difference unless they were born on the same day</t>
+  </si>
+  <si>
+    <t>Invalid date</t>
+  </si>
+  <si>
+    <t>Make sure that all the dates are before today</t>
+  </si>
+  <si>
+    <t>Pregnancy limit</t>
+  </si>
+  <si>
+    <t>Wife can give birth between the age of 18 and 50</t>
+  </si>
+  <si>
+    <t>A person could be a child of only one family</t>
+  </si>
+  <si>
+    <t>A person should be linked to at least one family</t>
+  </si>
+  <si>
+    <t>Child in family</t>
+  </si>
+  <si>
+    <t>Family rule</t>
   </si>
 </sst>
 </file>
@@ -762,56 +792,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -890,27 +920,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="174504960"/>
-        <c:axId val="174510848"/>
+        <c:axId val="69126784"/>
+        <c:axId val="69128576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="174504960"/>
+        <c:axId val="69126784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174510848"/>
+        <c:crossAx val="69128576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174510848"/>
+        <c:axId val="69128576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +947,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174504960"/>
+        <c:crossAx val="69126784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -928,7 +957,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1713,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1773,10 +1802,10 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1784,10 +1813,10 @@
         <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1795,10 +1824,10 @@
         <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1806,10 +1835,10 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1850,10 +1879,10 @@
         <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5">
@@ -1872,10 +1901,10 @@
         <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1930,7 +1959,7 @@
         <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1941,7 +1970,7 @@
         <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1970,25 +1999,55 @@
       <c r="A22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="25.5">
       <c r="A23" t="s">
         <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2017,7 +2076,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="187">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,14 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mills</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harlan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Turing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hmills@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -419,9 +407,6 @@
     <t>GitHub Username</t>
   </si>
   <si>
-    <t>harlanmills</t>
-  </si>
-  <si>
     <t>enigmacracker</t>
   </si>
   <si>
@@ -654,6 +639,21 @@
   </si>
   <si>
     <t>Family rule</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>Gong</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>gcheng2@stevens.edu</t>
+  </si>
+  <si>
+    <t>chenggongtc</t>
   </si>
 </sst>
 </file>
@@ -792,56 +792,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -921,25 +921,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69126784"/>
-        <c:axId val="69128576"/>
+        <c:axId val="306886528"/>
+        <c:axId val="306888064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69126784"/>
+        <c:axId val="306886528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69128576"/>
+        <c:crossAx val="306888064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69128576"/>
+        <c:axId val="306888064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +947,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69126784"/>
+        <c:crossAx val="306886528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,7 +957,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1346,66 +1346,66 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
+        <v>184</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1415,6 +1415,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1444,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -1505,34 +1506,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>14</v>
@@ -1546,16 +1547,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -1581,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -1604,13 +1605,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7">
         <v>40460</v>
@@ -1618,112 +1619,112 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D8"/>
     </sheetView>
   </sheetViews>
@@ -1757,307 +1758,307 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2091,142 +2092,142 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2443,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2468,19 +2469,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2500,52 +2501,52 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -2556,10 +2557,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2570,13 +2571,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2592,7 +2593,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2601,27 +2602,27 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2708,7 +2709,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -2761,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -170,14 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Turing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,9 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>aturing@stevens.edu</t>
-  </si>
-  <si>
     <t>Story Description</t>
   </si>
   <si>
@@ -407,9 +396,6 @@
     <t>GitHub Username</t>
   </si>
   <si>
-    <t>enigmacracker</t>
-  </si>
-  <si>
     <t>GitHub Repository:</t>
   </si>
   <si>
@@ -654,6 +640,18 @@
   </si>
   <si>
     <t>chenggongtc</t>
+  </si>
+  <si>
+    <t>Amog</t>
+  </si>
+  <si>
+    <t>bheemanakolli gurumallappa</t>
+  </si>
+  <si>
+    <t>abheeman@stevens.edu</t>
+  </si>
+  <si>
+    <t>amoghagurumallappa</t>
   </si>
 </sst>
 </file>
@@ -792,56 +790,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -921,25 +919,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="306886528"/>
-        <c:axId val="306888064"/>
+        <c:axId val="106084224"/>
+        <c:axId val="106085760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="306886528"/>
+        <c:axId val="106084224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306888064"/>
+        <c:crossAx val="106085760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="306888064"/>
+        <c:axId val="106085760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +945,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="306886528"/>
+        <c:crossAx val="106084224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,7 +955,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1321,7 +1319,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1346,66 +1344,66 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
         <v>182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
+        <v>184</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1416,6 +1414,7 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1445,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -1506,34 +1505,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>14</v>
@@ -1547,16 +1546,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -1582,13 +1581,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -1605,13 +1604,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7">
         <v>40460</v>
@@ -1619,112 +1618,112 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1758,307 +1757,307 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2092,142 +2091,142 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2443,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2469,19 +2468,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2501,52 +2500,52 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -2557,10 +2556,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2571,13 +2570,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2593,7 +2592,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2602,27 +2601,27 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2709,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -2762,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
   <si>
     <t>Find marriage date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -525,18 +525,6 @@
     <t>Inexistent ID</t>
   </si>
   <si>
-    <t>Invalid date format</t>
-  </si>
-  <si>
-    <t>Make sure that the date is in the form of 1 JAN 1990</t>
-  </si>
-  <si>
-    <t>Invalid ID format</t>
-  </si>
-  <si>
-    <t>Make sure that the individual ID is in the form of @I1@ and the family ID is in the form of @F1@</t>
-  </si>
-  <si>
     <t>Invalid gender</t>
   </si>
   <si>
@@ -555,21 +543,6 @@
     <t>Illegal marrige age</t>
   </si>
   <si>
-    <t>child birth date is &gt; parent death date + one year</t>
-  </si>
-  <si>
-    <t>Invalid gender format</t>
-  </si>
-  <si>
-    <t>The gender should be either F or M</t>
-  </si>
-  <si>
-    <t>Invalid name format</t>
-  </si>
-  <si>
-    <t>The surname should be delimited by "/"s</t>
-  </si>
-  <si>
     <t>Invalid family members</t>
   </si>
   <si>
@@ -588,9 +561,6 @@
     <t>Unmatched pointers</t>
   </si>
   <si>
-    <t>Make sure that the pointers of an individual matches the pointer of the related families, and vice versa</t>
-  </si>
-  <si>
     <t>Amount of family members</t>
   </si>
   <si>
@@ -603,9 +573,6 @@
     <t>There should be at least 1 year age difference unless they were born on the same day</t>
   </si>
   <si>
-    <t>Invalid date</t>
-  </si>
-  <si>
     <t>Make sure that all the dates are before today</t>
   </si>
   <si>
@@ -652,6 +619,15 @@
   </si>
   <si>
     <t>amoghagurumallappa</t>
+  </si>
+  <si>
+    <t>Make sure that the pointers of an individual matches the pointers of the related families, and vice versa</t>
+  </si>
+  <si>
+    <t>Date rule</t>
+  </si>
+  <si>
+    <t>Make sure that in a family, mother's death date is &gt;= her children's birth dates and father's death date + 10 months is &gt;= his children's birth dates</t>
   </si>
 </sst>
 </file>
@@ -790,56 +766,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -919,25 +895,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106084224"/>
-        <c:axId val="106085760"/>
+        <c:axId val="265713536"/>
+        <c:axId val="265715072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106084224"/>
+        <c:axId val="265713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106085760"/>
+        <c:crossAx val="265715072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106085760"/>
+        <c:axId val="265715072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +921,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106084224"/>
+        <c:crossAx val="265713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -955,7 +931,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1318,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1366,19 +1342,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1386,16 +1362,16 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1484,7 +1460,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1549,11 +1525,14 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>83</v>
       </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
       <c r="F2" t="s">
         <v>47</v>
       </c>
@@ -1570,10 +1549,10 @@
         <v>90</v>
       </c>
       <c r="K2" s="7">
-        <v>40444</v>
+        <v>40235</v>
       </c>
       <c r="L2" s="7">
-        <v>40414</v>
+        <v>40600</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1742,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1775,15 +1754,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
@@ -1791,10 +1770,10 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1802,10 +1781,10 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1813,10 +1792,10 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1824,10 +1803,10 @@
         <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1835,10 +1814,10 @@
         <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1846,10 +1825,10 @@
         <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1857,10 +1836,10 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1868,10 +1847,10 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1879,43 +1858,43 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" t="s">
         <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1923,10 +1902,10 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1934,10 +1913,10 @@
         <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1945,10 +1924,10 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1956,21 +1935,21 @@
         <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1978,10 +1957,10 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1989,10 +1968,10 @@
         <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2003,51 +1982,27 @@
         <v>166</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>127</v>
       </c>
-      <c r="B24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>129</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3">

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
-  <si>
-    <t>Find marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="195">
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Added</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death before marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -46,588 +178,499 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Est Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Est Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act Time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's death date is &gt;= their birth date</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's death date is &gt;= their marriage date</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's marriage date is &gt;= their birth date</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>No error message</t>
   </si>
   <si>
     <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Added</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initials</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>First</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>AT01</t>
+  </si>
+  <si>
+    <t>AT02</t>
+  </si>
+  <si>
+    <t>AT03</t>
+  </si>
+  <si>
+    <t>AT04</t>
+  </si>
+  <si>
+    <t>AT05</t>
+  </si>
+  <si>
+    <t>AT06</t>
+  </si>
+  <si>
+    <t>Acc Tests</t>
+  </si>
+  <si>
+    <t>AT ID</t>
+  </si>
+  <si>
+    <t>Meet twice a week</t>
+  </si>
+  <si>
+    <t>Text everyone when you discover a problem</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Forgetting to commit changes to GitHub</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>Yanjun</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>yw</t>
+  </si>
+  <si>
+    <t>ywu29@stevens.edu</t>
+  </si>
+  <si>
+    <t>LSYanJun</t>
+  </si>
+  <si>
+    <t>SSW555tm052015s</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's age is between 0 and 150</t>
+  </si>
+  <si>
+    <t>Make sure that in a family, father is a male and mother is a female</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Monogamy</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Make sure that an individual's divorce date is &gt;= their marriage date</t>
+  </si>
+  <si>
+    <t>Marriage before birth</t>
+  </si>
+  <si>
+    <t>Divorce before marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death before giving birth </t>
+  </si>
+  <si>
+    <t>An individual can't marry to their sibling unless they are not biologically related</t>
+  </si>
+  <si>
+    <t>A man can't get married until 20, a woman can't get married until 18</t>
+  </si>
+  <si>
+    <t>Death before birth</t>
+  </si>
+  <si>
+    <t>Make sure that the ID of an individual in a family or the ID of a family of an individual exists</t>
+  </si>
+  <si>
+    <t>Inexistent ID</t>
+  </si>
+  <si>
+    <t>Invalid gender</t>
+  </si>
+  <si>
+    <t>Invalid age of an individual</t>
+  </si>
+  <si>
+    <t>Invalid ages in a family</t>
+  </si>
+  <si>
+    <t>Make sure that the parents are older than children in one family</t>
+  </si>
+  <si>
+    <t>Illegal spouse</t>
+  </si>
+  <si>
+    <t>Illegal marrige age</t>
+  </si>
+  <si>
+    <t>Invalid family members</t>
+  </si>
+  <si>
+    <t>An individual can have at most one spouse</t>
+  </si>
+  <si>
+    <t>A family must contain a husband and a wife</t>
+  </si>
+  <si>
+    <t>Multiple roles in a family</t>
+  </si>
+  <si>
+    <t>Make sure an individual can play only one role in a family</t>
+  </si>
+  <si>
+    <t>Unmatched pointers</t>
+  </si>
+  <si>
+    <t>Amount of family members</t>
+  </si>
+  <si>
+    <t>A family can have at most 8 members</t>
+  </si>
+  <si>
+    <t>Age gap among the children</t>
+  </si>
+  <si>
+    <t>There should be at least 1 year age difference unless they were born on the same day</t>
+  </si>
+  <si>
+    <t>Make sure that all the dates are before today</t>
+  </si>
+  <si>
+    <t>Pregnancy limit</t>
+  </si>
+  <si>
+    <t>Wife can give birth between the age of 18 and 50</t>
+  </si>
+  <si>
+    <t>A person could be a child of only one family</t>
+  </si>
+  <si>
+    <t>A person should be linked to at least one family</t>
+  </si>
+  <si>
+    <t>Child in family</t>
+  </si>
+  <si>
+    <t>Family rule</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>Gong</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>gcheng2@stevens.edu</t>
+  </si>
+  <si>
+    <t>chenggongtc</t>
+  </si>
+  <si>
+    <t>Amog</t>
+  </si>
+  <si>
+    <t>bheemanakolli gurumallappa</t>
+  </si>
+  <si>
+    <t>abheeman@stevens.edu</t>
+  </si>
+  <si>
+    <t>amoghagurumallappa</t>
+  </si>
+  <si>
+    <t>Make sure that the pointers of an individual matches the pointers of the related families, and vice versa</t>
+  </si>
+  <si>
+    <t>Date rule</t>
+  </si>
+  <si>
+    <t>Make sure that in a family, mother's death date is &gt;= her children's birth dates and father's death date + 10 months is &gt;= his children's birth dates</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/)  is the child of F22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Individual I3(Katie /Brown/) is the spouse of Family F23</t>
+  </si>
+  <si>
+    <t>Error message "
+Individual I1(Jacky /Mao/) is a child of an inexistent Family F22."</t>
+  </si>
+  <si>
+    <t>Error message "
+Individual I3(Katie /Brown/) is a spouse of an inexistent Family F23."</t>
+  </si>
+  <si>
+    <t>Error message "
+Family F1 has a husband who is an inexistent Individual I18."</t>
+  </si>
+  <si>
+    <t>Error message "
+Family F2 has a child who is an inexistent Individual I15."</t>
+  </si>
+  <si>
+    <t>Error message "
+Family F3 has a wife who is an inexistent Individual I31."</t>
+  </si>
+  <si>
+    <t>Family F1's husband is Individual I18</t>
+  </si>
+  <si>
+    <t>Family F2 has a child who is Individual I15</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Individual I5(Emily /Mao/) is the child of F2 and the spouse of F5</t>
+  </si>
+  <si>
+    <t>AT07</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Family F4's husband is Individual I8(Kevin /Brown/), wife is Individual I9(Elena /Wilson/) and child is Individual I3(Katie /Brown/)</t>
+  </si>
+  <si>
+    <t>AT01~AT07</t>
+  </si>
+  <si>
+    <t>AT08</t>
+  </si>
+  <si>
+    <t>AT09</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>AT10</t>
+  </si>
+  <si>
+    <t>AT11</t>
+  </si>
+  <si>
+    <t>AT12</t>
+  </si>
+  <si>
+    <t>Error message "
+Individual I1(Jacky /Mao/) is a spouse of Family F1, but Family F1 does not have the spouse of I1(Jacky /Mao/)."</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/) is one of the spouse of Family F1, and Family F1's husband is Individual I18 and wife is Individual I12</t>
+  </si>
+  <si>
+    <t>Error message "
+Individual I3(Katie /Brown/) is a spouse of Family F3, but Family F3 does not have the spouse of I3(Katie /Brown/)."</t>
+  </si>
+  <si>
+    <t>Individual I3(Katie /Brown/) is one of the spouse of Family F3, and Family F3's husband is Individual I4 and wife is Individual I31</t>
+  </si>
+  <si>
+    <t>Error message "
+Individual I5(Emily /Mao/) is a child of Family F2, but Family F2 does not have the child of I5(Emily /Mao/)."</t>
+  </si>
+  <si>
+    <t>Individual I5(Emily /Mao/) is one of the child of Family F2, and Family F2's children are I1 and I15</t>
+  </si>
+  <si>
+    <t>Error message "
+Family F2's wife is Individual I3(Katie /Brown/), but Individual I3(Katie /Brown/) is not the wife of Family F2."</t>
+  </si>
+  <si>
+    <t>Family F2's wife is Individual I3(Katie /Brown/), I3(Katie /Brown/) is the spouse of F23 and F3</t>
+  </si>
+  <si>
+    <t>Error message "
+Family F2 has a child who is Individual I1(Jacky /Mao/), but Individual I1(Jacky /Mao/) is not a child of Family F2."</t>
+  </si>
+  <si>
+    <t>Family F2 has a child who is Individual I1(Jacky /Mao/), and I1(Jacky /Mao/) is the child of F22</t>
+  </si>
+  <si>
+    <t>AT13</t>
+  </si>
+  <si>
+    <t>Individual I2(Jianguo /Mao/) is one of the spouse of Family F2, and Family F2's husband is Individual I2(Jianguo /Mao/)</t>
+  </si>
+  <si>
+    <t>AT14</t>
+  </si>
+  <si>
+    <t>Family F3's wife is Individual I31</t>
+  </si>
+  <si>
+    <t>Family F3's husband is Individual I4(Edwin /Moore/), and Individual I4(Edwin /Moore/) is one of the spouse of Family F3</t>
+  </si>
+  <si>
+    <t>AT08~AT14</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>Code Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(at)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Death before birth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Death before marriage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marriage before birth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Est Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Make sure that an individual's death date is &gt;= their birth date</t>
-  </si>
-  <si>
-    <t>Make sure that an individual's death date is &gt;= their marriage date</t>
-  </si>
-  <si>
-    <t>Make sure that an individual's marriage date is &gt;= their birth date</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Expected Output</t>
-  </si>
-  <si>
-    <t>No error message</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Individual I01 (Groucho Marx)  has birth date 01 JAN 2015 and death date 01 JAN 2014</t>
-  </si>
-  <si>
-    <t>Individual I01 (Groucho Marx) has marriage date 01 JAN 2015 and death date 01 JAN 2014</t>
-  </si>
-  <si>
-    <t>Error message "Individual I01 (Groucho Marx) has death date (01 JAN 2014) before birth date (01 JAN 2015)"</t>
-  </si>
-  <si>
-    <t>Error message "Individual I01  (Groucho Marx) has death date (01 JAN 2014) before marriage date (01 JAN 2015)"</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>No data</t>
-  </si>
-  <si>
-    <t>Individual I02 (Harpo Marx) has birth date 01 JAN 1950 and death date 01 JAN 2015</t>
-  </si>
-  <si>
-    <t>Individual I02 (Harpo Marx) has marriage date 01 JAN 1980 and death date 01 JAN 2015</t>
-  </si>
-  <si>
-    <t>Individual I03 Chico Marx)  has birth date 01 JAN 2015 and marriage date 01 JAN 2014</t>
-  </si>
-  <si>
-    <t>Individual I02 (Harpo Marx) has birth date 01 JAN 1950 and marriage date 01 JAN 1980</t>
-  </si>
-  <si>
-    <t>Error message "Individual I03  (Chico Marx) has marriage date (01 JAN 2014) before birth date (01 JAN 2015)"</t>
-  </si>
-  <si>
-    <t>AT01, AT02</t>
-  </si>
-  <si>
-    <t>AT01</t>
-  </si>
-  <si>
-    <t>AT02</t>
-  </si>
-  <si>
-    <t>AT03</t>
-  </si>
-  <si>
-    <t>AT04</t>
-  </si>
-  <si>
-    <t>AT05</t>
-  </si>
-  <si>
-    <t>AT06</t>
-  </si>
-  <si>
-    <t>AT03, AT04</t>
-  </si>
-  <si>
-    <t>AT05, AT06</t>
-  </si>
-  <si>
-    <t>Acc Tests</t>
-  </si>
-  <si>
-    <t>AT ID</t>
-  </si>
-  <si>
-    <t>Meet twice a week</t>
-  </si>
-  <si>
-    <t>Text everyone when you discover a problem</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Forgetting to commit changes to GitHub</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>Yanjun</t>
-  </si>
-  <si>
-    <t>Wu</t>
-  </si>
-  <si>
-    <t>yw</t>
-  </si>
-  <si>
-    <t>ywu29@stevens.edu</t>
-  </si>
-  <si>
-    <t>LSYanJun</t>
-  </si>
-  <si>
-    <t>SSW555tm052015s</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Make sure that an individual's age is between 0 and 150</t>
-  </si>
-  <si>
-    <t>Make sure that in a family, father is a male and mother is a female</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Monogamy</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Make sure that an individual's divorce date is &gt;= their marriage date</t>
-  </si>
-  <si>
-    <t>Marriage before birth</t>
-  </si>
-  <si>
-    <t>Divorce before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death before giving birth </t>
-  </si>
-  <si>
-    <t>An individual can't marry to their sibling unless they are not biologically related</t>
-  </si>
-  <si>
-    <t>A man can't get married until 20, a woman can't get married until 18</t>
-  </si>
-  <si>
-    <t>Death before birth</t>
-  </si>
-  <si>
-    <t>Make sure that the ID of an individual in a family or the ID of a family of an individual exists</t>
-  </si>
-  <si>
-    <t>Inexistent ID</t>
-  </si>
-  <si>
-    <t>Invalid gender</t>
-  </si>
-  <si>
-    <t>Invalid age of an individual</t>
-  </si>
-  <si>
-    <t>Invalid ages in a family</t>
-  </si>
-  <si>
-    <t>Make sure that the parents are older than children in one family</t>
-  </si>
-  <si>
-    <t>Illegal spouse</t>
-  </si>
-  <si>
-    <t>Illegal marrige age</t>
-  </si>
-  <si>
-    <t>Invalid family members</t>
-  </si>
-  <si>
-    <t>An individual can have at most one spouse</t>
-  </si>
-  <si>
-    <t>A family must contain a husband and a wife</t>
-  </si>
-  <si>
-    <t>Multiple roles in a family</t>
-  </si>
-  <si>
-    <t>Make sure an individual can play only one role in a family</t>
-  </si>
-  <si>
-    <t>Unmatched pointers</t>
-  </si>
-  <si>
-    <t>Amount of family members</t>
-  </si>
-  <si>
-    <t>A family can have at most 8 members</t>
-  </si>
-  <si>
-    <t>Age gap among the children</t>
-  </si>
-  <si>
-    <t>There should be at least 1 year age difference unless they were born on the same day</t>
-  </si>
-  <si>
-    <t>Make sure that all the dates are before today</t>
-  </si>
-  <si>
-    <t>Pregnancy limit</t>
-  </si>
-  <si>
-    <t>Wife can give birth between the age of 18 and 50</t>
-  </si>
-  <si>
-    <t>A person could be a child of only one family</t>
-  </si>
-  <si>
-    <t>A person should be linked to at least one family</t>
-  </si>
-  <si>
-    <t>Child in family</t>
-  </si>
-  <si>
-    <t>Family rule</t>
-  </si>
-  <si>
-    <t>gc</t>
-  </si>
-  <si>
-    <t>Gong</t>
-  </si>
-  <si>
-    <t>Cheng</t>
-  </si>
-  <si>
-    <t>gcheng2@stevens.edu</t>
-  </si>
-  <si>
-    <t>chenggongtc</t>
-  </si>
-  <si>
-    <t>Amog</t>
-  </si>
-  <si>
-    <t>bheemanakolli gurumallappa</t>
-  </si>
-  <si>
-    <t>abheeman@stevens.edu</t>
-  </si>
-  <si>
-    <t>amoghagurumallappa</t>
-  </si>
-  <si>
-    <t>Make sure that the pointers of an individual matches the pointers of the related families, and vice versa</t>
-  </si>
-  <si>
-    <t>Date rule</t>
-  </si>
-  <si>
-    <t>Make sure that in a family, mother's death date is &gt;= her children's birth dates and father's death date + 10 months is &gt;= his children's birth dates</t>
+  </si>
+  <si>
+    <t>Link the existant family IDs to the related families</t>
+  </si>
+  <si>
+    <t>Link the existant individual IDs to the related individuals</t>
+  </si>
+  <si>
+    <t>T01.04</t>
+  </si>
+  <si>
+    <t>Check the existance of family IDs of every individual</t>
+  </si>
+  <si>
+    <t>Check the existance of individual IDs of every family</t>
+  </si>
+  <si>
+    <t>Check if the family pointers of an individual point back to the individual(as the same role in the family)</t>
+  </si>
+  <si>
+    <t>Check if the individual pointers of a family point back to the family(as the same role in the family)</t>
   </si>
 </sst>
 </file>
@@ -738,7 +781,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -764,6 +807,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -895,25 +942,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="265713536"/>
-        <c:axId val="265715072"/>
+        <c:axId val="305379200"/>
+        <c:axId val="305380736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265713536"/>
+        <c:axId val="305379200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265715072"/>
+        <c:crossAx val="305380736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="265715072"/>
+        <c:axId val="305380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +968,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265713536"/>
+        <c:crossAx val="305379200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +978,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000089" r="0.75000000000000089" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1308,78 +1355,78 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1414,34 +1461,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1507,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1481,40 +1528,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1522,19 +1569,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -1543,16 +1590,16 @@
         <v>60</v>
       </c>
       <c r="I2">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K2" s="7">
-        <v>40235</v>
+        <v>40600</v>
       </c>
       <c r="L2" s="7">
-        <v>40600</v>
+        <v>40598</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1560,36 +1607,42 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="I3">
+        <v>72</v>
+      </c>
+      <c r="J3">
+        <v>45</v>
+      </c>
+      <c r="K3" s="16">
+        <v>40601</v>
       </c>
       <c r="L3" s="7">
-        <v>40414</v>
+        <v>40598</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="L4" s="7">
         <v>40460</v>
@@ -1597,112 +1650,112 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1721,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1736,283 +1789,301 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2028,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2046,147 +2117,307 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="63">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>150</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
+        <v>157</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78.75">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="47.25">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="47.25">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2200,7 +2431,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2215,22 +2446,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2369,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2391,51 +2622,51 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2444,139 +2675,147 @@
         <v>60</v>
       </c>
       <c r="H2">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="I2">
-        <v>90</v>
-      </c>
-      <c r="J2" s="6">
-        <v>40444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="J2" s="7">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="J9" s="16">
+        <v>40601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="5" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="5"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2603,34 +2842,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2657,34 +2896,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2710,34 +2949,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -178,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -652,6 +648,9 @@
   </si>
   <si>
     <t>amoghagurumallappa</t>
+  </si>
+  <si>
+    <t>abg</t>
   </si>
 </sst>
 </file>
@@ -919,25 +918,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106084224"/>
-        <c:axId val="106085760"/>
+        <c:axId val="97236864"/>
+        <c:axId val="97238400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106084224"/>
+        <c:axId val="97236864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106085760"/>
+        <c:crossAx val="97238400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106085760"/>
+        <c:axId val="97238400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +944,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106084224"/>
+        <c:crossAx val="97236864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -955,7 +954,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000044" r="0.75000000000000044" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1319,7 +1318,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1344,66 +1343,66 @@
         <v>29</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" t="s">
         <v>105</v>
-      </c>
-      <c r="E3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" t="s">
         <v>181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
         <v>183</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" t="s">
         <v>185</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -1505,34 +1504,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="G1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>14</v>
@@ -1546,16 +1545,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -1581,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -1604,13 +1603,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7">
         <v>40460</v>
@@ -1618,112 +1617,112 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1757,307 +1756,307 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2091,142 +2090,142 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="63">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="63">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2441,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2468,19 +2467,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2500,10 +2499,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -2511,10 +2510,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -2522,10 +2521,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -2533,19 +2532,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>200</v>
@@ -2556,10 +2555,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
@@ -2570,7 +2569,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -2592,7 +2591,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2601,27 +2600,27 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>17</v>
@@ -2708,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
@@ -2761,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -670,17 +666,20 @@
   </si>
   <si>
     <t>Invalid date</t>
+  </si>
+  <si>
+    <t>abg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -877,22 +876,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -950,62 +938,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="93045120"/>
-        <c:axId val="93046656"/>
+        <c:axId val="105237120"/>
+        <c:axId val="105243008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93045120"/>
+        <c:axId val="105237120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93046656"/>
+        <c:crossAx val="105243008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93046656"/>
+        <c:axId val="105243008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93045120"/>
+        <c:crossAx val="105237120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000089" r="0.75000000000000089" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1365,14 +1337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1380,7 +1352,7 @@
     <col min="4" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1394,66 +1366,66 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E9" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1477,16 +1449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1530,14 +1502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1553,36 +1525,36 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
@@ -1591,24 +1563,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -1629,24 +1601,24 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1667,122 +1639,122 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7">
         <v>40460</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:12">
+      <c r="B14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1798,14 +1770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -1814,38 +1786,38 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -1854,18 +1826,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1874,243 +1846,243 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2125,14 +2097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2142,304 +2114,304 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="13" t="s">
+    <row r="8" spans="1:6" ht="63">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78.75">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="47.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="47.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>182</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2454,14 +2426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -2471,7 +2443,7 @@
     <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2488,10 +2460,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2502,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2524,7 +2496,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>40469</v>
       </c>
@@ -2546,7 +2518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>40483</v>
       </c>
@@ -2568,7 +2540,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>40497</v>
       </c>
@@ -2590,7 +2562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>40511</v>
       </c>
@@ -2626,14 +2598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -2647,7 +2619,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2627,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -2679,21 +2651,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2711,65 +2683,65 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" t="s">
-        <v>184</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -2787,62 +2759,62 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="J15" s="7"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2858,16 +2830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2875,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -2912,16 +2884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2929,7 +2901,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2965,16 +2937,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2982,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T01.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T01.02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -516,9 +512,6 @@
   </si>
   <si>
     <t>Make sure that the pointers of an individual matches the pointers of the related families, and vice versa</t>
-  </si>
-  <si>
-    <t>Date rule</t>
   </si>
   <si>
     <t>Make sure that in a family, mother's death date is &gt;= her children's birth dates and father's death date + 10 months is &gt;= his children's birth dates</t>
@@ -671,17 +664,23 @@
   </si>
   <si>
     <t>Check if the individual pointers of a family point back to the family(as the same role in the family)</t>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>Invalid date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -813,56 +812,56 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -878,11 +877,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -940,41 +950,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="305379200"/>
-        <c:axId val="305380736"/>
+        <c:smooth val="0"/>
+        <c:axId val="93045120"/>
+        <c:axId val="93046656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="305379200"/>
+        <c:axId val="93045120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305380736"/>
+        <c:crossAx val="93046656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="305380736"/>
+        <c:axId val="93046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="305379200"/>
+        <c:crossAx val="93045120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1338,14 +1365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1353,7 +1380,7 @@
     <col min="4" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1367,66 +1394,66 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" t="s">
         <v>140</v>
       </c>
-      <c r="E4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
         <v>142</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1450,16 +1477,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1503,14 +1530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1526,7 +1553,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -1537,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>30</v>
@@ -1564,7 +1591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1572,13 +1599,13 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -1602,7 +1629,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1610,16 +1637,16 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1640,7 +1667,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1648,114 +1675,114 @@
         <v>40460</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="B9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="B10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="B11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="B12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="B13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="B14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="B15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1771,14 +1798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -1787,7 +1814,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1795,10 +1822,10 @@
         <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>7</v>
@@ -1807,18 +1834,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -1827,18 +1854,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1847,243 +1874,243 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>103</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2098,14 +2125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2115,9 +2142,9 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>29</v>
@@ -2126,293 +2153,293 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="47.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="47.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>158</v>
       </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="47.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="47.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.5">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="63">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
         <v>164</v>
       </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="78.75">
-      <c r="A10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63">
-      <c r="A11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="63">
-      <c r="A12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="78.75">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="47.25">
-      <c r="A14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="47.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>184</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2427,14 +2454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -2444,7 +2471,7 @@
     <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2461,10 +2488,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2475,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2497,7 +2524,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40469</v>
       </c>
@@ -2519,7 +2546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40483</v>
       </c>
@@ -2541,7 +2568,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40497</v>
       </c>
@@ -2563,7 +2590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40511</v>
       </c>
@@ -2599,14 +2626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -2620,7 +2647,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2628,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -2652,18 +2679,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -2684,65 +2711,65 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>188</v>
       </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -2760,62 +2787,62 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J15" s="7"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2831,16 +2858,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -2885,16 +2912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2902,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2938,16 +2965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2955,7 +2982,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="281">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>Min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -670,6 +666,267 @@
   </si>
   <si>
     <t>Invalid date</t>
+  </si>
+  <si>
+    <t>YW</t>
+  </si>
+  <si>
+    <t>AT15</t>
+  </si>
+  <si>
+    <t>AT16</t>
+  </si>
+  <si>
+    <t>AT17</t>
+  </si>
+  <si>
+    <t>AT18</t>
+  </si>
+  <si>
+    <t>AT19</t>
+  </si>
+  <si>
+    <t>AT20</t>
+  </si>
+  <si>
+    <t>AT21</t>
+  </si>
+  <si>
+    <t>AT22</t>
+  </si>
+  <si>
+    <t>AT23</t>
+  </si>
+  <si>
+    <t>AT24</t>
+  </si>
+  <si>
+    <t>AT25</t>
+  </si>
+  <si>
+    <t>AT26</t>
+  </si>
+  <si>
+    <t>AT27</t>
+  </si>
+  <si>
+    <t>AT28</t>
+  </si>
+  <si>
+    <t>AT29</t>
+  </si>
+  <si>
+    <t>AT30</t>
+  </si>
+  <si>
+    <t>AT31</t>
+  </si>
+  <si>
+    <t>AT32</t>
+  </si>
+  <si>
+    <t>AT33</t>
+  </si>
+  <si>
+    <t>AT34</t>
+  </si>
+  <si>
+    <t>AT35</t>
+  </si>
+  <si>
+    <t>AT36</t>
+  </si>
+  <si>
+    <t>AT37</t>
+  </si>
+  <si>
+    <t>AT38</t>
+  </si>
+  <si>
+    <t>AT39</t>
+  </si>
+  <si>
+    <t>AT40</t>
+  </si>
+  <si>
+    <t>AT41</t>
+  </si>
+  <si>
+    <t>AT42</t>
+  </si>
+  <si>
+    <t>AT43</t>
+  </si>
+  <si>
+    <t>AT44</t>
+  </si>
+  <si>
+    <t>AT45</t>
+  </si>
+  <si>
+    <t>AT46</t>
+  </si>
+  <si>
+    <t>AT47</t>
+  </si>
+  <si>
+    <t>AT48</t>
+  </si>
+  <si>
+    <t>AT49</t>
+  </si>
+  <si>
+    <t>AT50</t>
+  </si>
+  <si>
+    <t>AT51</t>
+  </si>
+  <si>
+    <t>AT52</t>
+  </si>
+  <si>
+    <t>AT53</t>
+  </si>
+  <si>
+    <t>AT54</t>
+  </si>
+  <si>
+    <t>AT55</t>
+  </si>
+  <si>
+    <t>AT56</t>
+  </si>
+  <si>
+    <t>AT57</t>
+  </si>
+  <si>
+    <t>AT58</t>
+  </si>
+  <si>
+    <t>AT59</t>
+  </si>
+  <si>
+    <t>AT60</t>
+  </si>
+  <si>
+    <t>AT61</t>
+  </si>
+  <si>
+    <t>AT62</t>
+  </si>
+  <si>
+    <t>AT63</t>
+  </si>
+  <si>
+    <t>AT64</t>
+  </si>
+  <si>
+    <t>AT65</t>
+  </si>
+  <si>
+    <t>AT66</t>
+  </si>
+  <si>
+    <t>AT67</t>
+  </si>
+  <si>
+    <t>AT68</t>
+  </si>
+  <si>
+    <t>AT69</t>
+  </si>
+  <si>
+    <t>AT70</t>
+  </si>
+  <si>
+    <t>AT71</t>
+  </si>
+  <si>
+    <t>AT72</t>
+  </si>
+  <si>
+    <t>AT73</t>
+  </si>
+  <si>
+    <t>AT74</t>
+  </si>
+  <si>
+    <t>AT75</t>
+  </si>
+  <si>
+    <t>AT76</t>
+  </si>
+  <si>
+    <t>Individual I13(Bob /Shaw/) has an invalid death date.(29 FEB 1999) Death date doesn't exist.</t>
+  </si>
+  <si>
+    <t>Individual I13(Bob /Shaw/)'s death date is 29 FEB 1999</t>
+  </si>
+  <si>
+    <t>Individual I9(Elena /Wilson/)'s birthday is 1 JAN 2016, which is not possible known</t>
+  </si>
+  <si>
+    <t>Individual I9(Elena /Wilson/) has an invalid birth date.(1 JAN 2016) Birthday before current date.</t>
+  </si>
+  <si>
+    <t>Individual I13(Bob /Shaw/) has an invalid birth date.(31 JUN 1938) Birthday doesn't exist.</t>
+  </si>
+  <si>
+    <t>Individual I13(Bob /Shaw/)'s birth date is 31 JUN 1938</t>
+  </si>
+  <si>
+    <t>Individual I11(James /Brown/) has an invalid death date.(29 FEB 2400)Death date before current date.</t>
+  </si>
+  <si>
+    <t>Individual I11(James /Brown/)'s death date is 29 Feb 2400</t>
+  </si>
+  <si>
+    <t>Individual I10(Jen /Brown/) was born 29 FEB 2000</t>
+  </si>
+  <si>
+    <t>Individual I10(Jen /Brown/) was born 29 FEB 2000 and died on 20 May 1935</t>
+  </si>
+  <si>
+    <t>Individual I10(Jen /Brown/) death before birth.Birth: 29 FEB 2000 Death: 20 MAY 1935</t>
+  </si>
+  <si>
+    <t>Individual I5(Emily /Mao/) was born on 11 SEP 1993 and died on 31 OCT 2014</t>
+  </si>
+  <si>
+    <t>AT15~AT19</t>
+  </si>
+  <si>
+    <t>AT20~AT21</t>
+  </si>
+  <si>
+    <t>Get current date(year, month, day)</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t>Get every date from stored structure</t>
+  </si>
+  <si>
+    <t>T01.03</t>
+  </si>
+  <si>
+    <t>check if the event date of individual or family is after current date</t>
+  </si>
+  <si>
+    <t>check if the event date exists</t>
+  </si>
+  <si>
+    <t>Get individual's birth date</t>
+  </si>
+  <si>
+    <t>Get individual's death date</t>
+  </si>
+  <si>
+    <t>Check if individual's death is before birth</t>
+  </si>
+  <si>
+    <t>abg</t>
   </si>
 </sst>
 </file>
@@ -903,22 +1160,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>40598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40469</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40483</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40497</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40511</c:v>
+                  <c:v>40602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,22 +1175,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,11 +1195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93045120"/>
-        <c:axId val="93046656"/>
+        <c:axId val="95289728"/>
+        <c:axId val="95291264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93045120"/>
+        <c:axId val="95289728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,14 +1209,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93046656"/>
+        <c:crossAx val="95291264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93046656"/>
+        <c:axId val="95291264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93045120"/>
+        <c:crossAx val="95289728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,16 +1601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="5" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1394,66 +1628,66 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" t="s">
         <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1533,15 +1767,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
@@ -1555,34 +1789,34 @@
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>10</v>
@@ -1596,19 +1830,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>150</v>
@@ -1634,19 +1868,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
         <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>184</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -1668,121 +1902,286 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>102</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="16">
+        <v>40602</v>
       </c>
       <c r="L4" s="7">
-        <v>40460</v>
+        <v>40598</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>78</v>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6" s="16">
+        <v>40602</v>
+      </c>
+      <c r="L6" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="7">
+        <v>40598</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="7">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +2201,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1816,36 +2215,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -1856,16 +2255,16 @@
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1876,241 +2275,259 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2126,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2144,302 +2561,722 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>157</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>179</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2455,20 +3292,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2488,128 +3325,40 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>40598</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>40602</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
         <v>6</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>908</v>
       </c>
       <c r="E3">
         <v>120</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>40469</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C7" si="0">B3-B4</f>
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4">
-        <v>90</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4:F7" si="1">(D4-D3)/E4*60</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>40483</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>800</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>40497</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>900</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>40511</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2627,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2655,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -2681,19 +3430,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2713,63 +3462,63 @@
     </row>
     <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" t="s">
-        <v>184</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -2789,60 +3538,208 @@
     </row>
     <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14">
+        <v>80</v>
+      </c>
+      <c r="G14">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="H14">
+        <v>102</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
+      </c>
+      <c r="J14" s="16">
+        <v>40602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>192</v>
       </c>
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20" s="16">
+        <v>40602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2861,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2875,7 +3772,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
@@ -2916,7 +3813,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2929,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -2982,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yanjun</author>
+  </authors>
+  <commentList>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yanjun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="287">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -893,12 +927,6 @@
     <t>Individual I5(Emily /Mao/) was born on 11 SEP 1993 and died on 31 OCT 2014</t>
   </si>
   <si>
-    <t>AT15~AT19</t>
-  </si>
-  <si>
-    <t>AT20~AT21</t>
-  </si>
-  <si>
     <t>Get current date(year, month, day)</t>
   </si>
   <si>
@@ -927,6 +955,30 @@
   </si>
   <si>
     <t>abg</t>
+  </si>
+  <si>
+    <t>Family F1 marriage date is 2 FEB 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F1 has an invalid marriage date (2 Feb 2018). Marriage date beforen current date. </t>
+  </si>
+  <si>
+    <t>Family F3 has an invalid divorce date(31 NOV 1987). Divorce date doesn't exist.</t>
+  </si>
+  <si>
+    <t>Family F3 marriage date is 31 NOV 1987</t>
+  </si>
+  <si>
+    <t>AT15~AT21</t>
+  </si>
+  <si>
+    <t>AT22~AT23</t>
+  </si>
+  <si>
+    <t>Completed information</t>
+  </si>
+  <si>
+    <t>Every person must have completed information(name, sex, birthday) and every family must have completed information(marriage date)</t>
   </si>
 </sst>
 </file>
@@ -937,7 +989,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -966,6 +1018,29 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1037,7 +1112,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1067,6 +1142,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1195,11 +1280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95289728"/>
-        <c:axId val="95291264"/>
+        <c:axId val="104432000"/>
+        <c:axId val="104433536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95289728"/>
+        <c:axId val="104432000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,14 +1294,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95291264"/>
+        <c:crossAx val="104433536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="95291264"/>
+        <c:axId val="104433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95289728"/>
+        <c:crossAx val="104432000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1601,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +1752,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>140</v>
@@ -1768,7 +1853,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1911,8 +1996,8 @@
       <c r="C4" t="s">
         <v>193</v>
       </c>
-      <c r="D4" t="s">
-        <v>269</v>
+      <c r="D4" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="E4" t="s">
         <v>194</v>
@@ -1927,7 +2012,7 @@
         <v>45</v>
       </c>
       <c r="I4">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="J4">
         <v>60</v>
@@ -1960,8 +2045,8 @@
       <c r="C6" t="s">
         <v>109</v>
       </c>
-      <c r="D6" t="s">
-        <v>270</v>
+      <c r="D6" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="E6" t="s">
         <v>194</v>
@@ -2167,6 +2252,12 @@
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>94</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="L23" s="7">
+        <v>40602</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -2201,7 +2292,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2283,8 +2374,8 @@
       <c r="C4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D4" t="s">
-        <v>269</v>
+      <c r="D4" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -2303,8 +2394,8 @@
       <c r="C5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
-        <v>270</v>
+      <c r="D5" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2500,9 +2591,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>94</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,11 +2639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B20:D22"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2799,7 +2896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -2959,329 +3056,370 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3379,7 +3517,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3565,8 +3703,8 @@
       <c r="B14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" t="s">
-        <v>269</v>
+      <c r="C14" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -3581,7 +3719,7 @@
         <v>45</v>
       </c>
       <c r="H14">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="I14">
         <v>60</v>
@@ -3595,7 +3733,7 @@
         <v>192</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -3604,10 +3742,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -3615,10 +3753,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -3629,7 +3767,7 @@
         <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -3649,8 +3787,8 @@
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>270</v>
+      <c r="C20" s="20" t="s">
+        <v>284</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
@@ -3679,7 +3817,7 @@
         <v>192</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
@@ -3688,10 +3826,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -3699,10 +3837,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -3758,7 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="315">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -930,15 +930,9 @@
     <t>Get current date(year, month, day)</t>
   </si>
   <si>
-    <t>T01.02</t>
-  </si>
-  <si>
     <t>Get every date from stored structure</t>
   </si>
   <si>
-    <t>T01.03</t>
-  </si>
-  <si>
     <t>check if the event date of individual or family is after current date</t>
   </si>
   <si>
@@ -979,17 +973,107 @@
   </si>
   <si>
     <t>Every person must have completed information(name, sex, birthday) and every family must have completed information(marriage date)</t>
+  </si>
+  <si>
+    <t>Family F1 doesn't have information of a husband</t>
+  </si>
+  <si>
+    <t>Family F3 doesn't have information of a wife</t>
+  </si>
+  <si>
+    <t>Family F2 has 2 husbands: I2 and I4</t>
+  </si>
+  <si>
+    <t>Family F1 does not have a husband.</t>
+  </si>
+  <si>
+    <t>Family F3 does not have a wife.</t>
+  </si>
+  <si>
+    <t>Family F2 has 2 husbands: I2(Jianguo /Mao/), I4(Edwin /Moore/).</t>
+  </si>
+  <si>
+    <t>Famil F2's wife I3(Katie /Brown/) is not FEMALE.</t>
+  </si>
+  <si>
+    <t>Famil F4's husdband I8(Kevin /Brown/) is not MALE.</t>
+  </si>
+  <si>
+    <t>Individual I3 of family F2 is a male</t>
+  </si>
+  <si>
+    <t>Individual I8 of family F4 is a female</t>
+  </si>
+  <si>
+    <t>AT24~A26</t>
+  </si>
+  <si>
+    <t>AT24~AT26</t>
+  </si>
+  <si>
+    <t>AT27~AT28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all the husbands and wives in each family </t>
+  </si>
+  <si>
+    <t>count the amount of husbands and wives respectively</t>
+  </si>
+  <si>
+    <t>check the amount is less, equal or greater than one</t>
+  </si>
+  <si>
+    <t>Get the sex of a husband and the sex of a wife in a family</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>T03.04</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>check if the husband is a male and the wife is a female</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1219,22 +1303,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1268,62 +1341,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104432000"/>
-        <c:axId val="104433536"/>
+        <c:axId val="111040768"/>
+        <c:axId val="111042560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104432000"/>
+        <c:axId val="111040768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104433536"/>
+        <c:crossAx val="111042560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104433536"/>
+        <c:axId val="111042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104432000"/>
+        <c:crossAx val="111040768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000089" r="0.75000000000000089" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1683,14 +1740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1699,7 +1756,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1733,7 +1790,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -1750,9 +1807,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
         <v>140</v>
@@ -1767,7 +1824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>69</v>
       </c>
@@ -1796,16 +1853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1849,14 +1906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1872,7 +1929,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -1910,7 +1967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1948,7 +2005,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1986,7 +2043,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1997,7 +2054,7 @@
         <v>193</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
         <v>194</v>
@@ -2024,18 +2081,45 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
       </c>
+      <c r="D5" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5">
+        <v>80</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5" s="16">
+        <v>40601</v>
+      </c>
       <c r="L5" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2046,7 +2130,7 @@
         <v>109</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
         <v>194</v>
@@ -2073,18 +2157,45 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
       </c>
+      <c r="D7" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="16">
+        <v>40602</v>
+      </c>
       <c r="L7" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>79</v>
       </c>
@@ -2095,7 +2206,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -2106,7 +2217,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" t="s">
         <v>81</v>
       </c>
@@ -2117,7 +2228,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11" t="s">
         <v>82</v>
       </c>
@@ -2128,7 +2239,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12" t="s">
         <v>83</v>
       </c>
@@ -2139,7 +2250,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -2150,7 +2261,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>85</v>
       </c>
@@ -2161,7 +2272,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -2172,7 +2283,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>87</v>
       </c>
@@ -2183,7 +2294,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>88</v>
       </c>
@@ -2194,7 +2305,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>89</v>
       </c>
@@ -2205,7 +2316,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>90</v>
       </c>
@@ -2216,7 +2327,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -2227,7 +2338,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>92</v>
       </c>
@@ -2238,7 +2349,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>93</v>
       </c>
@@ -2249,28 +2360,28 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>97</v>
       </c>
@@ -2288,14 +2399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2304,7 +2415,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2324,7 +2435,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2344,7 +2455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2364,7 +2475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2375,7 +2486,7 @@
         <v>128</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -2384,7 +2495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -2395,7 +2506,7 @@
         <v>120</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2404,7 +2515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2414,8 +2525,17 @@
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2425,8 +2545,17 @@
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2437,7 +2566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2448,7 +2577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2459,7 +2588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2470,7 +2599,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2481,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -2492,7 +2621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2503,7 +2632,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -2514,7 +2643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -2525,7 +2654,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -2536,7 +2665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -2547,7 +2676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -2558,7 +2687,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -2569,7 +2698,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -2580,7 +2709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2591,38 +2720,38 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="25.5">
       <c r="A23" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2639,14 +2768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2656,7 +2785,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -2676,7 +2805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2696,7 +2825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2716,7 +2845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2736,7 +2865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2756,7 +2885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2776,7 +2905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -2796,7 +2925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -2816,7 +2945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -2836,7 +2965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -2856,7 +2985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>164</v>
       </c>
@@ -2876,7 +3005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>165</v>
       </c>
@@ -2896,7 +3025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -2916,7 +3045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -2936,7 +3065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -2956,7 +3085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>195</v>
       </c>
@@ -2976,7 +3105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -2996,7 +3125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -3016,7 +3145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -3036,7 +3165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>199</v>
       </c>
@@ -3056,7 +3185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -3067,16 +3196,16 @@
         <v>193</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -3087,16 +3216,16 @@
         <v>193</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -3116,7 +3245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -3136,282 +3265,357 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>256</v>
       </c>
@@ -3429,14 +3633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -3446,7 +3650,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -3477,7 +3681,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -3489,14 +3693,14 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>908</v>
+        <v>1034</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>155</v>
+        <v>100.61538461538461</v>
       </c>
     </row>
   </sheetData>
@@ -3513,14 +3717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -3534,7 +3738,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3566,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3598,7 +3802,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -3609,7 +3813,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3620,7 +3824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3631,7 +3835,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -3642,7 +3846,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3674,7 +3878,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -3685,7 +3889,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -3696,7 +3900,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -3704,7 +3908,7 @@
         <v>193</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
@@ -3728,9 +3932,9 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>269</v>
@@ -3740,47 +3944,44 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -3788,7 +3989,7 @@
         <v>109</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
@@ -3812,71 +4013,198 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>45</v>
+      </c>
+      <c r="J25" s="16">
+        <v>40601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="25.5">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" t="s">
+        <v>276</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="25.5">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30" s="16">
+        <v>40602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.5">
+      <c r="A31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="25.5">
+      <c r="A32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3893,16 +4221,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3947,16 +4275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4000,16 +4328,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="317">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -409,15 +409,6 @@
     <t>Make sure that in a family, father is a male and mother is a female</t>
   </si>
   <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Monogamy</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
     <t>Make sure that an individual's divorce date is &gt;= their marriage date</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
   </si>
   <si>
     <t xml:space="preserve">Death before giving birth </t>
-  </si>
-  <si>
-    <t>An individual can't marry to their sibling unless they are not biologically related</t>
   </si>
   <si>
     <t>A man can't get married until 20, a woman can't get married until 18</t>
@@ -1063,6 +1051,24 @@
   </si>
   <si>
     <t>check if the husband is a male and the wife is a female</t>
+  </si>
+  <si>
+    <t>Divorce before giving birth</t>
+  </si>
+  <si>
+    <t>An individual can't marry to their sibling</t>
+  </si>
+  <si>
+    <t>Marriage to death person</t>
+  </si>
+  <si>
+    <t>Make sure that the spouses were all alive when they were married</t>
+  </si>
+  <si>
+    <t>Polygamy</t>
+  </si>
+  <si>
+    <t>If the parents were divorced in a family, make sure that all the children were born before the divorce date</t>
   </si>
 </sst>
 </file>
@@ -1238,56 +1244,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1342,27 +1348,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="111040768"/>
-        <c:axId val="111042560"/>
+        <c:axId val="223820032"/>
+        <c:axId val="223821824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="111040768"/>
+        <c:axId val="223820032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111042560"/>
+        <c:crossAx val="223821824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="111042560"/>
+        <c:axId val="223821824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1375,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111040768"/>
+        <c:crossAx val="223820032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1380,7 +1385,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000133" r="0.75000000000000133" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1792,36 +1797,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1910,7 +1915,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:K7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1975,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -1993,7 +1998,7 @@
         <v>60</v>
       </c>
       <c r="I2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J2">
         <v>60</v>
@@ -2013,16 +2018,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -2031,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="I3">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>45</v>
@@ -2051,16 +2056,16 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G4">
         <v>80</v>
@@ -2089,16 +2094,16 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G5">
         <v>80</v>
@@ -2127,16 +2132,16 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -2165,16 +2170,16 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G7">
         <v>50</v>
@@ -2200,7 +2205,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7">
         <v>40598</v>
@@ -2211,7 +2216,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7">
         <v>40598</v>
@@ -2222,7 +2227,7 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7">
         <v>40598</v>
@@ -2244,7 +2249,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L12" s="7">
         <v>40598</v>
@@ -2255,7 +2260,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7">
         <v>40598</v>
@@ -2266,7 +2271,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7">
         <v>40598</v>
@@ -2277,7 +2282,7 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="L15" s="7">
         <v>40598</v>
@@ -2288,7 +2293,7 @@
         <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7">
         <v>40598</v>
@@ -2299,7 +2304,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7">
         <v>40598</v>
@@ -2310,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7">
         <v>40598</v>
@@ -2321,7 +2326,7 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7">
         <v>40598</v>
@@ -2332,7 +2337,7 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7">
         <v>40598</v>
@@ -2343,7 +2348,7 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7">
         <v>40598</v>
@@ -2354,7 +2359,7 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7">
         <v>40598</v>
@@ -2365,7 +2370,7 @@
         <v>94</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7">
         <v>40602</v>
@@ -2375,10 +2380,22 @@
       <c r="B24" t="s">
         <v>95</v>
       </c>
+      <c r="C24" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="L24" s="7">
+        <v>40602</v>
+      </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>96</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="L25" s="7">
+        <v>40602</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2400,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2440,13 +2457,13 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2460,13 +2477,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2480,13 +2497,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -2500,13 +2517,13 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2520,13 +2537,13 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -2540,13 +2557,13 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -2560,7 +2577,7 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -2571,10 +2588,10 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2582,10 +2599,10 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2604,7 +2621,7 @@
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>48</v>
@@ -2615,10 +2632,10 @@
         <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5">
@@ -2626,10 +2643,10 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2637,10 +2654,10 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2648,10 +2665,10 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2659,10 +2676,10 @@
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2670,10 +2687,10 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="25.5">
@@ -2681,10 +2698,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2692,10 +2709,10 @@
         <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2703,10 +2720,10 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2714,10 +2731,10 @@
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="25.5">
@@ -2725,35 +2742,37 @@
         <v>94</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" t="s">
         <v>95</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
+      <c r="B25" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2813,13 +2832,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -2833,13 +2852,13 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -2850,16 +2869,16 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2870,16 +2889,16 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2890,16 +2909,16 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2910,13 +2929,13 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
@@ -2927,16 +2946,16 @@
     </row>
     <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -2947,19 +2966,19 @@
     </row>
     <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -2967,19 +2986,19 @@
     </row>
     <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -2987,19 +3006,19 @@
     </row>
     <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -3007,19 +3026,19 @@
     </row>
     <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -3027,19 +3046,19 @@
     </row>
     <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
@@ -3047,16 +3066,16 @@
     </row>
     <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>51</v>
@@ -3067,16 +3086,16 @@
     </row>
     <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>51</v>
@@ -3087,19 +3106,19 @@
     </row>
     <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -3107,19 +3126,19 @@
     </row>
     <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -3127,19 +3146,19 @@
     </row>
     <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -3147,19 +3166,19 @@
     </row>
     <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
@@ -3167,16 +3186,16 @@
     </row>
     <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>51</v>
@@ -3187,19 +3206,19 @@
     </row>
     <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
@@ -3207,19 +3226,19 @@
     </row>
     <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>53</v>
@@ -3227,19 +3246,19 @@
     </row>
     <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -3247,16 +3266,16 @@
     </row>
     <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>51</v>
@@ -3267,19 +3286,19 @@
     </row>
     <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -3287,39 +3306,39 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -3327,19 +3346,19 @@
     </row>
     <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
@@ -3347,19 +3366,19 @@
     </row>
     <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
@@ -3367,257 +3386,257 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3686,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3720,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
       <selection activeCell="E30" sqref="E30:J30"/>
     </sheetView>
   </sheetViews>
@@ -3775,13 +3794,13 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -3804,13 +3823,13 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5">
@@ -3818,10 +3837,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5">
@@ -3829,21 +3848,21 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3851,16 +3870,16 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -3883,10 +3902,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25">
@@ -3894,27 +3913,27 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D14" t="s">
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -3934,10 +3953,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
         <v>72</v>
@@ -3946,10 +3965,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -3957,10 +3976,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -3968,10 +3987,10 @@
     </row>
     <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -3986,16 +4005,16 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
         <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -4015,10 +4034,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
         <v>72</v>
@@ -4027,10 +4046,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D22" t="s">
         <v>72</v>
@@ -4038,10 +4057,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -4053,16 +4072,16 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -4082,37 +4101,37 @@
     </row>
     <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J28" s="7"/>
     </row>
@@ -4124,16 +4143,16 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -4153,25 +4172,25 @@
     </row>
     <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J32" s="7"/>
     </row>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="321">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -295,12 +295,6 @@
     <t>AT ID</t>
   </si>
   <si>
-    <t>Meet twice a week</t>
-  </si>
-  <si>
-    <t>Text everyone when you discover a problem</t>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -1069,17 +1063,35 @@
   </si>
   <si>
     <t>If the parents were divorced in a family, make sure that all the children were born before the divorce date</t>
+  </si>
+  <si>
+    <t>Unique information</t>
+  </si>
+  <si>
+    <t>An individual can only have one tag of sex, name, birthdate, etc.</t>
+  </si>
+  <si>
+    <t>Inform everyone when you discover a problem</t>
+  </si>
+  <si>
+    <t>Meet at least twice a week</t>
+  </si>
+  <si>
+    <t>Add more user stories if you come up new one</t>
+  </si>
+  <si>
+    <t>Modify the user stories we are about to implement next sprint to more proper and completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1244,56 +1256,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1309,11 +1321,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1347,41 +1370,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="223820032"/>
-        <c:axId val="223821824"/>
+        <c:smooth val="0"/>
+        <c:axId val="105415040"/>
+        <c:axId val="105416576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="223820032"/>
+        <c:axId val="105415040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223821824"/>
+        <c:crossAx val="105416576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="223821824"/>
+        <c:axId val="105416576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223820032"/>
+        <c:crossAx val="105415040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1745,14 +1785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1761,7 +1801,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1775,66 +1815,66 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1858,16 +1898,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1911,14 +1951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1934,7 +1974,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +2012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1980,13 +2020,13 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2010,7 +2050,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2018,16 +2058,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -2048,7 +2088,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2056,16 +2096,16 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>80</v>
@@ -2086,24 +2126,24 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G5">
         <v>80</v>
@@ -2124,24 +2164,24 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -2162,24 +2202,24 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G7">
         <v>50</v>
@@ -2200,207 +2240,267 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
       <c r="L8" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
       </c>
       <c r="L9" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
       </c>
       <c r="L10" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
       <c r="L11" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
       </c>
       <c r="L12" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
       </c>
       <c r="L13" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L15" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="L26" s="7">
+        <v>40602</v>
       </c>
     </row>
   </sheetData>
@@ -2416,14 +2516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2432,7 +2532,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2452,18 +2552,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2472,18 +2572,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2492,18 +2592,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -2512,18 +2612,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2532,18 +2632,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -2552,18 +2652,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -2572,42 +2672,60 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -2615,164 +2733,188 @@
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="25.5">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2787,14 +2929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2804,7 +2946,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -2824,7 +2966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2832,19 +2974,19 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2852,90 +2994,90 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
@@ -2944,18 +3086,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -2964,118 +3106,118 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>51</v>
@@ -3084,18 +3226,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>51</v>
@@ -3104,98 +3246,98 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>51</v>
@@ -3204,78 +3346,78 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>51</v>
@@ -3284,359 +3426,359 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3652,14 +3794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -3669,7 +3811,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3686,10 +3828,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -3700,7 +3842,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -3736,14 +3878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:J30"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -3757,7 +3899,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3789,18 +3931,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -3821,65 +3963,65 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -3897,43 +4039,43 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
         <v>187</v>
       </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
       <c r="C14" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -3951,70 +4093,70 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>299</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.5">
-      <c r="A18" t="s">
-        <v>301</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -4032,56 +4174,56 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" t="s">
         <v>270</v>
       </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" t="s">
-        <v>272</v>
-      </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -4099,60 +4241,60 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>305</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D26" t="s">
-        <v>272</v>
-      </c>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="25.5">
-      <c r="A27" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" t="s">
-        <v>272</v>
-      </c>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="25.5">
-      <c r="A28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -4170,61 +4312,75 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" t="s">
+        <v>270</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" t="s">
-        <v>272</v>
-      </c>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="25.5">
-      <c r="A32" t="s">
-        <v>309</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4240,16 +4396,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4279,6 +4439,90 @@
       </c>
       <c r="J1" s="10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4294,16 +4538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4347,16 +4591,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="340">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1081,17 +1081,74 @@
   </si>
   <si>
     <t>Modify the user stories we are about to implement next sprint to more proper and completed</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/) is older than 150 years old. Birt date(27 JAN 1848), not dead.</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/)'s birth date is 27 JAN 1848, and he is not dead.</t>
+  </si>
+  <si>
+    <t>Individual I8(Kevin /Brown/) was older than 150 years old. Birt date(1 NOV 1848), deat date(11 SEP 2001).</t>
+  </si>
+  <si>
+    <t>Individual I8(Kevin /Brown/)'s birth date is 1 NOV 1848, and death date is 11 SEP 2001.</t>
+  </si>
+  <si>
+    <t>Individual I6(Lisabella /Taylor/)'s birth date is 6 JUN 2014, she is not dead.</t>
+  </si>
+  <si>
+    <t>AT26~28</t>
+  </si>
+  <si>
+    <t>Get the birth date of the individual</t>
+  </si>
+  <si>
+    <t>Get the death date of the individual(if exist)</t>
+  </si>
+  <si>
+    <t>Check the age of the individual</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Duplicate children</t>
+  </si>
+  <si>
+    <t>A family cannot have more than one children record of the same person.</t>
+  </si>
+  <si>
+    <t>Individual I3(Katie /Brown/) plays multiple roles in Family F2: child, wife</t>
+  </si>
+  <si>
+    <t>Individual I3(Katie /Brown/) is the wife and the child of Family F2.</t>
+  </si>
+  <si>
+    <t>Individual I2(Jianguo /Mao/) is the husband of Family F2.</t>
+  </si>
+  <si>
+    <t>AT29~30</t>
+  </si>
+  <si>
+    <t>Get all the individuals of the family</t>
+  </si>
+  <si>
+    <t>Sort the individuals by ID</t>
+  </si>
+  <si>
+    <t>Check if some individuals play multiple roles in the family</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1256,56 +1313,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1321,22 +1378,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1370,62 +1416,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="105415040"/>
-        <c:axId val="105416576"/>
+        <c:axId val="128936960"/>
+        <c:axId val="128938752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="105415040"/>
+        <c:axId val="128936960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105416576"/>
+        <c:crossAx val="128938752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105416576"/>
+        <c:axId val="128938752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105415040"/>
+        <c:crossAx val="128936960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000133" r="0.75000000000000133" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000144" r="0.75000000000000144" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1785,14 +1815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1801,7 +1831,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1852,7 +1882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -1869,7 +1899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1898,16 +1928,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1951,14 +1981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -1974,7 +2004,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2050,7 +2080,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2088,7 +2118,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2126,7 +2156,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2164,7 +2194,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2202,7 +2232,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2240,7 +2270,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2260,7 +2290,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2280,7 +2310,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2300,7 +2330,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2320,7 +2350,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2340,7 +2370,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2360,7 +2390,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -2371,7 +2401,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -2382,7 +2412,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -2393,7 +2423,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2404,7 +2434,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2415,7 +2445,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2426,7 +2456,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2437,7 +2467,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2448,7 +2478,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2459,7 +2489,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -2470,7 +2500,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -2481,7 +2511,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -2492,7 +2522,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -2516,14 +2546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2532,7 +2562,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2552,7 +2582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2572,7 +2602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2592,7 +2622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2612,7 +2642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2632,7 +2662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2652,7 +2682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2672,7 +2702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2689,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2706,7 +2736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2723,7 +2753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2740,7 +2770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2757,7 +2787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2774,7 +2804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2785,7 +2815,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2796,7 +2826,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2807,7 +2837,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -2818,7 +2848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2829,7 +2859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="25.5">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2840,7 +2870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2851,7 +2881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -2862,7 +2892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -2873,7 +2903,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="25.5">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -2884,7 +2914,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="25.5">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2895,7 +2925,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2906,7 +2936,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2915,6 +2945,17 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2929,24 +2970,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -2966,7 +3007,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2986,7 +3027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3006,7 +3047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3026,7 +3067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3046,7 +3087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3066,7 +3107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3086,7 +3127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -3106,7 +3147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3126,7 +3167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -3146,7 +3187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3166,7 +3207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3186,7 +3227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3206,7 +3247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -3226,7 +3267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -3246,7 +3287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -3266,7 +3307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -3286,7 +3327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3306,7 +3347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3326,7 +3367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -3346,7 +3387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -3366,7 +3407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3386,7 +3427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -3406,7 +3447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -3426,7 +3467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -3446,7 +3487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3466,7 +3507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -3486,7 +3527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -3506,7 +3547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
         <v>199</v>
       </c>
@@ -3526,257 +3567,332 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="38.25">
       <c r="A31" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -3794,14 +3910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -3811,7 +3927,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3947,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -3842,7 +3958,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -3878,14 +3994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -3899,7 +4015,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3931,7 +4047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3963,7 +4079,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -3974,7 +4090,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -3985,7 +4101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3996,7 +4112,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -4007,7 +4123,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4039,7 +4155,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4050,7 +4166,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4061,7 +4177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4093,7 +4209,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -4105,7 +4221,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>297</v>
       </c>
@@ -4116,7 +4232,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -4127,7 +4243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -4139,10 +4255,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4174,7 +4290,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -4186,7 +4302,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -4197,7 +4313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -4206,10 +4322,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4241,7 +4357,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -4253,7 +4369,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -4265,7 +4381,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>305</v>
       </c>
@@ -4277,10 +4393,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4312,7 +4428,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -4324,7 +4440,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -4336,49 +4452,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
         <v>320</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -4396,20 +4512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4441,87 +4557,199 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" s="16">
+        <v>40608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="F3">
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="G3">
+      <c r="G8">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H8">
+        <v>72</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" s="16">
+        <v>40608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="38.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="F4">
+      <c r="F17">
         <v>50</v>
       </c>
-      <c r="G4">
+      <c r="G17">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="F18">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G18">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="F6">
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F20">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G20">
         <v>10</v>
       </c>
     </row>
@@ -4538,16 +4766,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4591,16 +4819,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="340">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1143,12 +1143,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1313,56 +1313,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1378,11 +1378,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1416,42 +1427,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="128936960"/>
-        <c:axId val="128938752"/>
+        <c:smooth val="0"/>
+        <c:axId val="89748224"/>
+        <c:axId val="89749760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="128936960"/>
+        <c:axId val="89748224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128938752"/>
+        <c:crossAx val="89749760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="128938752"/>
+        <c:axId val="89749760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128936960"/>
+        <c:crossAx val="89748224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1815,14 +1842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1831,7 +1858,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1848,7 +1875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1865,7 +1892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1882,7 +1909,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -1899,7 +1926,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1928,16 +1955,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1981,14 +2008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2004,7 +2031,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2042,7 +2069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2080,7 +2107,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2118,7 +2145,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2156,7 +2183,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2194,7 +2221,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2232,7 +2259,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2270,7 +2297,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2290,7 +2317,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2310,7 +2337,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2330,7 +2357,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2350,7 +2377,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2370,7 +2397,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2390,7 +2417,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -2401,7 +2428,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -2412,7 +2439,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -2423,7 +2450,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2434,7 +2461,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2445,7 +2472,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2456,7 +2483,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2467,7 +2494,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2478,7 +2505,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2489,7 +2516,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -2500,7 +2527,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -2511,7 +2538,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -2522,7 +2549,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -2546,14 +2573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2562,7 +2589,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2602,7 +2629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2622,7 +2649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2642,7 +2669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2662,7 +2689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2682,7 +2709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2702,7 +2729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2719,7 +2746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2736,7 +2763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2753,7 +2780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2787,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2804,7 +2831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2815,7 +2842,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -2826,7 +2853,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2837,7 +2864,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2859,7 +2886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5">
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2870,7 +2897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2881,7 +2908,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -2892,7 +2919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -2903,7 +2930,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5">
+    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -2914,7 +2941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5">
+    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2925,7 +2952,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2936,7 +2963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2947,7 +2974,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>330</v>
       </c>
@@ -2970,14 +2997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E34" sqref="E34:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2987,7 +3014,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3007,7 +3034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3027,7 +3054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3047,7 +3074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3067,7 +3094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3087,7 +3114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3107,7 +3134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3127,7 +3154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -3147,7 +3174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3167,7 +3194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -3187,7 +3214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3207,7 +3234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3227,7 +3254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3247,7 +3274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -3267,7 +3294,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -3287,7 +3314,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -3307,7 +3334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -3327,7 +3354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3347,7 +3374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3367,7 +3394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -3387,7 +3414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -3407,7 +3434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3427,7 +3454,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -3447,7 +3474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -3467,7 +3494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -3487,7 +3514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3507,7 +3534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -3527,7 +3554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -3547,7 +3574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>199</v>
       </c>
@@ -3567,7 +3594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25">
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -3587,7 +3614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.25">
+    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -3607,7 +3634,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -3627,7 +3654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>203</v>
       </c>
@@ -3647,7 +3674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -3667,232 +3694,232 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -3910,14 +3937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -3927,7 +3954,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3947,7 +3974,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -3958,7 +3985,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -3994,14 +4021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -4015,7 +4042,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4047,7 +4074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4079,7 +4106,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -4090,7 +4117,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4101,7 +4128,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4112,7 +4139,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -4123,7 +4150,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4155,7 +4182,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4166,7 +4193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4177,7 +4204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4209,7 +4236,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -4221,7 +4248,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>297</v>
       </c>
@@ -4232,7 +4259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -4243,7 +4270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -4255,10 +4282,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4290,7 +4317,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -4302,7 +4329,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -4313,7 +4340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -4322,10 +4349,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4357,7 +4384,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -4369,7 +4396,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>304</v>
       </c>
@@ -4381,7 +4408,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>305</v>
       </c>
@@ -4393,10 +4420,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4428,7 +4455,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>306</v>
       </c>
@@ -4440,7 +4467,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -4452,49 +4479,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5">
+    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25">
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>320</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5">
+    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -4512,20 +4539,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4557,7 +4584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -4589,7 +4616,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -4601,7 +4628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4613,7 +4640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4625,11 +4652,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4661,7 +4688,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -4673,7 +4700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4685,7 +4712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -4697,13 +4724,16 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>108</v>
       </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
       <c r="F17">
         <v>50</v>
       </c>
@@ -4711,13 +4741,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
       <c r="F18">
         <v>30</v>
       </c>
@@ -4725,7 +4758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -4739,7 +4772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -4766,16 +4799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4819,16 +4852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="364">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1083,15 +1083,9 @@
     <t>Modify the user stories we are about to implement next sprint to more proper and completed</t>
   </si>
   <si>
-    <t>Individual I1(Jacky /Mao/) is older than 150 years old. Birt date(27 JAN 1848), not dead.</t>
-  </si>
-  <si>
     <t>Individual I1(Jacky /Mao/)'s birth date is 27 JAN 1848, and he is not dead.</t>
   </si>
   <si>
-    <t>Individual I8(Kevin /Brown/) was older than 150 years old. Birt date(1 NOV 1848), deat date(11 SEP 2001).</t>
-  </si>
-  <si>
     <t>Individual I8(Kevin /Brown/)'s birth date is 1 NOV 1848, and death date is 11 SEP 2001.</t>
   </si>
   <si>
@@ -1138,6 +1132,84 @@
   </si>
   <si>
     <t>Check if some individuals play multiple roles in the family</t>
+  </si>
+  <si>
+    <t>Individual I8(Kevin /Brown/) was older than 150 years old. Birth date(1 NOV 1848), deat date(11 SEP 2001).</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/) is older than 150 years old. Birth date(27 JAN 1848), not dead.</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t>T08.01</t>
+  </si>
+  <si>
+    <t>T08.02</t>
+  </si>
+  <si>
+    <t>T08.03</t>
+  </si>
+  <si>
+    <t>T09.01</t>
+  </si>
+  <si>
+    <t>get access to each family record</t>
+  </si>
+  <si>
+    <t>T09.02</t>
+  </si>
+  <si>
+    <t>T09.03</t>
+  </si>
+  <si>
+    <t>get each child birth date</t>
+  </si>
+  <si>
+    <t>T09.04</t>
+  </si>
+  <si>
+    <t>get each husband /wifebirth date</t>
+  </si>
+  <si>
+    <t>compare husband/wife birth date with child birth date</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>if there is no marriage date then continue to next family record</t>
+  </si>
+  <si>
+    <t>T10.03</t>
+  </si>
+  <si>
+    <t>get each husband/wife death date</t>
+  </si>
+  <si>
+    <t>T10.04</t>
+  </si>
+  <si>
+    <t>if there is no death date then continue</t>
+  </si>
+  <si>
+    <t>T10.05</t>
+  </si>
+  <si>
+    <t>compare the death date with marriage date</t>
   </si>
 </sst>
 </file>
@@ -1439,11 +1511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89748224"/>
-        <c:axId val="89749760"/>
+        <c:axId val="94933376"/>
+        <c:axId val="94934912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89748224"/>
+        <c:axId val="94933376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,14 +1525,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89749760"/>
+        <c:crossAx val="94934912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89749760"/>
+        <c:axId val="94934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89748224"/>
+        <c:crossAx val="94933376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2011,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H13"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2307,11 +2379,26 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
+      <c r="E8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8">
         <v>10</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8" s="16">
+        <v>40608</v>
       </c>
       <c r="L8" s="7">
         <v>40598</v>
@@ -2327,11 +2414,26 @@
       <c r="C9" t="s">
         <v>115</v>
       </c>
+      <c r="E9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9">
         <v>30</v>
+      </c>
+      <c r="I9">
+        <v>72</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9" s="16">
+        <v>40608</v>
       </c>
       <c r="L9" s="7">
         <v>40598</v>
@@ -2347,11 +2449,26 @@
       <c r="C10" t="s">
         <v>108</v>
       </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10">
         <v>45</v>
+      </c>
+      <c r="I10">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10" s="16">
+        <v>40610</v>
       </c>
       <c r="L10" s="7">
         <v>40598</v>
@@ -2367,11 +2484,26 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
       <c r="G11">
         <v>30</v>
       </c>
       <c r="H11">
         <v>10</v>
+      </c>
+      <c r="I11">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" s="16">
+        <v>40610</v>
       </c>
       <c r="L11" s="7">
         <v>40598</v>
@@ -2576,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2832,7 +2964,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B14" t="s">
@@ -2840,6 +2972,12 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>139</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2852,6 +2990,12 @@
       <c r="C15" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2863,8 +3007,14 @@
       <c r="C16" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -2874,8 +3024,14 @@
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -2885,8 +3041,14 @@
       <c r="C18" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2896,8 +3058,14 @@
       <c r="C19" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -2908,7 +3076,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -2919,7 +3087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -2930,7 +3098,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -2941,7 +3109,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2952,7 +3120,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2963,7 +3131,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2974,20 +3142,20 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3000,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:F34"/>
+    <sheetView topLeftCell="C28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3605,10 +3773,10 @@
         <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -3625,10 +3793,10 @@
         <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
@@ -3645,7 +3813,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>51</v>
@@ -3665,10 +3833,10 @@
         <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -3685,7 +3853,7 @@
         <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>51</v>
@@ -4024,7 +4192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4540,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4592,7 +4760,7 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
         <v>129</v>
@@ -4607,7 +4775,7 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -4618,10 +4786,10 @@
     </row>
     <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>340</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -4630,10 +4798,10 @@
     </row>
     <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -4642,10 +4810,10 @@
     </row>
     <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -4664,7 +4832,7 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
@@ -4690,10 +4858,10 @@
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
@@ -4702,10 +4870,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
@@ -4714,75 +4882,199 @@
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" s="16">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>108</v>
+        <v>349</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D17" t="s">
         <v>188</v>
       </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
+        <v>351</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="D18" t="s">
         <v>188</v>
       </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
       </c>
       <c r="F20">
         <v>30</v>
       </c>
       <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20" s="16">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
         <v>10</v>
       </c>
     </row>
@@ -4800,13 +5092,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -4838,6 +5133,108 @@
       </c>
       <c r="J1" s="10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="363">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -828,51 +828,6 @@
     <t>AT61</t>
   </si>
   <si>
-    <t>AT62</t>
-  </si>
-  <si>
-    <t>AT63</t>
-  </si>
-  <si>
-    <t>AT64</t>
-  </si>
-  <si>
-    <t>AT65</t>
-  </si>
-  <si>
-    <t>AT66</t>
-  </si>
-  <si>
-    <t>AT67</t>
-  </si>
-  <si>
-    <t>AT68</t>
-  </si>
-  <si>
-    <t>AT69</t>
-  </si>
-  <si>
-    <t>AT70</t>
-  </si>
-  <si>
-    <t>AT71</t>
-  </si>
-  <si>
-    <t>AT72</t>
-  </si>
-  <si>
-    <t>AT73</t>
-  </si>
-  <si>
-    <t>AT74</t>
-  </si>
-  <si>
-    <t>AT75</t>
-  </si>
-  <si>
-    <t>AT76</t>
-  </si>
-  <si>
     <t>Individual I13(Bob /Shaw/) has an invalid death date.(29 FEB 1999) Death date doesn't exist.</t>
   </si>
   <si>
@@ -1053,12 +1008,6 @@
     <t>An individual can't marry to their sibling</t>
   </si>
   <si>
-    <t>Marriage to death person</t>
-  </si>
-  <si>
-    <t>Make sure that the spouses were all alive when they were married</t>
-  </si>
-  <si>
     <t>Polygamy</t>
   </si>
   <si>
@@ -1092,9 +1041,6 @@
     <t>Individual I6(Lisabella /Taylor/)'s birth date is 6 JUN 2014, she is not dead.</t>
   </si>
   <si>
-    <t>AT26~28</t>
-  </si>
-  <si>
     <t>Get the birth date of the individual</t>
   </si>
   <si>
@@ -1107,12 +1053,6 @@
     <t>US26</t>
   </si>
   <si>
-    <t>Duplicate children</t>
-  </si>
-  <si>
-    <t>A family cannot have more than one children record of the same person.</t>
-  </si>
-  <si>
     <t>Individual I3(Katie /Brown/) plays multiple roles in Family F2: child, wife</t>
   </si>
   <si>
@@ -1122,9 +1062,6 @@
     <t>Individual I2(Jianguo /Mao/) is the husband of Family F2.</t>
   </si>
   <si>
-    <t>AT29~30</t>
-  </si>
-  <si>
     <t>Get all the individuals of the family</t>
   </si>
   <si>
@@ -1210,17 +1147,77 @@
   </si>
   <si>
     <t>compare the death date with marriage date</t>
+  </si>
+  <si>
+    <t>Last name rule</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Birth date limitation</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>AT29~AT31</t>
+  </si>
+  <si>
+    <t>AT32~AT33</t>
+  </si>
+  <si>
+    <t>Multiple births rule</t>
+  </si>
+  <si>
+    <t>The children should have the same last name as their father</t>
+  </si>
+  <si>
+    <t>There should be no more than 4 children that are born on the same day</t>
+  </si>
+  <si>
+    <t>All the individuals should be born after the year of 1900. We do not record ancient people</t>
+  </si>
+  <si>
+    <t>The age difference between two spouses should be less than 30 years</t>
+  </si>
+  <si>
+    <t>May-December marrige</t>
+  </si>
+  <si>
+    <t>Marriage rule</t>
+  </si>
+  <si>
+    <t>Children should be born after their parents' marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given birth before marriage </t>
+  </si>
+  <si>
+    <t>Children's marriage should after parents' marriage</t>
+  </si>
+  <si>
+    <t>Illegal marriage age</t>
+  </si>
+  <si>
+    <t>May-December marriage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1385,56 +1382,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1450,22 +1447,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1499,62 +1485,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="94933376"/>
-        <c:axId val="94934912"/>
+        <c:axId val="232676352"/>
+        <c:axId val="232678144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="94933376"/>
+        <c:axId val="232676352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94934912"/>
+        <c:crossAx val="232678144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="94934912"/>
+        <c:axId val="232678144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94933376"/>
+        <c:crossAx val="232676352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000144" r="0.75000000000000144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000155" r="0.75000000000000155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1914,14 +1884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1930,7 +1900,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1947,7 +1917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1964,7 +1934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1981,9 +1951,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>134</v>
@@ -1998,7 +1968,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2027,16 +1997,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2080,14 +2050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2103,7 +2073,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2141,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2179,7 +2149,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2217,7 +2187,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2228,7 +2198,7 @@
         <v>187</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -2255,7 +2225,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2266,10 +2236,10 @@
         <v>112</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>177</v>
@@ -2293,7 +2263,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2304,7 +2274,7 @@
         <v>103</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
         <v>188</v>
@@ -2331,7 +2301,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2342,10 +2312,10 @@
         <v>106</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>177</v>
@@ -2369,7 +2339,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2404,7 +2374,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2439,7 +2409,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2474,7 +2444,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2509,7 +2479,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2529,7 +2499,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2549,7 +2519,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -2560,18 +2530,18 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="L15" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -2582,7 +2552,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2593,7 +2563,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2604,7 +2574,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2615,7 +2585,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2626,7 +2596,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2637,7 +2607,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2648,54 +2618,109 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="L24" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7">
-        <v>40602</v>
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="7">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="L28" s="7">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="L29" s="7">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="L30" s="7">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="L31" s="7">
+        <v>40610</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2705,14 +2730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B30:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2721,7 +2746,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +2766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2761,7 +2786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2781,7 +2806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2817,7 @@
         <v>122</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -2801,7 +2826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2812,7 +2837,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -2821,7 +2846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2832,7 +2857,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -2841,7 +2866,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2852,7 +2877,7 @@
         <v>97</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -2861,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2871,6 +2896,9 @@
       <c r="C8" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D8" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="E8">
         <v>20</v>
       </c>
@@ -2878,7 +2906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2888,6 +2916,9 @@
       <c r="C9" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="D9" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="E9">
         <v>50</v>
       </c>
@@ -2895,7 +2926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2912,7 +2943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2929,7 +2960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2946,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2963,7 +2994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -2980,12 +3011,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>113</v>
@@ -2997,7 +3028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3005,7 +3036,7 @@
         <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3014,12 +3045,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>361</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
@@ -3031,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3048,7 +3079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25.5">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3065,7 +3096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3076,7 +3107,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3087,7 +3118,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3098,59 +3129,103 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5">
       <c r="A24" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>330</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3165,14 +3240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3182,7 +3257,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3202,7 +3277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3222,7 +3297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3242,7 +3317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3262,7 +3337,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3282,7 +3357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3302,7 +3377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3322,7 +3397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -3342,7 +3417,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3362,7 +3437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -3382,7 +3457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3402,7 +3477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3422,7 +3497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3442,7 +3517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -3462,7 +3537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -3482,7 +3557,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -3493,16 +3568,16 @@
         <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -3513,16 +3588,16 @@
         <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3533,16 +3608,16 @@
         <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3553,16 +3628,16 @@
         <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -3573,7 +3648,7 @@
         <v>187</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>51</v>
@@ -3582,7 +3657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -3593,16 +3668,16 @@
         <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3613,16 +3688,16 @@
         <v>187</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -3633,16 +3708,16 @@
         <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -3653,7 +3728,7 @@
         <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>51</v>
@@ -3662,9 +3737,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -3673,18 +3748,18 @@
         <v>112</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -3693,18 +3768,18 @@
         <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -3713,18 +3788,18 @@
         <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
@@ -3733,18 +3808,18 @@
         <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -3753,18 +3828,18 @@
         <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -3773,18 +3848,18 @@
         <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="38.25">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -3793,18 +3868,18 @@
         <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -3813,7 +3888,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>51</v>
@@ -3822,9 +3897,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
@@ -3833,18 +3908,18 @@
         <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s">
         <v>78</v>
@@ -3853,7 +3928,7 @@
         <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>51</v>
@@ -3862,234 +3937,144 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4105,14 +4090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -4122,7 +4107,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4142,7 +4127,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -4153,7 +4138,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -4189,14 +4174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -4210,7 +4195,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4242,7 +4227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4274,7 +4259,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -4285,7 +4270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4296,7 +4281,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4307,7 +4292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -4318,7 +4303,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4350,7 +4335,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4361,7 +4346,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4372,7 +4357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4380,7 +4365,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -4404,56 +4389,56 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4461,7 +4446,7 @@
         <v>103</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -4485,42 +4470,42 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4528,10 +4513,10 @@
         <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
         <v>177</v>
@@ -4552,46 +4537,46 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4599,10 +4584,10 @@
         <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>177</v>
@@ -4623,73 +4608,73 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -4707,20 +4692,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4752,15 +4737,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
-        <v>324</v>
+      <c r="C2" s="18" t="s">
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>129</v>
@@ -4784,55 +4769,55 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="C8" t="s">
-        <v>334</v>
+      <c r="C8" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
@@ -4856,43 +4841,43 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4903,7 +4888,7 @@
         <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -4921,55 +4906,55 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D15" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
         <v>188</v>
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4995,62 +4980,62 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="D25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -5064,7 +5049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -5091,19 +5076,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5135,7 +5120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -5152,12 +5137,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>129</v>
@@ -5169,7 +5154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5186,7 +5171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5203,7 +5188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5211,7 +5196,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -5220,7 +5205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -5228,7 +5213,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -5249,16 +5234,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="388">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1207,17 +1207,92 @@
   </si>
   <si>
     <t>May-December marriage</t>
+  </si>
+  <si>
+    <t>In family F2, wife I3 was born 14 FEB 1965, and child I5 was born 11 SEP 1993</t>
+  </si>
+  <si>
+    <t>Husband I8(Kevin /Brown/) of family F4(14 FEB 1965) is not older than the child I3(Katie /Brown/)(14 FEB 1965)</t>
+  </si>
+  <si>
+    <t>Husband I8(Kevin /Brown/) of family F6(14 FEB 1965) is not older than the child I11(James /Brown/)(1 MAY 1962)</t>
+  </si>
+  <si>
+    <t>In family F4, husband I8 was born 14 FEB 1965 as same as child I3 was born 14 FEB 1965</t>
+  </si>
+  <si>
+    <t>In family F6, husband I8 was born(14 FEB 1965) after child I11(1 MAY 1962)</t>
+  </si>
+  <si>
+    <t>Family F3, wife I3(Katie /Brown/) death (8 AUG 1980) before marriage (1 JAN 1985)</t>
+  </si>
+  <si>
+    <t>In family F3, Marriage date is 1 Jan 1985, wife I3 was died on 8 AUG 1980 which is before marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In family F6, marriage date is 1 JAN 1985, husband I8 died on (11 SEP 2001) </t>
+  </si>
+  <si>
+    <t>AT34~36</t>
+  </si>
+  <si>
+    <t>AT37~38</t>
+  </si>
+  <si>
+    <t>AT62</t>
+  </si>
+  <si>
+    <t>AT63</t>
+  </si>
+  <si>
+    <t>AT64</t>
+  </si>
+  <si>
+    <t>AT65</t>
+  </si>
+  <si>
+    <t>AT66</t>
+  </si>
+  <si>
+    <t>AT67</t>
+  </si>
+  <si>
+    <t>AT68</t>
+  </si>
+  <si>
+    <t>AT69</t>
+  </si>
+  <si>
+    <t>AT70</t>
+  </si>
+  <si>
+    <t>AT71</t>
+  </si>
+  <si>
+    <t>AT72</t>
+  </si>
+  <si>
+    <t>AT73</t>
+  </si>
+  <si>
+    <t>AT74</t>
+  </si>
+  <si>
+    <t>AT75</t>
+  </si>
+  <si>
+    <t>AT76</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1382,56 +1457,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1447,11 +1522,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1467,6 +1553,9 @@
                 <c:pt idx="1">
                   <c:v>40602</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>40611</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1477,50 +1566,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="232676352"/>
-        <c:axId val="232678144"/>
+        <c:smooth val="0"/>
+        <c:axId val="104633088"/>
+        <c:axId val="104634624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="232676352"/>
+        <c:axId val="104633088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232678144"/>
+        <c:crossAx val="104634624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="232678144"/>
+        <c:axId val="104634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232676352"/>
+        <c:crossAx val="104633088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1884,14 +1992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -1900,7 +2008,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +2025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1934,7 +2042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1951,7 +2059,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -1968,7 +2076,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -1997,16 +2105,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2050,14 +2158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2073,7 +2181,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2149,7 +2257,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2187,7 +2295,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2225,7 +2333,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2263,7 +2371,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2301,7 +2409,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2339,7 +2447,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2349,6 +2457,9 @@
       <c r="C8" t="s">
         <v>107</v>
       </c>
+      <c r="D8" s="18" t="s">
+        <v>349</v>
+      </c>
       <c r="E8" s="18" t="s">
         <v>129</v>
       </c>
@@ -2374,7 +2485,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2384,6 +2495,9 @@
       <c r="C9" t="s">
         <v>115</v>
       </c>
+      <c r="D9" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="E9" s="18" t="s">
         <v>129</v>
       </c>
@@ -2409,7 +2523,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2419,6 +2533,9 @@
       <c r="C10" t="s">
         <v>108</v>
       </c>
+      <c r="D10" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
@@ -2444,7 +2561,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2454,6 +2571,9 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
+      <c r="D11" s="18" t="s">
+        <v>372</v>
+      </c>
       <c r="E11" t="s">
         <v>188</v>
       </c>
@@ -2479,7 +2599,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2489,17 +2609,32 @@
       <c r="C12" t="s">
         <v>99</v>
       </c>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" t="s">
+        <v>333</v>
+      </c>
       <c r="G12">
         <v>30</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
+      <c r="I12">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12" s="16">
+        <v>40611</v>
+      </c>
       <c r="L12" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2509,17 +2644,32 @@
       <c r="C13" t="s">
         <v>100</v>
       </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>333</v>
+      </c>
       <c r="G13">
         <v>30</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" s="16">
+        <v>40611</v>
+      </c>
       <c r="L13" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -2530,7 +2680,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -2541,7 +2691,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -2552,7 +2702,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2563,7 +2713,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2574,7 +2724,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2585,7 +2735,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2596,7 +2746,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2607,7 +2757,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2618,7 +2768,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -2629,7 +2779,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -2640,7 +2790,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -2651,7 +2801,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -2662,7 +2812,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>310</v>
       </c>
@@ -2673,7 +2823,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>344</v>
       </c>
@@ -2684,7 +2834,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>346</v>
       </c>
@@ -2695,7 +2845,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>347</v>
       </c>
@@ -2706,7 +2856,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>348</v>
       </c>
@@ -2730,14 +2880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B30:B31"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2746,7 +2896,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2786,7 +2936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2806,7 +2956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2826,7 +2976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2846,7 +2996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2866,7 +3016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2886,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +3056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2926,7 +3076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2936,6 +3086,9 @@
       <c r="C10" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D10" s="18" t="s">
+        <v>371</v>
+      </c>
       <c r="E10">
         <v>50</v>
       </c>
@@ -2943,7 +3096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2953,6 +3106,9 @@
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D11" s="18" t="s">
+        <v>372</v>
+      </c>
       <c r="E11">
         <v>30</v>
       </c>
@@ -2960,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2977,7 +3133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2994,7 +3150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3011,7 +3167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3028,7 +3184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3045,7 +3201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3062,7 +3218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3079,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3096,7 +3252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3107,7 +3263,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3118,7 +3274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3129,7 +3285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3140,7 +3296,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3151,7 +3307,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3162,7 +3318,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3173,7 +3329,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>310</v>
       </c>
@@ -3184,7 +3340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>344</v>
       </c>
@@ -3195,7 +3351,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>346</v>
       </c>
@@ -3206,7 +3362,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>347</v>
       </c>
@@ -3217,7 +3373,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>348</v>
       </c>
@@ -3240,14 +3396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3257,7 +3413,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3277,7 +3433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3297,7 +3453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3317,7 +3473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3337,7 +3493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3357,7 +3513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3377,7 +3533,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3397,7 +3553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -3417,7 +3573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3437,7 +3593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -3457,7 +3613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3477,7 +3633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3497,7 +3653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3517,7 +3673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -3537,7 +3693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -3557,7 +3713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -3577,7 +3733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -3597,7 +3753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3617,7 +3773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3637,7 +3793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -3657,7 +3813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -3677,7 +3833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3697,7 +3853,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -3717,7 +3873,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -3737,7 +3893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -3757,7 +3913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>199</v>
       </c>
@@ -3777,7 +3933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -3797,7 +3953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -3817,7 +3973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -3837,7 +3993,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25">
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -3857,7 +4013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.25">
+    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -3877,7 +4033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -3897,7 +4053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -3917,7 +4073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -3937,144 +4093,294 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4090,14 +4396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -4107,7 +4413,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4127,26 +4433,25 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <f>B2-B3</f>
         <v>6</v>
       </c>
       <c r="D3">
@@ -4158,6 +4463,27 @@
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
         <v>100.61538461538461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>40611</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1303</v>
+      </c>
+      <c r="E4">
+        <v>125</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>129.12</v>
       </c>
     </row>
   </sheetData>
@@ -4174,14 +4500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -4195,7 +4521,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +4553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4259,7 +4585,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -4270,7 +4596,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4281,7 +4607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4292,7 +4618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -4303,7 +4629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4335,7 +4661,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4346,7 +4672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4357,7 +4683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4389,7 +4715,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -4401,7 +4727,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>282</v>
       </c>
@@ -4412,7 +4738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -4423,7 +4749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>284</v>
       </c>
@@ -4435,10 +4761,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4470,7 +4796,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -4482,7 +4808,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -4493,7 +4819,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>287</v>
       </c>
@@ -4502,10 +4828,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4537,7 +4863,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>288</v>
       </c>
@@ -4549,7 +4875,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -4561,7 +4887,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>290</v>
       </c>
@@ -4573,10 +4899,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4608,7 +4934,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -4620,7 +4946,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>292</v>
       </c>
@@ -4632,49 +4958,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5">
+    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25">
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>303</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5">
+    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -4692,20 +5018,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4737,7 +5063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -4769,7 +5095,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -4781,7 +5107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -4793,7 +5119,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -4805,11 +5131,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4841,7 +5167,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -4853,7 +5179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>323</v>
       </c>
@@ -4865,7 +5191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -4877,7 +5203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -4906,7 +5232,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5">
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>325</v>
       </c>
@@ -4917,7 +5243,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5">
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>327</v>
       </c>
@@ -4928,7 +5254,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -4939,7 +5265,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25">
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -4951,10 +5277,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4964,6 +5290,9 @@
       <c r="D20" t="s">
         <v>188</v>
       </c>
+      <c r="E20" t="s">
+        <v>333</v>
+      </c>
       <c r="F20">
         <v>30</v>
       </c>
@@ -4980,7 +5309,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -4991,7 +5320,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -5002,7 +5331,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -5013,7 +5342,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -5024,7 +5353,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5">
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>341</v>
       </c>
@@ -5035,32 +5364,62 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
       </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
       <c r="F27">
         <v>30</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+      <c r="H27">
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27" s="16">
+        <v>40611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="F28">
+      <c r="D30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30">
         <v>30</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>10</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30" s="16">
+        <v>40611</v>
       </c>
     </row>
   </sheetData>
@@ -5076,19 +5435,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5120,7 +5479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -5137,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -5154,7 +5513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5171,7 +5530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5188,7 +5547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5205,7 +5564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -5234,16 +5593,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="401">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1282,17 +1282,56 @@
   </si>
   <si>
     <t>AT76</t>
+  </si>
+  <si>
+    <t>T11.01</t>
+  </si>
+  <si>
+    <t>get the acess to each family record</t>
+  </si>
+  <si>
+    <t>T11.02</t>
+  </si>
+  <si>
+    <t>If there is no marriage date then contine to the next family record</t>
+  </si>
+  <si>
+    <t>T11.03</t>
+  </si>
+  <si>
+    <t>get husband and wife birth date</t>
+  </si>
+  <si>
+    <t>T11.04</t>
+  </si>
+  <si>
+    <t>Compare the birth date with marriage date</t>
+  </si>
+  <si>
+    <t>T12.01</t>
+  </si>
+  <si>
+    <t>T12.02</t>
+  </si>
+  <si>
+    <t>If there is no marriage date and Divorce date then contine to the next family record</t>
+  </si>
+  <si>
+    <t>T12.03</t>
+  </si>
+  <si>
+    <t>Compare the marrige date with divorce date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1522,22 +1561,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1577,62 +1605,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104633088"/>
-        <c:axId val="104634624"/>
+        <c:axId val="103504512"/>
+        <c:axId val="103506304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104633088"/>
+        <c:axId val="103504512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104634624"/>
+        <c:crossAx val="103506304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104634624"/>
+        <c:axId val="103506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104633088"/>
+        <c:crossAx val="103504512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000155" r="0.75000000000000155" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000167" r="0.75000000000000167" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1992,14 +2004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2008,7 +2020,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2059,7 +2071,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2105,16 +2117,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2158,14 +2170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K12" sqref="K12:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2181,7 +2193,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2257,7 +2269,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2333,7 +2345,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2447,7 +2459,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2669,7 +2681,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" t="s">
         <v>83</v>
       </c>
@@ -2680,7 +2692,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>84</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -2724,7 +2736,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>88</v>
       </c>
@@ -2735,7 +2747,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -2746,7 +2758,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -2790,7 +2802,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -2801,7 +2813,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12">
       <c r="B27" t="s">
         <v>310</v>
       </c>
@@ -2823,7 +2835,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12">
       <c r="B28" t="s">
         <v>344</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12">
       <c r="B29" t="s">
         <v>346</v>
       </c>
@@ -2845,7 +2857,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12">
       <c r="B30" t="s">
         <v>347</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12">
       <c r="B31" t="s">
         <v>348</v>
       </c>
@@ -2880,14 +2892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -2896,7 +2908,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -2936,7 +2948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3076,7 +3088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3096,7 +3108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3150,7 +3162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3167,7 +3179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3184,7 +3196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3201,7 +3213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25.5">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3252,7 +3264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3274,7 +3286,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25.5">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3307,7 +3319,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3318,7 +3330,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3329,7 +3341,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>310</v>
       </c>
@@ -3340,7 +3352,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>344</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>346</v>
       </c>
@@ -3362,7 +3374,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>347</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>348</v>
       </c>
@@ -3396,14 +3408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3413,7 +3425,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -3633,7 +3645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>189</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>190</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>192</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>193</v>
       </c>
@@ -3813,7 +3825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>194</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>196</v>
       </c>
@@ -3873,7 +3885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>199</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -3973,7 +3985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="38.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -4033,7 +4045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -4053,7 +4065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="25.5">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -4113,7 +4125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="38.25">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="38.25">
       <c r="A37" t="s">
         <v>210</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="38.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="25.5">
       <c r="A39" t="s">
         <v>212</v>
       </c>
@@ -4193,192 +4205,192 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>387</v>
       </c>
@@ -4396,14 +4408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -4413,7 +4425,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4445,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -4444,7 +4456,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -4500,14 +4512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -4521,7 +4533,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>186</v>
       </c>
@@ -4596,7 +4608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4618,7 +4630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -4683,7 +4695,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -4715,7 +4727,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>281</v>
       </c>
@@ -4727,7 +4739,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>282</v>
       </c>
@@ -4738,7 +4750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>283</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
         <v>284</v>
       </c>
@@ -4761,10 +4773,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4796,7 +4808,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -4808,7 +4820,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -4819,7 +4831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>287</v>
       </c>
@@ -4828,10 +4840,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -4863,7 +4875,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>288</v>
       </c>
@@ -4875,7 +4887,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -4887,7 +4899,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>290</v>
       </c>
@@ -4899,10 +4911,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -4934,7 +4946,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>291</v>
       </c>
@@ -4946,7 +4958,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
         <v>292</v>
       </c>
@@ -4958,49 +4970,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
         <v>303</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -5018,20 +5030,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5063,7 +5075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -5107,7 +5119,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -5131,11 +5143,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>323</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>324</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -5232,7 +5244,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
         <v>325</v>
       </c>
@@ -5243,7 +5255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
         <v>327</v>
       </c>
@@ -5254,7 +5266,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>328</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
         <v>330</v>
       </c>
@@ -5277,10 +5289,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5309,7 +5321,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
         <v>334</v>
       </c>
@@ -5320,7 +5332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
         <v>335</v>
       </c>
@@ -5331,7 +5343,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
         <v>341</v>
       </c>
@@ -5364,7 +5376,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -5374,6 +5386,9 @@
       <c r="D27" t="s">
         <v>255</v>
       </c>
+      <c r="E27" t="s">
+        <v>333</v>
+      </c>
       <c r="F27">
         <v>30</v>
       </c>
@@ -5384,42 +5399,99 @@
         <v>31</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J27" s="16">
-        <v>40611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.5">
+      <c r="A28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="38.25">
+      <c r="A29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="25.5">
+      <c r="A31" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>82</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>255</v>
       </c>
-      <c r="F30">
+      <c r="E32" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32">
         <v>30</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <v>10</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <v>15</v>
       </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30" s="16">
-        <v>40611</v>
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="J32" s="16">
+        <v>40612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="25.5">
+      <c r="A33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="51">
+      <c r="A34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="25.5">
+      <c r="A35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5435,19 +5507,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5479,7 +5551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -5496,7 +5568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -5513,7 +5585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -5530,7 +5602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5547,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -5564,7 +5636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -5593,16 +5665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="412">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1321,6 +1321,39 @@
   </si>
   <si>
     <t>Compare the marrige date with divorce date</t>
+  </si>
+  <si>
+    <t>In family F1, marriage date is 1 JAN 1985,husband I1 was born on 1 JAN 1840 and 27 JAN 1848</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/)'s marrige(1 JAN 1840) before birth(27 JAN 1848).</t>
+  </si>
+  <si>
+    <t>In family F5, marriage date is 1 JAN 1992,Wife I5 birth date is 11 SEP 1993</t>
+  </si>
+  <si>
+    <t>Individual I5(Emily /Mao/)'s marrige(1 JAN 1992) before birth(11 SEP 1993).</t>
+  </si>
+  <si>
+    <t>In family F3, Marriage date is 1 Jan 1985, Husband I4 and Wife I3 was born on 1 OCT 1960 and 14 Feb 1965</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Family F3's divorce date(31 DEC 1949) before marrige date(1 JAN 1985).</t>
+  </si>
+  <si>
+    <t>In Family F3, Mariage date is 1 JAN 1985,Divorce date is 31 DEC 1949</t>
+  </si>
+  <si>
+    <t>In family F6, marriage date is 1 JAN 1985, Divorce date is 31 DEC 1987</t>
+  </si>
+  <si>
+    <t>AT39~41</t>
+  </si>
+  <si>
+    <t>AT42~43</t>
   </si>
 </sst>
 </file>
@@ -1606,27 +1639,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="103504512"/>
-        <c:axId val="103506304"/>
+        <c:axId val="101993088"/>
+        <c:axId val="101994880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103504512"/>
+        <c:axId val="101993088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103506304"/>
+        <c:crossAx val="101994880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103506304"/>
+        <c:axId val="101994880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1634,7 +1666,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103504512"/>
+        <c:crossAx val="101993088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1644,7 +1676,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000167" r="0.75000000000000167" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000178" r="0.75000000000000178" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2173,8 +2205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:K13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2621,6 +2653,9 @@
       <c r="C12" t="s">
         <v>99</v>
       </c>
+      <c r="D12" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="E12" t="s">
         <v>255</v>
       </c>
@@ -2637,10 +2672,10 @@
         <v>31</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K12" s="16">
-        <v>40611</v>
+        <v>40612</v>
       </c>
       <c r="L12" s="7">
         <v>40598</v>
@@ -2656,6 +2691,9 @@
       <c r="C13" t="s">
         <v>100</v>
       </c>
+      <c r="D13" s="18" t="s">
+        <v>411</v>
+      </c>
       <c r="E13" t="s">
         <v>255</v>
       </c>
@@ -2675,7 +2713,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="16">
-        <v>40611</v>
+        <v>40612</v>
       </c>
       <c r="L13" s="7">
         <v>40598</v>
@@ -2895,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D11"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3138,6 +3176,9 @@
       <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D12" s="18" t="s">
+        <v>410</v>
+      </c>
       <c r="E12">
         <v>30</v>
       </c>
@@ -3154,6 +3195,9 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>411</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3411,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4205,29 +4249,104 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="38.25">
       <c r="A40" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="25.5">
       <c r="A41" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="38.25">
       <c r="A42" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="25.5">
       <c r="A43" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="25.5">
       <c r="A44" t="s">
         <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4515,7 +4634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5033,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A23" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5383,6 +5502,9 @@
       <c r="B27" t="s">
         <v>99</v>
       </c>
+      <c r="C27" t="s">
+        <v>410</v>
+      </c>
       <c r="D27" t="s">
         <v>255</v>
       </c>
@@ -5448,6 +5570,9 @@
       <c r="B32" t="s">
         <v>100</v>
       </c>
+      <c r="C32" t="s">
+        <v>411</v>
+      </c>
       <c r="D32" t="s">
         <v>255</v>
       </c>
@@ -5464,7 +5589,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J32" s="16">
         <v>40612</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="414">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1035,9 +1035,6 @@
     <t>Individual I1(Jacky /Mao/)'s birth date is 27 JAN 1848, and he is not dead.</t>
   </si>
   <si>
-    <t>Individual I8(Kevin /Brown/)'s birth date is 1 NOV 1848, and death date is 11 SEP 2001.</t>
-  </si>
-  <si>
     <t>Individual I6(Lisabella /Taylor/)'s birth date is 6 JUN 2014, she is not dead.</t>
   </si>
   <si>
@@ -1071,9 +1068,6 @@
     <t>Check if some individuals play multiple roles in the family</t>
   </si>
   <si>
-    <t>Individual I8(Kevin /Brown/) was older than 150 years old. Birth date(1 NOV 1848), deat date(11 SEP 2001).</t>
-  </si>
-  <si>
     <t>Individual I1(Jacky /Mao/) is older than 150 years old. Birth date(27 JAN 1848), not dead.</t>
   </si>
   <si>
@@ -1354,6 +1348,19 @@
   </si>
   <si>
     <t>AT42~43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Individual I12(Grace /Li/) was older than 150 years old. Birth date(21 APR 1839), deat date(21 APR 1990).</t>
+  </si>
+  <si>
+    <t>Individual I12(Grace /Li/)'s birth date is 21 APR 1839, and death date is 21 APR 1990.</t>
+  </si>
+  <si>
+    <t>AT34~AT36</t>
+  </si>
+  <si>
+    <t>AT37~AT38</t>
   </si>
 </sst>
 </file>
@@ -1529,56 +1536,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1640,25 +1647,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="101993088"/>
-        <c:axId val="101994880"/>
+        <c:axId val="209016704"/>
+        <c:axId val="209018240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="101993088"/>
+        <c:axId val="209016704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101994880"/>
+        <c:crossAx val="209018240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101994880"/>
+        <c:axId val="209018240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1673,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101993088"/>
+        <c:crossAx val="209016704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,7 +1683,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000178" r="0.75000000000000178" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000189" r="0.75000000000000189" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2205,7 +2212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -2502,7 +2509,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>129</v>
@@ -2540,7 +2547,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>129</v>
@@ -2578,7 +2585,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -2616,7 +2623,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
@@ -2654,13 +2661,13 @@
         <v>99</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
         <v>255</v>
       </c>
       <c r="F12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -2692,13 +2699,13 @@
         <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E13" t="s">
         <v>255</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -2856,7 +2863,7 @@
         <v>95</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L26" s="7">
         <v>40610</v>
@@ -2864,10 +2871,10 @@
     </row>
     <row r="27" spans="2:12">
       <c r="B27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L27" s="7">
         <v>40610</v>
@@ -2875,10 +2882,10 @@
     </row>
     <row r="28" spans="2:12">
       <c r="B28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L28" s="7">
         <v>40610</v>
@@ -2886,10 +2893,10 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L29" s="7">
         <v>40610</v>
@@ -2897,10 +2904,10 @@
     </row>
     <row r="30" spans="2:12">
       <c r="B30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L30" s="7">
         <v>40610</v>
@@ -2908,10 +2915,10 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L31" s="7">
         <v>40610</v>
@@ -3097,7 +3104,7 @@
         <v>96</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3117,7 +3124,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3137,7 +3144,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -3157,7 +3164,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3177,7 +3184,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -3197,7 +3204,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3262,7 +3269,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
@@ -3379,65 +3386,65 @@
         <v>95</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3455,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4063,13 +4070,13 @@
         <v>304</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="38.25">
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -4080,10 +4087,10 @@
         <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
@@ -4100,7 +4107,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>51</v>
@@ -4120,10 +4127,10 @@
         <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -4140,7 +4147,7 @@
         <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>51</v>
@@ -4160,7 +4167,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -4180,10 +4187,10 @@
         <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -4200,10 +4207,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -4220,10 +4227,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -4240,7 +4247,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -4260,13 +4267,13 @@
         <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="25.5">
@@ -4280,10 +4287,10 @@
         <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -4300,7 +4307,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -4320,10 +4327,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F43" t="s">
         <v>53</v>
@@ -4340,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -4441,77 +4448,77 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4635,7 +4642,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5150,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5202,7 +5209,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D2" t="s">
         <v>129</v>
@@ -5228,10 +5235,10 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -5240,10 +5247,10 @@
     </row>
     <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -5252,10 +5259,10 @@
     </row>
     <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -5274,7 +5281,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
@@ -5300,10 +5307,10 @@
     </row>
     <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
@@ -5312,10 +5319,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
@@ -5324,10 +5331,10 @@
     </row>
     <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
@@ -5341,11 +5348,14 @@
       <c r="B14" t="s">
         <v>108</v>
       </c>
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
       <c r="D14" t="s">
         <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -5365,10 +5375,10 @@
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D15" t="s">
         <v>188</v>
@@ -5376,10 +5386,10 @@
     </row>
     <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
         <v>188</v>
@@ -5387,10 +5397,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D17" t="s">
         <v>188</v>
@@ -5398,10 +5408,10 @@
     </row>
     <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D18" t="s">
         <v>188</v>
@@ -5418,11 +5428,14 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
+      <c r="C20" t="s">
+        <v>413</v>
+      </c>
       <c r="D20" t="s">
         <v>188</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -5442,10 +5455,10 @@
     </row>
     <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
         <v>188</v>
@@ -5453,10 +5466,10 @@
     </row>
     <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -5464,10 +5477,10 @@
     </row>
     <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D23" t="s">
         <v>188</v>
@@ -5475,10 +5488,10 @@
     </row>
     <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D24" t="s">
         <v>188</v>
@@ -5486,10 +5499,10 @@
     </row>
     <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D25" t="s">
         <v>188</v>
@@ -5503,13 +5516,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D27" t="s">
         <v>255</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -5529,37 +5542,37 @@
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J31" s="16"/>
     </row>
@@ -5571,13 +5584,13 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D32" t="s">
         <v>255</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -5597,26 +5610,67 @@
     </row>
     <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="25.5">
+      <c r="B41" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="51">
+      <c r="B42" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="25.5">
+      <c r="B45" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="434">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1361,6 +1361,66 @@
   </si>
   <si>
     <t>AT37~AT38</t>
+  </si>
+  <si>
+    <t>In Family F5, wife I5(Emily /Mao/)'s death date(5 JUN 2014) is &lt; her child I6(Lisabella /Taylor/)'s birth date(6 JUN 2014)</t>
+  </si>
+  <si>
+    <t>In Family F5, husband I7(Chris /Taylor/)'s death date(6 JUN 2013) + 10 months is &lt; his child I6(Lisabella /Taylor/)'s birth date(6 JUN 2014)</t>
+  </si>
+  <si>
+    <t>In Family F5, wife I5(Emily /Mao/) died on 5 JUN 2014, and child I6(Lisabella /Taylor/) was born on 6 JUN 2014</t>
+  </si>
+  <si>
+    <t>In Family F5, husband I7(Chris /Taylor/) died on 6 JUN 2013, and child I6(Lisabella /Taylor/) was born on 6 JUN 2014</t>
+  </si>
+  <si>
+    <t>In Family F6, husband I8(Kevin /Brown/) died on 11 SEP 2001, wife I10(Jen /Brown/) not dead, child I11(James /Brown/) was born on 1 MAY 1962</t>
+  </si>
+  <si>
+    <t>AT44~46</t>
+  </si>
+  <si>
+    <t>T13.01</t>
+  </si>
+  <si>
+    <t>T13.02</t>
+  </si>
+  <si>
+    <t>T13.03</t>
+  </si>
+  <si>
+    <t>Get the death date of the wife(if exists) in each family</t>
+  </si>
+  <si>
+    <t>Compare the death date of the wife with the birth date of her each child</t>
+  </si>
+  <si>
+    <t>Check if the wife died before she giving birth to some child</t>
+  </si>
+  <si>
+    <t>T13.04</t>
+  </si>
+  <si>
+    <t>T13.05</t>
+  </si>
+  <si>
+    <t>T13.06</t>
+  </si>
+  <si>
+    <t>Get the death date of the husband(if exists) in each family</t>
+  </si>
+  <si>
+    <t>T13.07</t>
+  </si>
+  <si>
+    <t>Add 10 months to the death date</t>
+  </si>
+  <si>
+    <t>Compare the fixed death date of the husband with the birth date of her each child</t>
+  </si>
+  <si>
+    <t>Check if the husband died more than 10 months before his child was born</t>
   </si>
 </sst>
 </file>
@@ -1647,25 +1707,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="209016704"/>
-        <c:axId val="209018240"/>
+        <c:axId val="104298368"/>
+        <c:axId val="104299904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="209016704"/>
+        <c:axId val="104298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209018240"/>
+        <c:crossAx val="104299904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="209018240"/>
+        <c:axId val="104299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1733,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209016704"/>
+        <c:crossAx val="104298368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,7 +1743,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000189" r="0.75000000000000189" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000002" r="0.750000000000002" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2940,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3462,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A37"/>
+    <sheetView topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4356,19 +4416,64 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="B45" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="B46" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" t="s">
         <v>220</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5159,8 +5264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5687,10 +5792,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5737,98 +5842,193 @@
       <c r="B2" t="s">
         <v>101</v>
       </c>
+      <c r="C2" t="s">
+        <v>419</v>
+      </c>
       <c r="D2" s="18" t="s">
         <v>129</v>
       </c>
+      <c r="E2" s="18" t="s">
+        <v>331</v>
+      </c>
       <c r="F2">
         <v>70</v>
       </c>
       <c r="G2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="H2">
+        <v>115</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2" s="16">
+        <v>40625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.25">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.25">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="38.25">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5">
+      <c r="A8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="38.25">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F3">
+      <c r="F12">
         <v>50</v>
       </c>
-      <c r="G3">
+      <c r="G12">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F13">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="G13">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="F14">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G14">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F6">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G15">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>88</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B16" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F7">
+      <c r="F16">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="G16">
         <v>20</v>
       </c>
     </row>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="444">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -448,9 +448,6 @@
     <t>Invalid family members</t>
   </si>
   <si>
-    <t>An individual can have at most one spouse</t>
-  </si>
-  <si>
     <t>A family must contain a husband and a wife</t>
   </si>
   <si>
@@ -1421,6 +1418,39 @@
   </si>
   <si>
     <t>Check if the husband died more than 10 months before his child was born</t>
+  </si>
+  <si>
+    <t>An individual can have at most one spouse currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I8(Kevin /Brown/) has more than one spouse currently: I9(Elena /Wilson/) in Family F4, I10(Jen /Brown/) in Family F6. </t>
+  </si>
+  <si>
+    <t>Individual I8(Kevin /Brown/) is the husband of Family F4 and Family F6 currently</t>
+  </si>
+  <si>
+    <t>Individual I10(Jen /Brown/) is the wife of Family F6 only</t>
+  </si>
+  <si>
+    <t>AT47~48</t>
+  </si>
+  <si>
+    <t>T14.01</t>
+  </si>
+  <si>
+    <t>T14.02</t>
+  </si>
+  <si>
+    <t>T14.03</t>
+  </si>
+  <si>
+    <t>Get the FAMS of each Individual</t>
+  </si>
+  <si>
+    <t>Store the other spouse of each family if they do not divorce currently</t>
+  </si>
+  <si>
+    <t>Check if the number of the stored spouses is greater than 1</t>
   </si>
 </sst>
 </file>
@@ -1707,25 +1737,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="104298368"/>
-        <c:axId val="104299904"/>
+        <c:axId val="64055168"/>
+        <c:axId val="64056704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104298368"/>
+        <c:axId val="64055168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104299904"/>
+        <c:crossAx val="64056704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104299904"/>
+        <c:axId val="64056704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1763,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104298368"/>
+        <c:crossAx val="64055168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,7 +1773,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.750000000000002" r="0.750000000000002" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000211" r="0.75000000000000211" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2155,36 +2185,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" t="s">
         <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" t="s">
         <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2273,7 +2303,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2341,10 +2371,10 @@
         <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -2376,16 +2406,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>177</v>
       </c>
       <c r="G3">
         <v>50</v>
@@ -2414,16 +2444,16 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4">
         <v>80</v>
@@ -2455,13 +2485,13 @@
         <v>112</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5">
         <v>80</v>
@@ -2493,13 +2523,13 @@
         <v>103</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -2531,13 +2561,13 @@
         <v>106</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7">
         <v>50</v>
@@ -2569,13 +2599,13 @@
         <v>107</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -2604,16 +2634,16 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -2645,13 +2675,13 @@
         <v>108</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -2683,13 +2713,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11">
         <v>30</v>
@@ -2721,13 +2751,13 @@
         <v>99</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -2759,13 +2789,13 @@
         <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -2787,28 +2817,85 @@
       </c>
     </row>
     <row r="14" spans="1:12">
+      <c r="A14">
+        <v>3</v>
+      </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
       <c r="C14" t="s">
         <v>101</v>
       </c>
+      <c r="D14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>115</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14" s="16">
+        <v>40625</v>
+      </c>
       <c r="L14" s="7">
         <v>40598</v>
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15">
+        <v>3</v>
+      </c>
       <c r="B15" t="s">
         <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>45</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15" s="16">
+        <v>40625</v>
       </c>
       <c r="L15" s="7">
         <v>40598</v>
       </c>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>85</v>
       </c>
@@ -2819,7 +2906,10 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>3</v>
+      </c>
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -2830,155 +2920,161 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L26" s="7">
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L27" s="7">
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L28" s="7">
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L29" s="7">
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L30" s="7">
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L31" s="7">
         <v>40610</v>
@@ -3001,7 +3097,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3044,7 +3140,7 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -3058,13 +3154,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3078,13 +3174,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -3101,10 +3197,10 @@
         <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3124,7 +3220,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -3144,7 +3240,7 @@
         <v>97</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3164,7 +3260,7 @@
         <v>96</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3178,13 +3274,13 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3204,7 +3300,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -3224,7 +3320,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3244,7 +3340,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -3264,7 +3360,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3281,7 +3377,10 @@
         <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>418</v>
       </c>
       <c r="E14">
         <v>70</v>
@@ -3295,10 +3394,13 @@
         <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>433</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -3315,7 +3417,7 @@
         <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3329,7 +3431,7 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
@@ -3346,10 +3448,10 @@
         <v>87</v>
       </c>
       <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -3363,10 +3465,10 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -3380,10 +3482,10 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3391,10 +3493,10 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3402,10 +3504,10 @@
         <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="25.5">
@@ -3413,10 +3515,10 @@
         <v>92</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>262</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25.5">
@@ -3424,10 +3526,10 @@
         <v>93</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3435,10 +3537,10 @@
         <v>94</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3446,65 +3548,65 @@
         <v>95</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3522,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3567,10 +3669,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
@@ -3587,10 +3689,10 @@
         <v>105</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -3601,16 +3703,16 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -3621,16 +3723,16 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -3641,16 +3743,16 @@
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -3661,13 +3763,13 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>51</v>
@@ -3678,16 +3780,16 @@
     </row>
     <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>51</v>
@@ -3698,19 +3800,19 @@
     </row>
     <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -3718,19 +3820,19 @@
     </row>
     <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
@@ -3738,19 +3840,19 @@
     </row>
     <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -3758,19 +3860,19 @@
     </row>
     <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
@@ -3778,19 +3880,19 @@
     </row>
     <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
@@ -3798,16 +3900,16 @@
     </row>
     <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="B14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>51</v>
@@ -3818,16 +3920,16 @@
     </row>
     <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>51</v>
@@ -3838,19 +3940,19 @@
     </row>
     <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -3858,19 +3960,19 @@
     </row>
     <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -3878,19 +3980,19 @@
     </row>
     <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -3898,19 +4000,19 @@
     </row>
     <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
@@ -3918,16 +4020,16 @@
     </row>
     <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>51</v>
@@ -3938,19 +4040,19 @@
     </row>
     <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>53</v>
@@ -3958,19 +4060,19 @@
     </row>
     <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>53</v>
@@ -3978,7 +4080,7 @@
     </row>
     <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -3987,10 +4089,10 @@
         <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F23" t="s">
         <v>53</v>
@@ -3998,7 +4100,7 @@
     </row>
     <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -4007,7 +4109,7 @@
         <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>51</v>
@@ -4018,7 +4120,7 @@
     </row>
     <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -4027,10 +4129,10 @@
         <v>112</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -4038,7 +4140,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -4047,10 +4149,10 @@
         <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F26" t="s">
         <v>53</v>
@@ -4058,7 +4160,7 @@
     </row>
     <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -4067,10 +4169,10 @@
         <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -4078,7 +4180,7 @@
     </row>
     <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
         <v>76</v>
@@ -4087,10 +4189,10 @@
         <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
@@ -4098,7 +4200,7 @@
     </row>
     <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -4107,10 +4209,10 @@
         <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F29" t="s">
         <v>53</v>
@@ -4118,7 +4220,7 @@
     </row>
     <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
@@ -4127,10 +4229,10 @@
         <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -4138,7 +4240,7 @@
     </row>
     <row r="31" spans="1:6" ht="51">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -4147,10 +4249,10 @@
         <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
@@ -4158,7 +4260,7 @@
     </row>
     <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
@@ -4167,7 +4269,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>51</v>
@@ -4178,19 +4280,19 @@
     </row>
     <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -4198,16 +4300,16 @@
     </row>
     <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>51</v>
@@ -4218,7 +4320,7 @@
     </row>
     <row r="35" spans="1:6" ht="25.5">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" t="s">
         <v>79</v>
@@ -4227,7 +4329,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -4238,7 +4340,7 @@
     </row>
     <row r="36" spans="1:6" ht="38.25">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -4247,10 +4349,10 @@
         <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -4258,7 +4360,7 @@
     </row>
     <row r="37" spans="1:6" ht="38.25">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
@@ -4267,10 +4369,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -4278,7 +4380,7 @@
     </row>
     <row r="38" spans="1:6" ht="38.25">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
@@ -4287,10 +4389,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -4298,7 +4400,7 @@
     </row>
     <row r="39" spans="1:6" ht="25.5">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -4307,7 +4409,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -4318,7 +4420,7 @@
     </row>
     <row r="40" spans="1:6" ht="38.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -4327,18 +4429,18 @@
         <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="F40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="25.5">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -4347,10 +4449,10 @@
         <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -4358,7 +4460,7 @@
     </row>
     <row r="42" spans="1:6" ht="38.25">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
@@ -4367,7 +4469,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -4378,7 +4480,7 @@
     </row>
     <row r="43" spans="1:6" ht="25.5">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -4387,10 +4489,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F43" t="s">
         <v>53</v>
@@ -4398,7 +4500,7 @@
     </row>
     <row r="44" spans="1:6" ht="25.5">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
         <v>82</v>
@@ -4407,7 +4509,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -4418,7 +4520,7 @@
     </row>
     <row r="45" spans="1:6" ht="51">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>83</v>
@@ -4427,10 +4529,10 @@
         <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F45" t="s">
         <v>53</v>
@@ -4438,7 +4540,7 @@
     </row>
     <row r="46" spans="1:6" ht="51">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>83</v>
@@ -4447,10 +4549,10 @@
         <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
@@ -4458,7 +4560,7 @@
     </row>
     <row r="47" spans="1:6" ht="51">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>83</v>
@@ -4467,7 +4569,7 @@
         <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -4476,154 +4578,184 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="25.5">
+      <c r="A49" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B49" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4805,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4746,7 +4878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
@@ -4804,10 +4936,10 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -4830,13 +4962,13 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5">
@@ -4844,10 +4976,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5">
@@ -4855,21 +4987,21 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4877,16 +5009,16 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
         <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>177</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -4909,10 +5041,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25">
@@ -4920,27 +5052,27 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14">
         <v>80</v>
@@ -4960,10 +5092,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -4972,10 +5104,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -4983,10 +5115,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -4994,10 +5126,10 @@
     </row>
     <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -5015,13 +5147,13 @@
         <v>103</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -5041,10 +5173,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
@@ -5053,10 +5185,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
         <v>70</v>
@@ -5064,10 +5196,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J23" s="7"/>
     </row>
@@ -5082,13 +5214,13 @@
         <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25">
         <v>80</v>
@@ -5108,37 +5240,37 @@
     </row>
     <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J28" s="7"/>
     </row>
@@ -5153,13 +5285,13 @@
         <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30">
         <v>50</v>
@@ -5179,25 +5311,25 @@
     </row>
     <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J32" s="7"/>
     </row>
@@ -5219,23 +5351,23 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -5264,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D6"/>
+    <sheetView topLeftCell="A34" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5314,13 +5446,13 @@
         <v>107</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -5340,38 +5472,38 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5383,16 +5515,16 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -5412,38 +5544,38 @@
     </row>
     <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5454,13 +5586,13 @@
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -5480,46 +5612,46 @@
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J18" s="16"/>
     </row>
@@ -5534,13 +5666,13 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -5560,57 +5692,57 @@
     </row>
     <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5621,13 +5753,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -5647,37 +5779,37 @@
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
+        <v>391</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="J31" s="16"/>
     </row>
@@ -5689,13 +5821,13 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -5715,26 +5847,26 @@
     </row>
     <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5752,17 +5884,17 @@
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5">
       <c r="B41" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="B42" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5792,10 +5924,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5843,13 +5975,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -5869,82 +6001,82 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.25">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="38.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.25">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="38.25">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5952,10 +6084,16 @@
         <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>437</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>330</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -5963,73 +6101,163 @@
       <c r="G12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+      <c r="H12">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12" s="16">
+        <v>40625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="38.25">
+      <c r="A15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="38.25">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>100</v>
       </c>
-      <c r="G13">
+      <c r="G18">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="G14">
+      <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20">
         <v>20</v>
       </c>
-      <c r="G15">
+      <c r="G20">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16">
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="G16">
+      <c r="G21">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5">
+      <c r="B27" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51">
+      <c r="B28" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5">
+      <c r="B31" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="477">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1451,17 +1451,116 @@
   </si>
   <si>
     <t>Check if the number of the stored spouses is greater than 1</t>
+  </si>
+  <si>
+    <t>Individual I3(Katie /Brown/) and I4(Edwin /Moore/) are siblings but they get married</t>
+  </si>
+  <si>
+    <t>Individual I3(Katie /Brown/) and Individual I4(Edwin /Moore/) are siblings in family F4 but they get married in family F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US15 </t>
+  </si>
+  <si>
+    <t>In family F2, individual I2 and I3 get married legally.</t>
+  </si>
+  <si>
+    <t>Individual I1 was born on 27 Jan 1970 and got married on 1 Jan 1985</t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/)'s birthday is 27 JAN 1970 and he got married when he was uder 20. Marriage date is 1 JAN 1985.</t>
+  </si>
+  <si>
+    <t>Individual I12 was born on 21 Apr 1970 and got married on 1 Jan 1985</t>
+  </si>
+  <si>
+    <t>Individual I7 was born on 11 Nov 1970 and got married on 1 Jan 1985</t>
+  </si>
+  <si>
+    <t>Individual I5 was born on 11 Sep 1970 and got married on 1 Jan 1985</t>
+  </si>
+  <si>
+    <t>Individual I7(Chris /Taylor/)'s birthday is 11 NOV 1970 and he got married when he was uder 20. Marriage date is 1 JAN 1985.</t>
+  </si>
+  <si>
+    <t>Individual I12(Grace /Li/)'s birthday is 21 APR 1970 and she got married when she was uder 18. Marriage date is 1 JAN 1985.</t>
+  </si>
+  <si>
+    <t>Individual I5(Emily /Mao/)'s birthday is 11 SEP 1970 and she got married when she was uder 18. Marriage date is 1 JAN 1985.</t>
+  </si>
+  <si>
+    <t>AT49~50</t>
+  </si>
+  <si>
+    <t>AT51~54</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>get access to family record</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>get record every child in each family</t>
+  </si>
+  <si>
+    <t>T15.03</t>
+  </si>
+  <si>
+    <t>T15.04</t>
+  </si>
+  <si>
+    <t>compare each child to every other child in the same family</t>
+  </si>
+  <si>
+    <t>check if two of the children have the same FAMS record which indicates that they are married</t>
+  </si>
+  <si>
+    <t>T15.05</t>
+  </si>
+  <si>
+    <t>It is illegal if two siblings get married</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>T16.03</t>
+  </si>
+  <si>
+    <t>T16.04</t>
+  </si>
+  <si>
+    <t>get the marriage date of this family</t>
+  </si>
+  <si>
+    <t>get birth date of both husband and wife</t>
+  </si>
+  <si>
+    <t>T16.05</t>
+  </si>
+  <si>
+    <t>subtract the marriage date by the birth date to get the age when husband of wife got married</t>
+  </si>
+  <si>
+    <t>It is not allowed if the husband gets married under 20 nor wife gets married under 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1626,56 +1725,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1691,11 +1790,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1713,6 +1823,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,44 +1845,64 @@
                 <c:pt idx="2">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="64055168"/>
-        <c:axId val="64056704"/>
+        <c:smooth val="0"/>
+        <c:axId val="92316032"/>
+        <c:axId val="92317568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="64055168"/>
+        <c:axId val="92316032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64056704"/>
+        <c:crossAx val="92317568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="64056704"/>
+        <c:axId val="92317568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64055168"/>
+        <c:crossAx val="92316032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2133,14 +2266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2149,7 +2282,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +2299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2183,7 +2316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2200,7 +2333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2217,7 +2350,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2246,16 +2379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2299,14 +2432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2322,7 +2455,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2398,7 +2531,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2436,7 +2569,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2474,7 +2607,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2512,7 +2645,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2550,7 +2683,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2588,7 +2721,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2626,7 +2759,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2664,7 +2797,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2702,7 +2835,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2740,7 +2873,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2778,7 +2911,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2816,7 +2949,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2854,7 +2987,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2892,7 +3025,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2902,11 +3035,35 @@
       <c r="C16" t="s">
         <v>110</v>
       </c>
+      <c r="D16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16" s="16">
+        <v>40628</v>
+      </c>
       <c r="L16" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2916,11 +3073,35 @@
       <c r="C17" t="s">
         <v>111</v>
       </c>
+      <c r="D17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17" s="16">
+        <v>40628</v>
+      </c>
       <c r="L17" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2934,7 +3115,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2948,73 +3129,127 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>122</v>
       </c>
+      <c r="E20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
       <c r="L20" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
       </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
       <c r="L21" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>50</v>
+      </c>
       <c r="L22" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>261</v>
       </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23">
+        <v>70</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
       <c r="L23" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>293</v>
       </c>
+      <c r="E24" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
       <c r="L24" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>297</v>
       </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
       <c r="L25" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3025,7 +3260,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>308</v>
       </c>
@@ -3036,7 +3271,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>341</v>
       </c>
@@ -3047,7 +3282,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>343</v>
       </c>
@@ -3058,7 +3293,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>344</v>
       </c>
@@ -3069,7 +3304,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>345</v>
       </c>
@@ -3093,14 +3328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="C16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -3109,7 +3344,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -3129,7 +3364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3149,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3169,7 +3404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3189,7 +3424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3209,7 +3444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3229,7 +3464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3249,7 +3484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3269,7 +3504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3289,7 +3524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3309,7 +3544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3329,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3349,7 +3584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3369,7 +3604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3389,7 +3624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3409,7 +3644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3419,6 +3654,9 @@
       <c r="C16" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="D16" t="s">
+        <v>456</v>
+      </c>
       <c r="E16">
         <v>100</v>
       </c>
@@ -3426,7 +3664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3436,6 +3674,9 @@
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D17" t="s">
+        <v>457</v>
+      </c>
       <c r="E17">
         <v>30</v>
       </c>
@@ -3443,7 +3684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3460,7 +3701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3477,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3487,8 +3728,14 @@
       <c r="C20" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3498,8 +3745,14 @@
       <c r="C21" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3509,8 +3762,14 @@
       <c r="C22" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="25.5">
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3520,8 +3779,14 @@
       <c r="C23" s="20" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5">
+      <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3531,8 +3796,14 @@
       <c r="C24" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3542,8 +3813,14 @@
       <c r="C25" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3554,7 +3831,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -3565,7 +3842,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>341</v>
       </c>
@@ -3576,7 +3853,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -3587,7 +3864,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>344</v>
       </c>
@@ -3598,7 +3875,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>345</v>
       </c>
@@ -3621,14 +3898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3638,7 +3915,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3658,7 +3935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3678,7 +3955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3698,7 +3975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3718,7 +3995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -3738,7 +4015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3758,7 +4035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -3778,7 +4055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3798,7 +4075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -3818,7 +4095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -3838,7 +4115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -3858,7 +4135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -3878,7 +4155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -3898,7 +4175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -3918,7 +4195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -3938,7 +4215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -3958,7 +4235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -3978,7 +4255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -3998,7 +4275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4018,7 +4295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4038,7 +4315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4058,7 +4335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4078,7 +4355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -4098,7 +4375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4118,7 +4395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -4138,7 +4415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -4158,7 +4435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -4178,7 +4455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4198,7 +4475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -4218,7 +4495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25">
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -4238,7 +4515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51">
+    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -4258,7 +4535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -4278,7 +4555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -4298,7 +4575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4318,7 +4595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -4338,7 +4615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25">
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4358,7 +4635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25">
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -4378,7 +4655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25">
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -4398,7 +4675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4418,7 +4695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25">
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -4438,7 +4715,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5">
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -4458,7 +4735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25">
+    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -4478,7 +4755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5">
+    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -4498,7 +4775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -4518,7 +4795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51">
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -4538,7 +4815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -4558,7 +4835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51">
+    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -4578,7 +4855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51">
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -4598,7 +4875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5">
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -4618,142 +4895,232 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="B50" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="B51" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="B52" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="B53" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="B54" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="B55" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>358</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>384</v>
       </c>
@@ -4771,14 +5138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -4788,7 +5155,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4808,7 +5175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -4819,7 +5186,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -4840,7 +5207,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -4859,6 +5226,39 @@
       <c r="F4" s="9">
         <f>(D4-D3)/E4*60</f>
         <v>129.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>40630</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1600</v>
+      </c>
+      <c r="E5">
+        <v>125</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F7" si="0">(D5-D4)/E5*60</f>
+        <v>142.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -4875,14 +5275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -4896,7 +5296,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4928,7 +5328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4960,7 +5360,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -4971,7 +5371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4982,7 +5382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4993,7 +5393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -5004,7 +5404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5036,7 +5436,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5047,7 +5447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5058,7 +5458,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5090,7 +5490,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -5102,7 +5502,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -5113,7 +5513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -5124,7 +5524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -5136,10 +5536,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -5171,7 +5571,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -5183,7 +5583,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -5194,7 +5594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -5203,10 +5603,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5238,7 +5638,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -5250,7 +5650,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -5262,7 +5662,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -5274,10 +5674,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -5309,7 +5709,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -5321,7 +5721,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -5333,49 +5733,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5">
+    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25">
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>302</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5">
+    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -5393,20 +5793,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5438,7 +5838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5470,7 +5870,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -5482,7 +5882,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -5494,7 +5894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -5506,11 +5906,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -5542,7 +5942,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>319</v>
       </c>
@@ -5554,7 +5954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -5566,7 +5966,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -5578,7 +5978,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -5610,7 +6010,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5">
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -5621,7 +6021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5">
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -5632,7 +6032,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -5643,7 +6043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25">
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -5655,10 +6055,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5690,7 +6090,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -5701,7 +6101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>332</v>
       </c>
@@ -5712,7 +6112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -5723,7 +6123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>336</v>
       </c>
@@ -5734,7 +6134,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5">
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>338</v>
       </c>
@@ -5745,7 +6145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -5777,7 +6177,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -5786,7 +6186,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="38.25">
+    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>387</v>
       </c>
@@ -5795,7 +6195,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="25.5">
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -5804,7 +6204,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -5813,7 +6213,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5845,7 +6245,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>393</v>
       </c>
@@ -5853,7 +6253,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51">
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>394</v>
       </c>
@@ -5861,7 +6261,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>396</v>
       </c>
@@ -5869,43 +6269,43 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51">
+    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5">
+    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -5923,19 +6323,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5967,7 +6367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -5999,7 +6399,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -6011,7 +6411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>420</v>
       </c>
@@ -6023,7 +6423,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>421</v>
       </c>
@@ -6035,7 +6435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25">
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -6047,7 +6447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5">
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>426</v>
       </c>
@@ -6055,7 +6455,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -6067,7 +6467,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38.25">
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>429</v>
       </c>
@@ -6079,7 +6479,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -6111,7 +6511,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5">
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -6123,7 +6523,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>439</v>
       </c>
@@ -6135,7 +6535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>440</v>
       </c>
@@ -6147,11 +6547,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6161,102 +6561,242 @@
       <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="E18" s="18" t="s">
+        <v>330</v>
+      </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+      <c r="J18" s="16">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
+        <v>458</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F19">
+    </row>
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25">
         <v>30</v>
       </c>
-      <c r="G19">
+      <c r="G25">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25" s="16">
+        <v>40628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>468</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F20">
+      <c r="F32">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="G32">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B33" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F21">
+      <c r="F33">
         <v>50</v>
       </c>
-      <c r="G21">
+      <c r="G33">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="5" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="5" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25.5">
-      <c r="B27" s="1" t="s">
+    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="51">
-      <c r="B28" s="1" t="s">
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5">
-      <c r="B31" s="1" t="s">
+    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6272,16 +6812,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D2" sqref="D2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6311,6 +6854,108 @@
       </c>
       <c r="J1" s="10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="493">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1550,17 +1550,66 @@
   </si>
   <si>
     <t>It is not allowed if the husband gets married under 20 nor wife gets married under 18</t>
+  </si>
+  <si>
+    <t>Family F2 has more than 8 members (9).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Family F2, child I5(Emily /Mao/) and child I1(Jacky /Mao/) are not twins but born within one year.
+</t>
+  </si>
+  <si>
+    <t>T17.01</t>
+  </si>
+  <si>
+    <t>Get each family record</t>
+  </si>
+  <si>
+    <t>T17.02</t>
+  </si>
+  <si>
+    <t>In family record get the count of husband , wife and child</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare their birth date </t>
+  </si>
+  <si>
+    <t>T18.02</t>
+  </si>
+  <si>
+    <t>T18.03</t>
+  </si>
+  <si>
+    <t>Individual I5 was born on 11 SEP 1970 and Individual I1 born on 27 JAN 1970</t>
+  </si>
+  <si>
+    <t>Individual I2 and I3 have 7 children</t>
+  </si>
+  <si>
+    <t>Individual I8 and I9 have two children</t>
+  </si>
+  <si>
+    <t>Individual I3 was born on 14 FEB 1965 and Individual I4 born on 1 OCT 1960</t>
+  </si>
+  <si>
+    <t>AT55~56</t>
+  </si>
+  <si>
+    <t>AT57~58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1790,22 +1839,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1851,62 +1889,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="92316032"/>
-        <c:axId val="92317568"/>
+        <c:axId val="112781952"/>
+        <c:axId val="112783744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92316032"/>
+        <c:axId val="112781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92317568"/>
+        <c:crossAx val="112783744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92317568"/>
+        <c:axId val="112783744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92316032"/>
+        <c:crossAx val="112781952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000211" r="0.75000000000000211" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000222" r="0.75000000000000222" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2266,14 +2288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2282,7 +2304,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2316,7 +2338,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2333,7 +2355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2379,16 +2401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2432,14 +2454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2455,7 +2477,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2531,7 +2553,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2569,7 +2591,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2607,7 +2629,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2645,7 +2667,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2683,7 +2705,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2721,7 +2743,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2797,7 +2819,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2835,7 +2857,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2873,7 +2895,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2911,7 +2933,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2949,7 +2971,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2987,7 +3009,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3025,7 +3047,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3063,7 +3085,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3101,7 +3123,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3111,11 +3133,35 @@
       <c r="C18" t="s">
         <v>117</v>
       </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" s="16">
+        <v>40630</v>
+      </c>
       <c r="L18" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3125,11 +3171,35 @@
       <c r="C19" t="s">
         <v>119</v>
       </c>
+      <c r="D19" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19" s="16">
+        <v>40630</v>
+      </c>
       <c r="L19" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -3149,7 +3219,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -3169,7 +3239,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -3189,7 +3259,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -3209,7 +3279,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3229,7 +3299,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -3249,7 +3319,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3330,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
         <v>308</v>
       </c>
@@ -3271,7 +3341,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>341</v>
       </c>
@@ -3282,7 +3352,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>343</v>
       </c>
@@ -3293,7 +3363,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>344</v>
       </c>
@@ -3304,7 +3374,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
         <v>345</v>
       </c>
@@ -3328,14 +3398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="C12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -3344,7 +3414,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -3364,7 +3434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3384,7 +3454,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3404,7 +3474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3464,7 +3534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3484,7 +3554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3504,7 +3574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3524,7 +3594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3544,7 +3614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3564,7 +3634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3584,7 +3654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3604,7 +3674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3624,7 +3694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3644,7 +3714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3664,7 +3734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3684,7 +3754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3694,6 +3764,9 @@
       <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
       <c r="E18">
         <v>20</v>
       </c>
@@ -3701,7 +3774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25.5">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3711,6 +3784,9 @@
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D19" t="s">
+        <v>492</v>
+      </c>
       <c r="E19">
         <v>50</v>
       </c>
@@ -3718,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3735,7 +3811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3752,7 +3828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3769,7 +3845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3786,7 +3862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25.5">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3803,7 +3879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3820,7 +3896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3831,7 +3907,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -3842,7 +3918,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>341</v>
       </c>
@@ -3853,7 +3929,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -3864,7 +3940,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>344</v>
       </c>
@@ -3875,7 +3951,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>345</v>
       </c>
@@ -3898,14 +3974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3915,7 +3991,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3935,7 +4011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +4031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3975,7 +4051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3995,7 +4071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +4091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4035,7 +4111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4055,7 +4131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -4075,7 +4151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4095,7 +4171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4115,7 +4191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -4135,7 +4211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4155,7 +4231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4175,7 +4251,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -4195,7 +4271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -4215,7 +4291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4235,7 +4311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -4255,7 +4331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -4275,7 +4351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4295,7 +4371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4315,7 +4391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4335,7 +4411,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4355,7 +4431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -4375,7 +4451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4395,7 +4471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -4415,7 +4491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -4435,7 +4511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -4455,7 +4531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4475,7 +4551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -4495,7 +4571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -4515,7 +4591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -4535,7 +4611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -4555,7 +4631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -4575,7 +4651,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4595,7 +4671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="25.5">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -4615,7 +4691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="38.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4635,7 +4711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="38.25">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -4655,7 +4731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="38.25">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -4675,7 +4751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="25.5">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4695,7 +4771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="38.25">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -4715,7 +4791,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="25.5">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -4735,7 +4811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="38.25">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -4755,7 +4831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="25.5">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -4775,7 +4851,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="25.5">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -4795,7 +4871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -4815,7 +4891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -4835,7 +4911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -4855,7 +4931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -4875,7 +4951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="25.5">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -4895,7 +4971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="51">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4915,7 +4991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="25.5">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -4935,7 +5011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="51">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -4955,7 +5031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="51">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -4975,7 +5051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="51">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -4995,7 +5071,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="51">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -5015,112 +5091,172 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="51">
       <c r="A58" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="25.5">
       <c r="A59" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>384</v>
       </c>
@@ -5138,14 +5274,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -5155,7 +5291,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5175,7 +5311,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -5186,7 +5322,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -5207,7 +5343,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -5228,7 +5364,7 @@
         <v>129.12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>40630</v>
       </c>
@@ -5249,13 +5385,13 @@
         <v>142.56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="F6" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="F7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5275,14 +5411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -5296,7 +5432,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5328,7 +5464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5360,7 +5496,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -5371,7 +5507,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5382,7 +5518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -5393,7 +5529,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -5404,7 +5540,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5436,7 +5572,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5447,7 +5583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5458,7 +5594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5490,7 +5626,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -5502,7 +5638,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -5513,7 +5649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -5524,7 +5660,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -5536,10 +5672,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -5571,7 +5707,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -5583,7 +5719,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -5594,7 +5730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -5603,10 +5739,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5638,7 +5774,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -5650,7 +5786,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -5662,7 +5798,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -5674,10 +5810,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -5709,7 +5845,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -5721,7 +5857,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -5733,49 +5869,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
         <v>302</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -5793,20 +5929,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5838,7 +5974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5870,7 +6006,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -5882,7 +6018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -5894,7 +6030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -5906,11 +6042,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -5942,7 +6078,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
         <v>319</v>
       </c>
@@ -5954,7 +6090,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -5966,7 +6102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -5978,7 +6114,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -6010,7 +6146,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -6021,7 +6157,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -6032,7 +6168,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -6043,7 +6179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -6055,10 +6191,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -6090,7 +6226,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -6101,7 +6237,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
         <v>332</v>
       </c>
@@ -6112,7 +6248,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -6123,7 +6259,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
         <v>336</v>
       </c>
@@ -6134,7 +6270,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
         <v>338</v>
       </c>
@@ -6145,7 +6281,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -6177,7 +6313,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -6186,7 +6322,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
         <v>387</v>
       </c>
@@ -6195,7 +6331,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -6204,7 +6340,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -6213,7 +6349,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -6245,7 +6381,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
         <v>393</v>
       </c>
@@ -6253,7 +6389,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
         <v>394</v>
       </c>
@@ -6261,7 +6397,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
         <v>396</v>
       </c>
@@ -6269,43 +6405,43 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="25.5">
       <c r="B41" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="51">
       <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="25.5">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -6323,19 +6459,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6367,7 +6503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -6399,7 +6535,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -6411,7 +6547,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="38.25">
       <c r="A5" t="s">
         <v>420</v>
       </c>
@@ -6423,7 +6559,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="38.25">
       <c r="A6" t="s">
         <v>421</v>
       </c>
@@ -6435,7 +6571,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="38.25">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -6447,7 +6583,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25.5">
       <c r="A8" t="s">
         <v>426</v>
       </c>
@@ -6455,7 +6591,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -6467,7 +6603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="38.25">
       <c r="A10" t="s">
         <v>429</v>
       </c>
@@ -6479,7 +6615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -6511,7 +6647,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25.5">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -6523,7 +6659,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="38.25">
       <c r="A15" t="s">
         <v>439</v>
       </c>
@@ -6535,7 +6671,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="38.25">
       <c r="A16" t="s">
         <v>440</v>
       </c>
@@ -6547,11 +6683,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6580,7 +6716,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -6591,7 +6727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25.5">
       <c r="A20" t="s">
         <v>460</v>
       </c>
@@ -6602,7 +6738,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="38.25">
       <c r="A21" t="s">
         <v>462</v>
       </c>
@@ -6613,7 +6749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="51">
       <c r="A22" t="s">
         <v>463</v>
       </c>
@@ -6624,7 +6760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>466</v>
       </c>
@@ -6635,10 +6771,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -6667,7 +6803,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -6678,7 +6814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>469</v>
       </c>
@@ -6689,7 +6825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -6700,7 +6836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="51">
       <c r="A29" t="s">
         <v>471</v>
       </c>
@@ -6711,7 +6847,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51">
       <c r="A30" t="s">
         <v>474</v>
       </c>
@@ -6722,81 +6858,145 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>117</v>
       </c>
+      <c r="C32" t="s">
+        <v>491</v>
+      </c>
       <c r="D32" s="18" t="s">
         <v>254</v>
       </c>
+      <c r="E32" s="18" t="s">
+        <v>330</v>
+      </c>
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="38.25">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="C35" t="s">
+        <v>492</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F33">
+      <c r="E35" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F35">
         <v>50</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>486</v>
+      </c>
+      <c r="B38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="40" spans="1:9">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="1:9">
+      <c r="B42" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="43" spans="1:9" ht="25.5">
+      <c r="B43" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="44" spans="1:9" ht="51">
+      <c r="B44" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="45" spans="1:9">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="47" spans="1:9" ht="25.5">
+      <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6812,19 +7012,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6856,7 +7056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -6873,7 +7073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -6890,7 +7090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -6907,7 +7107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -6924,7 +7124,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -6941,7 +7141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>94</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="477">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1550,66 +1550,17 @@
   </si>
   <si>
     <t>It is not allowed if the husband gets married under 20 nor wife gets married under 18</t>
-  </si>
-  <si>
-    <t>Family F2 has more than 8 members (9).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Family F2, child I5(Emily /Mao/) and child I1(Jacky /Mao/) are not twins but born within one year.
-</t>
-  </si>
-  <si>
-    <t>T17.01</t>
-  </si>
-  <si>
-    <t>Get each family record</t>
-  </si>
-  <si>
-    <t>T17.02</t>
-  </si>
-  <si>
-    <t>In family record get the count of husband , wife and child</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare their birth date </t>
-  </si>
-  <si>
-    <t>T18.02</t>
-  </si>
-  <si>
-    <t>T18.03</t>
-  </si>
-  <si>
-    <t>Individual I5 was born on 11 SEP 1970 and Individual I1 born on 27 JAN 1970</t>
-  </si>
-  <si>
-    <t>Individual I2 and I3 have 7 children</t>
-  </si>
-  <si>
-    <t>Individual I8 and I9 have two children</t>
-  </si>
-  <si>
-    <t>Individual I3 was born on 14 FEB 1965 and Individual I4 born on 1 OCT 1960</t>
-  </si>
-  <si>
-    <t>AT55~56</t>
-  </si>
-  <si>
-    <t>AT57~58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1839,11 +1790,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1889,46 +1851,62 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="112781952"/>
-        <c:axId val="112783744"/>
+        <c:smooth val="0"/>
+        <c:axId val="92316032"/>
+        <c:axId val="92317568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="112781952"/>
+        <c:axId val="92316032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112783744"/>
+        <c:crossAx val="92317568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="112783744"/>
+        <c:axId val="92317568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112781952"/>
+        <c:crossAx val="92316032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000222" r="0.75000000000000222" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000211" r="0.75000000000000211" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2288,14 +2266,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2304,7 +2282,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2321,7 +2299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2355,7 +2333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2372,7 +2350,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2401,16 +2379,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2454,14 +2432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2477,7 +2455,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2515,7 +2493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2553,7 +2531,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2591,7 +2569,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2629,7 +2607,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2667,7 +2645,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2705,7 +2683,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2743,7 +2721,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2781,7 +2759,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2819,7 +2797,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2857,7 +2835,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2895,7 +2873,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2933,7 +2911,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2971,7 +2949,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3009,7 +2987,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3047,7 +3025,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3085,7 +3063,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3123,7 +3101,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3133,35 +3111,11 @@
       <c r="C18" t="s">
         <v>117</v>
       </c>
-      <c r="D18" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18">
-        <v>20</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18" s="16">
-        <v>40630</v>
-      </c>
       <c r="L18" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3171,35 +3125,11 @@
       <c r="C19" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
-        <v>492</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <v>25</v>
-      </c>
-      <c r="K19" s="16">
-        <v>40630</v>
-      </c>
       <c r="L19" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -3219,7 +3149,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -3239,7 +3169,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -3259,7 +3189,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -3279,7 +3209,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3299,7 +3229,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -3319,7 +3249,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3330,7 +3260,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>308</v>
       </c>
@@ -3341,7 +3271,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>341</v>
       </c>
@@ -3352,7 +3282,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>343</v>
       </c>
@@ -3363,7 +3293,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>344</v>
       </c>
@@ -3374,7 +3304,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>345</v>
       </c>
@@ -3398,14 +3328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="C16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -3414,7 +3344,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -3434,7 +3364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3454,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3474,7 +3404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3494,7 +3424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3514,7 +3444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3534,7 +3464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3554,7 +3484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3574,7 +3504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3594,7 +3524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3614,7 +3544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3634,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3654,7 +3584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3674,7 +3604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3694,7 +3624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3714,7 +3644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3734,7 +3664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3754,7 +3684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3764,9 +3694,6 @@
       <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D18" t="s">
-        <v>491</v>
-      </c>
       <c r="E18">
         <v>20</v>
       </c>
@@ -3774,7 +3701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3784,9 +3711,6 @@
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" t="s">
-        <v>492</v>
-      </c>
       <c r="E19">
         <v>50</v>
       </c>
@@ -3794,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3811,7 +3735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3828,7 +3752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3845,7 +3769,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3862,7 +3786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3879,7 +3803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3896,7 +3820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3907,7 +3831,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -3918,7 +3842,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>341</v>
       </c>
@@ -3929,7 +3853,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -3940,7 +3864,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>344</v>
       </c>
@@ -3951,7 +3875,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>345</v>
       </c>
@@ -3974,14 +3898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A77"/>
+    <sheetView topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3991,7 +3915,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -4011,7 +3935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4031,7 +3955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -4051,7 +3975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -4071,7 +3995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4091,7 +4015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4111,7 +4035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4131,7 +4055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -4151,7 +4075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4171,7 +4095,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4191,7 +4115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -4211,7 +4135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4231,7 +4155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4251,7 +4175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -4271,7 +4195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -4291,7 +4215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4311,7 +4235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -4331,7 +4255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -4351,7 +4275,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4371,7 +4295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4391,7 +4315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4411,7 +4335,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4431,7 +4355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -4451,7 +4375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4471,7 +4395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -4491,7 +4415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -4511,7 +4435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -4531,7 +4455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4551,7 +4475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -4571,7 +4495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25">
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -4591,7 +4515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51">
+    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -4611,7 +4535,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -4631,7 +4555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -4651,7 +4575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4671,7 +4595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -4691,7 +4615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25">
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4711,7 +4635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25">
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -4731,7 +4655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25">
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -4751,7 +4675,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4771,7 +4695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25">
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -4791,7 +4715,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5">
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -4811,7 +4735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25">
+    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -4831,7 +4755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5">
+    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -4851,7 +4775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -4871,7 +4795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51">
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -4891,7 +4815,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -4911,7 +4835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51">
+    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -4931,7 +4855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51">
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -4951,7 +4875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5">
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -4971,7 +4895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="51">
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4991,7 +4915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5">
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -5011,7 +4935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="51">
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -5031,7 +4955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51">
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -5051,7 +4975,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="51">
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -5071,7 +4995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="51">
+    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -5091,172 +5015,112 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="51">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="25.5">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>384</v>
       </c>
@@ -5274,14 +5138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -5291,7 +5155,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5311,7 +5175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -5322,7 +5186,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -5343,7 +5207,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -5364,7 +5228,7 @@
         <v>129.12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40630</v>
       </c>
@@ -5385,13 +5249,13 @@
         <v>142.56</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5411,14 +5275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -5432,7 +5296,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +5328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5496,7 +5360,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -5507,7 +5371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5518,7 +5382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -5529,7 +5393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -5540,7 +5404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5572,7 +5436,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5583,7 +5447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5594,7 +5458,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5626,7 +5490,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -5638,7 +5502,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -5649,7 +5513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -5660,7 +5524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -5672,10 +5536,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -5707,7 +5571,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -5719,7 +5583,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -5730,7 +5594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -5739,10 +5603,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5774,7 +5638,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -5786,7 +5650,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -5798,7 +5662,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -5810,10 +5674,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -5845,7 +5709,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -5857,7 +5721,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -5869,49 +5733,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5">
+    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25">
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>302</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5">
+    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -5929,20 +5793,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5974,7 +5838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -6006,7 +5870,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -6018,7 +5882,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -6030,7 +5894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -6042,11 +5906,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -6078,7 +5942,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>319</v>
       </c>
@@ -6090,7 +5954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -6102,7 +5966,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -6114,7 +5978,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -6146,7 +6010,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5">
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -6157,7 +6021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5">
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -6168,7 +6032,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -6179,7 +6043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25">
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -6191,10 +6055,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -6226,7 +6090,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -6237,7 +6101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>332</v>
       </c>
@@ -6248,7 +6112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -6259,7 +6123,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>336</v>
       </c>
@@ -6270,7 +6134,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5">
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>338</v>
       </c>
@@ -6281,7 +6145,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -6313,7 +6177,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -6322,7 +6186,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="38.25">
+    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>387</v>
       </c>
@@ -6331,7 +6195,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="25.5">
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -6340,7 +6204,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -6349,7 +6213,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -6381,7 +6245,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>393</v>
       </c>
@@ -6389,7 +6253,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51">
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>394</v>
       </c>
@@ -6397,7 +6261,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>396</v>
       </c>
@@ -6405,43 +6269,43 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51">
+    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5">
+    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -6459,19 +6323,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6503,7 +6367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -6535,7 +6399,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -6547,7 +6411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>420</v>
       </c>
@@ -6559,7 +6423,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>421</v>
       </c>
@@ -6571,7 +6435,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25">
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -6583,7 +6447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5">
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>426</v>
       </c>
@@ -6591,7 +6455,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -6603,7 +6467,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38.25">
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>429</v>
       </c>
@@ -6615,7 +6479,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -6647,7 +6511,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5">
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -6659,7 +6523,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>439</v>
       </c>
@@ -6671,7 +6535,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>440</v>
       </c>
@@ -6683,11 +6547,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6716,7 +6580,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -6727,7 +6591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5">
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>460</v>
       </c>
@@ -6738,7 +6602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="38.25">
+    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>462</v>
       </c>
@@ -6749,7 +6613,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>463</v>
       </c>
@@ -6760,7 +6624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>466</v>
       </c>
@@ -6771,10 +6635,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -6803,7 +6667,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -6814,7 +6678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>469</v>
       </c>
@@ -6825,7 +6689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -6836,7 +6700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51">
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>471</v>
       </c>
@@ -6847,7 +6711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51">
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>474</v>
       </c>
@@ -6858,145 +6722,81 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
-        <v>491</v>
-      </c>
       <c r="D32" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>330</v>
-      </c>
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
-      <c r="H32">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
         <v>20</v>
       </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>479</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="38.25">
-      <c r="A34" t="s">
-        <v>481</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>492</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
-      <c r="I35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>483</v>
-      </c>
-      <c r="B36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>485</v>
-      </c>
-      <c r="B37" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>486</v>
-      </c>
-      <c r="B38" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="5" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="25.5">
+    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="51">
-      <c r="B44" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="25.5">
-      <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7012,19 +6812,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -7056,7 +6856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7073,7 +6873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -7090,7 +6890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -7107,7 +6907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -7124,7 +6924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -7141,7 +6941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>94</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="493">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1550,17 +1550,66 @@
   </si>
   <si>
     <t>It is not allowed if the husband gets married under 20 nor wife gets married under 18</t>
+  </si>
+  <si>
+    <t>Family F2 has more than 8 members (9).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Family F2, child I5(Emily /Mao/) and child I1(Jacky /Mao/) are not twins but born within one year.
+</t>
+  </si>
+  <si>
+    <t>T17.01</t>
+  </si>
+  <si>
+    <t>Get each family record</t>
+  </si>
+  <si>
+    <t>T17.02</t>
+  </si>
+  <si>
+    <t>In family record get the count of husband , wife and child</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare their birth date </t>
+  </si>
+  <si>
+    <t>T18.02</t>
+  </si>
+  <si>
+    <t>T18.03</t>
+  </si>
+  <si>
+    <t>Individual I5 was born on 11 SEP 1970 and Individual I1 born on 27 JAN 1970</t>
+  </si>
+  <si>
+    <t>Individual I2 and I3 have 7 children</t>
+  </si>
+  <si>
+    <t>Individual I8 and I9 have two children</t>
+  </si>
+  <si>
+    <t>Individual I3 was born on 14 FEB 1965 and Individual I4 born on 1 OCT 1960</t>
+  </si>
+  <si>
+    <t>AT55~56</t>
+  </si>
+  <si>
+    <t>AT57~58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1790,22 +1839,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1851,62 +1889,45 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="92316032"/>
-        <c:axId val="92317568"/>
+        <c:axId val="68999808"/>
+        <c:axId val="69001600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92316032"/>
+        <c:axId val="68999808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92317568"/>
+        <c:crossAx val="69001600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92317568"/>
+        <c:axId val="69001600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92316032"/>
+        <c:crossAx val="68999808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000211" r="0.75000000000000211" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000233" r="0.75000000000000233" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2266,14 +2287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2282,7 +2303,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2299,7 +2320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2316,7 +2337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2333,7 +2354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2379,16 +2400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2432,14 +2453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2455,7 +2476,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2531,7 +2552,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2607,7 +2628,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2683,7 +2704,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2721,7 +2742,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2759,7 +2780,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2835,7 +2856,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2873,7 +2894,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2911,7 +2932,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2949,7 +2970,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3025,7 +3046,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3063,7 +3084,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3101,7 +3122,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3111,11 +3132,35 @@
       <c r="C18" t="s">
         <v>117</v>
       </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18" s="16">
+        <v>40630</v>
+      </c>
       <c r="L18" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3125,11 +3170,35 @@
       <c r="C19" t="s">
         <v>119</v>
       </c>
+      <c r="D19" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19" s="16">
+        <v>40630</v>
+      </c>
       <c r="L19" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -3149,7 +3218,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -3169,7 +3238,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -3189,7 +3258,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -3209,7 +3278,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3229,7 +3298,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -3249,7 +3318,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +3329,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
         <v>308</v>
       </c>
@@ -3271,7 +3340,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>341</v>
       </c>
@@ -3282,7 +3351,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>343</v>
       </c>
@@ -3293,7 +3362,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>344</v>
       </c>
@@ -3304,7 +3373,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
         <v>345</v>
       </c>
@@ -3328,14 +3397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="C12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -3344,7 +3413,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -3364,7 +3433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3384,7 +3453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3404,7 +3473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3464,7 +3533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3484,7 +3553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3504,7 +3573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3524,7 +3593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3544,7 +3613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3564,7 +3633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3584,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3604,7 +3673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3624,7 +3693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3644,7 +3713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3664,7 +3733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3684,7 +3753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3694,6 +3763,9 @@
       <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
       <c r="E18">
         <v>20</v>
       </c>
@@ -3701,7 +3773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25.5">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3711,6 +3783,9 @@
       <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D19" t="s">
+        <v>492</v>
+      </c>
       <c r="E19">
         <v>50</v>
       </c>
@@ -3718,7 +3793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3735,7 +3810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3752,7 +3827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3769,7 +3844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3786,7 +3861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25.5">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3803,7 +3878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -3820,7 +3895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3831,7 +3906,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -3842,7 +3917,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>341</v>
       </c>
@@ -3853,7 +3928,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -3864,7 +3939,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>344</v>
       </c>
@@ -3875,7 +3950,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>345</v>
       </c>
@@ -3898,14 +3973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3915,7 +3990,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -3935,7 +4010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +4030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3975,7 +4050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3995,7 +4070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +4090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4035,7 +4110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4055,7 +4130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -4075,7 +4150,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4095,7 +4170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4115,7 +4190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -4135,7 +4210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4155,7 +4230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4175,7 +4250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -4195,7 +4270,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -4215,7 +4290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4235,7 +4310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -4255,7 +4330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -4275,7 +4350,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4295,7 +4370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4315,7 +4390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4335,7 +4410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4355,7 +4430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -4375,7 +4450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4395,7 +4470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -4415,7 +4490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -4435,7 +4510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -4455,7 +4530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4475,7 +4550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -4495,7 +4570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -4515,7 +4590,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -4535,7 +4610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -4555,7 +4630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -4575,7 +4650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4595,7 +4670,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="25.5">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -4615,7 +4690,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="38.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4635,7 +4710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="38.25">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -4655,7 +4730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="38.25">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -4675,7 +4750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="25.5">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -4695,7 +4770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="38.25">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -4715,7 +4790,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="25.5">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -4735,7 +4810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="38.25">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -4755,7 +4830,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="25.5">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -4775,7 +4850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="25.5">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -4795,7 +4870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -4815,7 +4890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -4835,7 +4910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -4855,7 +4930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -4875,7 +4950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="25.5">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -4895,7 +4970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="51">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -4915,7 +4990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="25.5">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -4935,7 +5010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="51">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -4955,7 +5030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="51">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -4975,7 +5050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="51">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -4995,7 +5070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="51">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -5015,112 +5090,172 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="51">
       <c r="A58" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="25.5">
       <c r="A59" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>384</v>
       </c>
@@ -5138,14 +5273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -5155,7 +5290,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5175,7 +5310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -5186,7 +5321,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -5207,7 +5342,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -5228,7 +5363,7 @@
         <v>129.12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>40630</v>
       </c>
@@ -5249,13 +5384,13 @@
         <v>142.56</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="F6" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="F7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5275,14 +5410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -5296,7 +5431,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5328,7 +5463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5360,7 +5495,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -5371,7 +5506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5382,7 +5517,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -5393,7 +5528,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -5404,7 +5539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5436,7 +5571,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5447,7 +5582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -5458,7 +5593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -5490,7 +5625,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -5502,7 +5637,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -5513,7 +5648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -5524,7 +5659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -5536,10 +5671,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -5571,7 +5706,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -5583,7 +5718,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -5594,7 +5729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -5603,10 +5738,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -5638,7 +5773,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -5650,7 +5785,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -5662,7 +5797,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -5674,10 +5809,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -5709,7 +5844,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -5721,7 +5856,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -5733,49 +5868,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
         <v>302</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -5793,20 +5928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5838,7 +5973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5870,7 +6005,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>316</v>
       </c>
@@ -5882,7 +6017,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>317</v>
       </c>
@@ -5894,7 +6029,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -5906,11 +6041,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -5942,7 +6077,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
         <v>319</v>
       </c>
@@ -5954,7 +6089,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -5966,7 +6101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -5978,7 +6113,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -6010,7 +6145,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
         <v>322</v>
       </c>
@@ -6021,7 +6156,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
         <v>324</v>
       </c>
@@ -6032,7 +6167,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>325</v>
       </c>
@@ -6043,7 +6178,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
         <v>327</v>
       </c>
@@ -6055,10 +6190,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -6090,7 +6225,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -6101,7 +6236,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
         <v>332</v>
       </c>
@@ -6112,7 +6247,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>334</v>
       </c>
@@ -6123,7 +6258,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
         <v>336</v>
       </c>
@@ -6134,7 +6269,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
         <v>338</v>
       </c>
@@ -6145,7 +6280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -6177,7 +6312,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -6186,7 +6321,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
         <v>387</v>
       </c>
@@ -6195,7 +6330,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -6204,7 +6339,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>391</v>
       </c>
@@ -6213,7 +6348,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -6245,7 +6380,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
         <v>393</v>
       </c>
@@ -6253,7 +6388,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
         <v>394</v>
       </c>
@@ -6261,7 +6396,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
         <v>396</v>
       </c>
@@ -6269,43 +6404,43 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="25.5">
       <c r="B41" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="51">
       <c r="B42" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="25.5">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -6323,19 +6458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6367,7 +6502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -6399,7 +6534,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>419</v>
       </c>
@@ -6411,7 +6546,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="38.25">
       <c r="A5" t="s">
         <v>420</v>
       </c>
@@ -6423,7 +6558,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="38.25">
       <c r="A6" t="s">
         <v>421</v>
       </c>
@@ -6435,7 +6570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="38.25">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -6447,7 +6582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25.5">
       <c r="A8" t="s">
         <v>426</v>
       </c>
@@ -6455,7 +6590,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -6467,7 +6602,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="38.25">
       <c r="A10" t="s">
         <v>429</v>
       </c>
@@ -6479,7 +6614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -6511,7 +6646,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25.5">
       <c r="A14" t="s">
         <v>438</v>
       </c>
@@ -6523,7 +6658,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="38.25">
       <c r="A15" t="s">
         <v>439</v>
       </c>
@@ -6535,7 +6670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="38.25">
       <c r="A16" t="s">
         <v>440</v>
       </c>
@@ -6547,11 +6682,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -6580,7 +6715,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -6591,7 +6726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25.5">
       <c r="A20" t="s">
         <v>460</v>
       </c>
@@ -6602,7 +6737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="38.25">
       <c r="A21" t="s">
         <v>462</v>
       </c>
@@ -6613,7 +6748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="51">
       <c r="A22" t="s">
         <v>463</v>
       </c>
@@ -6624,7 +6759,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>466</v>
       </c>
@@ -6635,10 +6770,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -6667,7 +6802,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -6678,7 +6813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>469</v>
       </c>
@@ -6689,7 +6824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>470</v>
       </c>
@@ -6700,7 +6835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="51">
       <c r="A29" t="s">
         <v>471</v>
       </c>
@@ -6711,7 +6846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51">
       <c r="A30" t="s">
         <v>474</v>
       </c>
@@ -6722,81 +6857,145 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32" t="s">
         <v>117</v>
       </c>
+      <c r="C32" t="s">
+        <v>491</v>
+      </c>
       <c r="D32" s="18" t="s">
         <v>254</v>
       </c>
+      <c r="E32" s="18" t="s">
+        <v>330</v>
+      </c>
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="38.25">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="C35" t="s">
+        <v>492</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F33">
+      <c r="E35" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F35">
         <v>50</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+      <c r="H35">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>486</v>
+      </c>
+      <c r="B38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="B39" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="40" spans="1:9">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="B41" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="1:9">
+      <c r="B42" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+    <row r="43" spans="1:9" ht="25.5">
+      <c r="B43" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+    <row r="44" spans="1:9" ht="51">
+      <c r="B44" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="45" spans="1:9">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="47" spans="1:9" ht="25.5">
+      <c r="B47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6812,19 +7011,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -6856,7 +7055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -6873,7 +7072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -6890,7 +7089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -6907,7 +7106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -6924,7 +7123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -6941,7 +7140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>94</v>
       </c>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="493">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1555,50 +1555,50 @@
     <t>Family F2 has more than 8 members (9).</t>
   </si>
   <si>
-    <t xml:space="preserve">In Family F2, child I5(Emily /Mao/) and child I1(Jacky /Mao/) are not twins but born within one year.
+    <t>T17.01</t>
+  </si>
+  <si>
+    <t>Get each family record</t>
+  </si>
+  <si>
+    <t>T17.02</t>
+  </si>
+  <si>
+    <t>In family record get the count of husband , wife and child</t>
+  </si>
+  <si>
+    <t>T18.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compare their birth date </t>
+  </si>
+  <si>
+    <t>T18.02</t>
+  </si>
+  <si>
+    <t>T18.03</t>
+  </si>
+  <si>
+    <t>Individual I5 was born on 11 SEP 1970 and Individual I1 born on 27 JAN 1970</t>
+  </si>
+  <si>
+    <t>Individual I2 and I3 have 7 children</t>
+  </si>
+  <si>
+    <t>Individual I8 and I9 have two children</t>
+  </si>
+  <si>
+    <t>Individual I3 was born on 14 FEB 1965 and Individual I4 born on 1 OCT 1960</t>
+  </si>
+  <si>
+    <t>AT55~56</t>
+  </si>
+  <si>
+    <t>AT57~58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Family F2, child I5(Emily /Mao/) and child I1(Jacky /Mao/) are not multiple births but born within one year.
 </t>
-  </si>
-  <si>
-    <t>T17.01</t>
-  </si>
-  <si>
-    <t>Get each family record</t>
-  </si>
-  <si>
-    <t>T17.02</t>
-  </si>
-  <si>
-    <t>In family record get the count of husband , wife and child</t>
-  </si>
-  <si>
-    <t>T18.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compare their birth date </t>
-  </si>
-  <si>
-    <t>T18.02</t>
-  </si>
-  <si>
-    <t>T18.03</t>
-  </si>
-  <si>
-    <t>Individual I5 was born on 11 SEP 1970 and Individual I1 born on 27 JAN 1970</t>
-  </si>
-  <si>
-    <t>Individual I2 and I3 have 7 children</t>
-  </si>
-  <si>
-    <t>Individual I8 and I9 have two children</t>
-  </si>
-  <si>
-    <t>Individual I3 was born on 14 FEB 1965 and Individual I4 born on 1 OCT 1960</t>
-  </si>
-  <si>
-    <t>AT55~56</t>
-  </si>
-  <si>
-    <t>AT57~58</t>
   </si>
 </sst>
 </file>
@@ -1618,26 +1618,31 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1774,56 +1779,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1891,25 +1896,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68999808"/>
-        <c:axId val="69001600"/>
+        <c:axId val="177294720"/>
+        <c:axId val="262890624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68999808"/>
+        <c:axId val="177294720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69001600"/>
+        <c:crossAx val="262890624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69001600"/>
+        <c:axId val="262890624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1922,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68999808"/>
+        <c:crossAx val="177294720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,7 +1932,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000233" r="0.75000000000000233" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000244" r="0.75000000000000244" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2456,7 +2461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3133,7 +3138,7 @@
         <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>254</v>
@@ -3148,7 +3153,7 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -3171,7 +3176,7 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>254</v>
@@ -3186,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>25</v>
@@ -3400,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -3764,7 +3769,7 @@
         <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -3784,7 +3789,7 @@
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -3976,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A77"/>
+    <sheetView topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5101,7 +5106,7 @@
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>477</v>
@@ -5121,7 +5126,7 @@
         <v>117</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>51</v>
@@ -5141,10 +5146,10 @@
         <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>478</v>
+        <v>486</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>492</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -5161,7 +5166,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>51</v>
@@ -5277,7 +5282,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5356,11 +5361,11 @@
         <v>1303</v>
       </c>
       <c r="E4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F4" s="9">
         <f>(D4-D3)/E4*60</f>
-        <v>129.12</v>
+        <v>124.15384615384616</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5374,14 +5379,14 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>1600</v>
+        <v>1595</v>
       </c>
       <c r="E5">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" ref="F5:F7" si="0">(D5-D4)/E5*60</f>
-        <v>142.56</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5413,7 +5418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
@@ -5931,7 +5936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B45"/>
     </sheetView>
   </sheetViews>
@@ -6459,10 +6464,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -6693,6 +6698,9 @@
       <c r="B18" t="s">
         <v>110</v>
       </c>
+      <c r="C18" s="18" t="s">
+        <v>456</v>
+      </c>
       <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
@@ -6780,6 +6788,9 @@
       <c r="B25" t="s">
         <v>111</v>
       </c>
+      <c r="C25" s="18" t="s">
+        <v>457</v>
+      </c>
       <c r="D25" s="18" t="s">
         <v>70</v>
       </c>
@@ -6868,7 +6879,7 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>254</v>
@@ -6883,119 +6894,122 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" s="16">
+        <v>40630</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:10" ht="38.25">
+      <c r="A34" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="38.25">
-      <c r="A34" t="s">
+      <c r="B34" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>491</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>25</v>
+      </c>
+      <c r="J36" s="16">
+        <v>40630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" t="s">
-        <v>492</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35">
-        <v>50</v>
-      </c>
-      <c r="I35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>485</v>
+      </c>
+      <c r="B39" t="s">
         <v>483</v>
       </c>
-      <c r="B36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>485</v>
-      </c>
-      <c r="B37" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>486</v>
-      </c>
-      <c r="B38" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="5" t="s">
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="1:10">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:10">
+      <c r="B44" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="25.5">
-      <c r="B43" s="1" t="s">
+    <row r="45" spans="1:10" ht="25.5">
+      <c r="B45" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="51">
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="1:10" ht="51">
+      <c r="B46" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="5" t="s">
+    <row r="47" spans="1:10">
+      <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="25.5">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:10" ht="25.5">
+      <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7015,7 +7029,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="534">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1014,9 +1014,6 @@
     <t>Unique information</t>
   </si>
   <si>
-    <t>An individual can only have one tag of sex, name, birthdate, etc.</t>
-  </si>
-  <si>
     <t>Inform everyone when you discover a problem</t>
   </si>
   <si>
@@ -1599,6 +1596,132 @@
   <si>
     <t xml:space="preserve">In Family F2, child I5(Emily /Mao/) and child I1(Jacky /Mao/) are not multiple births but born within one year.
 </t>
+  </si>
+  <si>
+    <t>Individual I1(Jacky /Mao/) is the child of multiple families: Family F2, Family F3.</t>
+  </si>
+  <si>
+    <t>Individual I1 is the child of both Family F2 and Family F3</t>
+  </si>
+  <si>
+    <t>Individual I3 is the child of only Family F4</t>
+  </si>
+  <si>
+    <t>AT59~60</t>
+  </si>
+  <si>
+    <t>T20.01</t>
+  </si>
+  <si>
+    <t>T20.02</t>
+  </si>
+  <si>
+    <t>Get the pointers of famc for each individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the size of pointers is greater than 1 </t>
+  </si>
+  <si>
+    <t>An individual should only have one tag of sex, name, birthdate, and at most one tag of death date; a family should only have one tag of marriage date and at most one tag of divorce date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one name : Jacky /Mao/, Jackie /Mao/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one sex : F, M. </t>
+  </si>
+  <si>
+    <t>Individual I1 has more than one birthday : 27 JAN 1960, 27 JAN 1970.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one death date : 1 JAN 2014, 1 FEB 2014. </t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a name.</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a sex.</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a birthday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F4 does not have a marriage date. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F5 has more than one marriage date : 2 JAN 2000, 1 JAN 2000. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F5 has more than one divorce date : 5 JAN 2014, 5 JAN 2014. </t>
+  </si>
+  <si>
+    <t>Individual I1 has two names: Jacky /Mao/ and Jackie /Mao/</t>
+  </si>
+  <si>
+    <t>Individual I1 has two sexes: F, M</t>
+  </si>
+  <si>
+    <t>Individual I1 has two birthdays: 27 JAN 1960 and 27 JAN 1970</t>
+  </si>
+  <si>
+    <t>Individual I1 has two death dates: 1 JAN 2014 and 1 FEB 2014</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a name</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a sex</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a birthday</t>
+  </si>
+  <si>
+    <t>Individual I3 has one name, one sex, one birthday and zero death date</t>
+  </si>
+  <si>
+    <t>Family F4 does not have a marriage date</t>
+  </si>
+  <si>
+    <t>Family F5 has two marriage date: 2 JAN 2000 and 1 JAN 2000</t>
+  </si>
+  <si>
+    <t>Family F5 has two divorce date: 5 JAN 2014 and 5 JAN 2014</t>
+  </si>
+  <si>
+    <t>Family F6 has one marriage date and zero divorce date</t>
+  </si>
+  <si>
+    <t>AT61~72</t>
+  </si>
+  <si>
+    <t>T24.01</t>
+  </si>
+  <si>
+    <t>T24.02</t>
+  </si>
+  <si>
+    <t>Scan all the tags in the file</t>
+  </si>
+  <si>
+    <t>For the tags within each INDI tag, count the numbers of NAME, SEX, BIRT DATE and DEAT DATE</t>
+  </si>
+  <si>
+    <t>For the tags within each FAM tag, count the numbers of MARR DATE and DIV DATE</t>
+  </si>
+  <si>
+    <t>T24.03</t>
+  </si>
+  <si>
+    <t>T24.04</t>
+  </si>
+  <si>
+    <t>For each individual, check if the numbers of NAME, SEX and BIRT DATE are all 1, and if the number of DEAT DATE is 0 or 1</t>
+  </si>
+  <si>
+    <t>T24.05</t>
+  </si>
+  <si>
+    <t>For each family, check if the number of MARR DATE is 1, and if the number of DIV DATE is 0 or 1</t>
   </si>
 </sst>
 </file>
@@ -1896,25 +2019,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177294720"/>
-        <c:axId val="262890624"/>
+        <c:axId val="356019200"/>
+        <c:axId val="376402688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="177294720"/>
+        <c:axId val="356019200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262890624"/>
+        <c:crossAx val="376402688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="262890624"/>
+        <c:axId val="376402688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +2045,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177294720"/>
+        <c:crossAx val="356019200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1932,7 +2055,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000244" r="0.75000000000000244" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000266" r="0.75000000000000266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2461,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="B4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2758,7 +2881,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>128</v>
@@ -2796,7 +2919,7 @@
         <v>114</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>128</v>
@@ -2834,7 +2957,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
         <v>187</v>
@@ -2872,7 +2995,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
         <v>187</v>
@@ -2910,13 +3033,13 @@
         <v>99</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E12" t="s">
         <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -2948,13 +3071,13 @@
         <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E13" t="s">
         <v>254</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -2986,7 +3109,7 @@
         <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>128</v>
@@ -3024,7 +3147,7 @@
         <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>128</v>
@@ -3062,7 +3185,7 @@
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>187</v>
@@ -3100,7 +3223,7 @@
         <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>187</v>
@@ -3138,7 +3261,7 @@
         <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>254</v>
@@ -3176,7 +3299,7 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>254</v>
@@ -3230,14 +3353,29 @@
       <c r="C21" t="s">
         <v>126</v>
       </c>
+      <c r="D21" s="18" t="s">
+        <v>495</v>
+      </c>
       <c r="E21" t="s">
         <v>128</v>
       </c>
+      <c r="F21" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="G21">
         <v>75</v>
       </c>
       <c r="H21">
         <v>30</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21" s="16">
+        <v>40638</v>
       </c>
       <c r="L21" s="7">
         <v>40598</v>
@@ -3310,14 +3448,29 @@
       <c r="C25" s="18" t="s">
         <v>297</v>
       </c>
+      <c r="D25" s="18" t="s">
+        <v>523</v>
+      </c>
       <c r="E25" t="s">
         <v>128</v>
       </c>
+      <c r="F25" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
         <v>45</v>
+      </c>
+      <c r="I25">
+        <v>226</v>
+      </c>
+      <c r="J25">
+        <v>90</v>
+      </c>
+      <c r="K25" s="16">
+        <v>40638</v>
       </c>
       <c r="L25" s="7">
         <v>40602</v>
@@ -3328,7 +3481,7 @@
         <v>95</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L26" s="7">
         <v>40610</v>
@@ -3336,10 +3489,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="B27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L27" s="7">
         <v>40610</v>
@@ -3347,10 +3500,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L28" s="7">
         <v>40610</v>
@@ -3358,10 +3511,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="B29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L29" s="7">
         <v>40610</v>
@@ -3369,10 +3522,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7">
         <v>40610</v>
@@ -3380,10 +3533,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L31" s="7">
         <v>40610</v>
@@ -3405,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3569,7 +3722,7 @@
         <v>96</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -3589,7 +3742,7 @@
         <v>115</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3609,7 +3762,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -3629,7 +3782,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -3649,7 +3802,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -3669,7 +3822,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3689,7 +3842,7 @@
         <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14">
         <v>70</v>
@@ -3706,10 +3859,10 @@
         <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -3729,7 +3882,7 @@
         <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -3743,13 +3896,13 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -3769,7 +3922,7 @@
         <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -3789,7 +3942,7 @@
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -3825,6 +3978,9 @@
       <c r="C21" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="D21" s="18" t="s">
+        <v>495</v>
+      </c>
       <c r="E21">
         <v>75</v>
       </c>
@@ -3883,15 +4039,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="38.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>298</v>
+      <c r="C25" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>523</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -3905,65 +4064,65 @@
         <v>95</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3981,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4586,10 +4745,10 @@
         <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -4606,10 +4765,10 @@
         <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
@@ -4626,7 +4785,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>51</v>
@@ -4646,10 +4805,10 @@
         <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F33" t="s">
         <v>53</v>
@@ -4666,7 +4825,7 @@
         <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>51</v>
@@ -4686,7 +4845,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -4706,10 +4865,10 @@
         <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -4726,10 +4885,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -4746,10 +4905,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -4766,7 +4925,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -4786,13 +4945,13 @@
         <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="25.5">
@@ -4806,10 +4965,10 @@
         <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -4826,7 +4985,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -4846,10 +5005,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F43" t="s">
         <v>53</v>
@@ -4866,7 +5025,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -4886,10 +5045,10 @@
         <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F45" t="s">
         <v>53</v>
@@ -4906,10 +5065,10 @@
         <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
@@ -4926,7 +5085,7 @@
         <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -4946,10 +5105,10 @@
         <v>295</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F48" t="s">
         <v>53</v>
@@ -4966,7 +5125,7 @@
         <v>295</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -4986,10 +5145,10 @@
         <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -5000,13 +5159,13 @@
         <v>223</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C51" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>51</v>
@@ -5023,13 +5182,13 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -5043,13 +5202,13 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F53" t="s">
         <v>53</v>
@@ -5063,13 +5222,13 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F54" t="s">
         <v>53</v>
@@ -5083,13 +5242,13 @@
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F55" t="s">
         <v>53</v>
@@ -5106,10 +5265,10 @@
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -5126,7 +5285,7 @@
         <v>117</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>51</v>
@@ -5146,10 +5305,10 @@
         <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -5166,7 +5325,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>51</v>
@@ -5175,94 +5334,304 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="25.5">
       <c r="A60" t="s">
         <v>232</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="B61" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="25.5">
       <c r="A62" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="B62" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="25.5">
       <c r="A63" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="25.5">
+      <c r="A64" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="B64" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="25.5">
+      <c r="A65" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="F65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B66" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="F66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B67" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B68" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="25.5">
+      <c r="A69" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B69" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B70" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="25.5">
+      <c r="A71" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B71" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="F71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="25.5">
+      <c r="A72" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B72" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="F72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="25.5">
+      <c r="A73" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B73" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5891,23 +6260,23 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -5986,7 +6355,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
         <v>128</v>
@@ -6012,10 +6381,10 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -6024,10 +6393,10 @@
     </row>
     <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -6036,10 +6405,10 @@
     </row>
     <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -6058,7 +6427,7 @@
         <v>114</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
@@ -6084,10 +6453,10 @@
     </row>
     <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
@@ -6096,10 +6465,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" t="s">
@@ -6108,10 +6477,10 @@
     </row>
     <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
@@ -6126,13 +6495,13 @@
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D14" t="s">
         <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -6152,10 +6521,10 @@
     </row>
     <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D15" t="s">
         <v>187</v>
@@ -6163,10 +6532,10 @@
     </row>
     <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>187</v>
@@ -6174,10 +6543,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D17" t="s">
         <v>187</v>
@@ -6185,10 +6554,10 @@
     </row>
     <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D18" t="s">
         <v>187</v>
@@ -6206,13 +6575,13 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" t="s">
         <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -6232,10 +6601,10 @@
     </row>
     <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D21" t="s">
         <v>187</v>
@@ -6243,10 +6612,10 @@
     </row>
     <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D22" t="s">
         <v>187</v>
@@ -6254,10 +6623,10 @@
     </row>
     <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="D23" t="s">
         <v>187</v>
@@ -6265,10 +6634,10 @@
     </row>
     <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="D24" t="s">
         <v>187</v>
@@ -6276,10 +6645,10 @@
     </row>
     <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D25" t="s">
         <v>187</v>
@@ -6293,13 +6662,13 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D27" t="s">
         <v>254</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -6319,37 +6688,37 @@
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="J31" s="16"/>
     </row>
@@ -6361,13 +6730,13 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
         <v>254</v>
       </c>
       <c r="E32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -6387,26 +6756,26 @@
     </row>
     <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6424,17 +6793,17 @@
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5">
       <c r="B41" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="51">
       <c r="B42" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6466,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -6515,13 +6884,13 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -6541,10 +6910,10 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -6553,10 +6922,10 @@
     </row>
     <row r="5" spans="1:10" ht="38.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -6565,10 +6934,10 @@
     </row>
     <row r="6" spans="1:10" ht="38.25">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -6577,10 +6946,10 @@
     </row>
     <row r="7" spans="1:10" ht="38.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
@@ -6589,18 +6958,18 @@
     </row>
     <row r="8" spans="1:10" ht="25.5">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
@@ -6609,10 +6978,10 @@
     </row>
     <row r="10" spans="1:10" ht="38.25">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
@@ -6627,13 +6996,13 @@
         <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -6653,10 +7022,10 @@
     </row>
     <row r="14" spans="1:10" ht="25.5">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
@@ -6665,10 +7034,10 @@
     </row>
     <row r="15" spans="1:10" ht="38.25">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
@@ -6677,10 +7046,10 @@
     </row>
     <row r="16" spans="1:10" ht="38.25">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
@@ -6699,13 +7068,13 @@
         <v>110</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -6725,10 +7094,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>70</v>
@@ -6736,10 +7105,10 @@
     </row>
     <row r="20" spans="1:10" ht="25.5">
       <c r="A20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>70</v>
@@ -6747,10 +7116,10 @@
     </row>
     <row r="21" spans="1:10" ht="38.25">
       <c r="A21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>70</v>
@@ -6758,10 +7127,10 @@
     </row>
     <row r="22" spans="1:10" ht="51">
       <c r="A22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>70</v>
@@ -6769,10 +7138,10 @@
     </row>
     <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>70</v>
@@ -6789,13 +7158,13 @@
         <v>111</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -6815,10 +7184,10 @@
     </row>
     <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>70</v>
@@ -6826,10 +7195,10 @@
     </row>
     <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>70</v>
@@ -6837,10 +7206,10 @@
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>70</v>
@@ -6848,10 +7217,10 @@
     </row>
     <row r="29" spans="1:10" ht="51">
       <c r="A29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>70</v>
@@ -6859,10 +7228,10 @@
     </row>
     <row r="30" spans="1:10" ht="51">
       <c r="A30" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>70</v>
@@ -6879,13 +7248,13 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>254</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -6905,18 +7274,18 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>477</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="38.25">
       <c r="A34" t="s">
+        <v>479</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6927,13 +7296,13 @@
         <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>254</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F36">
         <v>50</v>
@@ -6953,26 +7322,26 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6990,17 +7359,17 @@
     </row>
     <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="25.5">
       <c r="B45" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="51">
       <c r="B46" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -7026,10 +7395,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -7086,89 +7455,200 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-    </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>495</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>128</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>329</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>293</v>
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="16">
+        <v>40638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5">
+      <c r="A6" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>297</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5">
+      <c r="A7" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>499</v>
       </c>
       <c r="D7" t="s">
         <v>128</v>
       </c>
-      <c r="F7">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="G9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
         <v>45</v>
+      </c>
+      <c r="H13">
+        <v>226</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13" s="16">
+        <v>40638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="51">
+      <c r="A16" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63.75">
+      <c r="A17" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51">
+      <c r="A18" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51">
+      <c r="A19" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="553">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1722,6 +1722,64 @@
   </si>
   <si>
     <t>For each family, check if the number of MARR DATE is 1, and if the number of DIV DATE is 0 or 1</t>
+  </si>
+  <si>
+    <t>Check the family record</t>
+  </si>
+  <si>
+    <t>T19.01</t>
+  </si>
+  <si>
+    <t>T19.02</t>
+  </si>
+  <si>
+    <t>get the wife age</t>
+  </si>
+  <si>
+    <t>T19.03</t>
+  </si>
+  <si>
+    <t>Chech the age between 18to 50</t>
+  </si>
+  <si>
+    <t>T23.01</t>
+  </si>
+  <si>
+    <t>T23.02</t>
+  </si>
+  <si>
+    <t>T23.03</t>
+  </si>
+  <si>
+    <t>Compare the Birth date with divorce date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  If threr is no divorce date continue to the next family</t>
+  </si>
+  <si>
+    <t>Individual I10 cannot give birth, her birth date is 1 NOV 1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I10(Jen /Brown/) is not in pregnancy age limit. Her present age is 95
+</t>
+  </si>
+  <si>
+    <t>Individaul I9 is in pregnency age, Her birth date is 1991</t>
+  </si>
+  <si>
+    <t>Family F3 divorce Date is(31 DEC 1972) and child's birth Date is (27 JAN 1974).</t>
+  </si>
+  <si>
+    <t>In family F3, Divorce date is 31 DEC 1972, Child birth date is  27 JAN 1974, born after Divorce</t>
+  </si>
+  <si>
+    <t>In Family F5, Divorce date is 5 JAN 2014, Child birth date is 6 JUN 2011, Born before divorce</t>
+  </si>
+  <si>
+    <t>AT73~74</t>
+  </si>
+  <si>
+    <t>AT75~76</t>
   </si>
 </sst>
 </file>
@@ -1902,56 +1960,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2019,25 +2077,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="356019200"/>
-        <c:axId val="376402688"/>
+        <c:axId val="123070336"/>
+        <c:axId val="123071872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="356019200"/>
+        <c:axId val="123070336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="376402688"/>
+        <c:crossAx val="123071872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="376402688"/>
+        <c:axId val="123071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="356019200"/>
+        <c:crossAx val="123070336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2055,7 +2113,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000266" r="0.75000000000000266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000278" r="0.75000000000000278" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2584,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3333,14 +3391,29 @@
       <c r="C20" t="s">
         <v>122</v>
       </c>
+      <c r="D20" t="s">
+        <v>551</v>
+      </c>
       <c r="E20" t="s">
         <v>254</v>
       </c>
+      <c r="F20" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="G20">
         <v>50</v>
       </c>
       <c r="H20">
         <v>25</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20" s="16">
+        <v>40644</v>
       </c>
       <c r="L20" s="7">
         <v>40598</v>
@@ -3428,14 +3501,29 @@
       <c r="C24" s="18" t="s">
         <v>293</v>
       </c>
+      <c r="D24" t="s">
+        <v>552</v>
+      </c>
       <c r="E24" t="s">
         <v>254</v>
       </c>
+      <c r="F24" t="s">
+        <v>176</v>
+      </c>
       <c r="G24">
         <v>75</v>
       </c>
       <c r="H24">
         <v>30</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" s="16">
+        <v>40644</v>
       </c>
       <c r="L24" s="7">
         <v>40602</v>
@@ -3558,8 +3646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3961,6 +4049,9 @@
       <c r="C20" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D20" t="s">
+        <v>551</v>
+      </c>
       <c r="E20">
         <v>50</v>
       </c>
@@ -4031,6 +4122,9 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>296</v>
+      </c>
+      <c r="D24" t="s">
+        <v>552</v>
       </c>
       <c r="E24">
         <v>75</v>
@@ -4140,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A72" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5534,7 +5628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="25.5">
       <c r="A70" t="s">
         <v>376</v>
       </c>
@@ -5614,24 +5708,84 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="38.25">
       <c r="A74" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="B74" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="25.5">
       <c r="A75" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="B75" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="38.25">
       <c r="A76" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="38.25">
       <c r="A77" t="s">
         <v>383</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6305,8 +6459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B45"/>
+    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -6835,7 +6989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7395,10 +7549,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -7445,196 +7599,241 @@
       <c r="B2" t="s">
         <v>122</v>
       </c>
+      <c r="C2" t="s">
+        <v>551</v>
+      </c>
       <c r="D2" t="s">
         <v>254</v>
       </c>
+      <c r="E2" t="s">
+        <v>329</v>
+      </c>
       <c r="F2">
         <v>50</v>
       </c>
       <c r="G2">
         <v>25</v>
       </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2" s="16">
+        <v>40644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4" s="16">
-        <v>40638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5">
-      <c r="A6" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>498</v>
       </c>
       <c r="D6" t="s">
         <v>128</v>
       </c>
+      <c r="E6" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6" s="16">
+        <v>40638</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="25.5">
       <c r="A7" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:10" ht="25.5">
+      <c r="A8" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>50</v>
-      </c>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>261</v>
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
       </c>
       <c r="F10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" t="s">
         <v>254</v>
       </c>
-      <c r="F11">
+      <c r="E12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12">
         <v>75</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>30</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="16">
+        <v>40644</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>226</v>
-      </c>
-      <c r="I13">
-        <v>90</v>
-      </c>
-      <c r="J13" s="16">
-        <v>40638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="51">
-      <c r="A16" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>527</v>
       </c>
       <c r="D16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="63.75">
-      <c r="A17" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="51">
+      <c r="E16" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>45</v>
+      </c>
+      <c r="H16">
+        <v>226</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16" s="16">
+        <v>40638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D18" t="s">
         <v>128</v>
@@ -7642,12 +7841,45 @@
     </row>
     <row r="19" spans="1:4" ht="51">
       <c r="A19" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63.75">
+      <c r="A20" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51">
+      <c r="A21" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="51">
+      <c r="A22" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B22" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="591">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1625,36 +1625,6 @@
     <t>An individual should only have one tag of sex, name, birthdate, and at most one tag of death date; a family should only have one tag of marriage date and at most one tag of divorce date.</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual I1 has more than one name : Jacky /Mao/, Jackie /Mao/. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual I1 has more than one sex : F, M. </t>
-  </si>
-  <si>
-    <t>Individual I1 has more than one birthday : 27 JAN 1960, 27 JAN 1970.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual I1 has more than one death date : 1 JAN 2014, 1 FEB 2014. </t>
-  </si>
-  <si>
-    <t>Individual I2 does not have a name.</t>
-  </si>
-  <si>
-    <t>Individual I2 does not have a sex.</t>
-  </si>
-  <si>
-    <t>Individual I2 does not have a birthday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family F4 does not have a marriage date. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family F5 has more than one marriage date : 2 JAN 2000, 1 JAN 2000. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family F5 has more than one divorce date : 5 JAN 2014, 5 JAN 2014. </t>
-  </si>
-  <si>
     <t>Individual I1 has two names: Jacky /Mao/ and Jackie /Mao/</t>
   </si>
   <si>
@@ -1780,17 +1750,161 @@
   </si>
   <si>
     <t>AT75~76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one name tag: Jacky /Mao/, Jackie /Mao/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one sex tag: F, M. </t>
+  </si>
+  <si>
+    <t>Individual I1 has more than one birthday tag: 27 JAN 1960, 27 JAN 1970.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one death date tag: 1 JAN 2014, 1 FEB 2014. </t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a name tag.</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a sex tag.</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a birthday tag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F4 does not have a marriage date tag. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F5 has more than one marriage date tag: 2 JAN 2000, 1 JAN 2000. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F5 has more than one divorce date tag: 5 JAN 2014, 5 JAN 2014. </t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>get access to each individual record</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>read every individual's famc and fams record</t>
+  </si>
+  <si>
+    <t>T21.03</t>
+  </si>
+  <si>
+    <t>if an individual doesn't have a famc nor a fams record, then he/she doesn't belong to any family</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>if an individual's name, sex or birthday record is null, then he/she doesn't complete his/her information</t>
+  </si>
+  <si>
+    <t>T22.03</t>
+  </si>
+  <si>
+    <t>T22.04</t>
+  </si>
+  <si>
+    <t>if a family doesn't have a marriage record, then this family doesn't complete its information</t>
+  </si>
+  <si>
+    <t>AT77</t>
+  </si>
+  <si>
+    <t>AT78</t>
+  </si>
+  <si>
+    <t>AT79</t>
+  </si>
+  <si>
+    <t>AT80</t>
+  </si>
+  <si>
+    <t>AT81</t>
+  </si>
+  <si>
+    <t>AT82</t>
+  </si>
+  <si>
+    <t>AT83</t>
+  </si>
+  <si>
+    <t>AT84</t>
+  </si>
+  <si>
+    <t>AT85</t>
+  </si>
+  <si>
+    <t>Individual I11(James /Brown/) doesn't have a fams nor a famc record</t>
+  </si>
+  <si>
+    <t>Individual I11 (James /Brown/) doesn't belong to any family.</t>
+  </si>
+  <si>
+    <t>Individual I12(Grace /Li/) is a wife in family F1, she has a fams record</t>
+  </si>
+  <si>
+    <t>Individual I2 doesn't complete information(missing name).</t>
+  </si>
+  <si>
+    <t>Individual I2 doesn't have a name tag nor a name</t>
+  </si>
+  <si>
+    <t>Individual I6 has a name tag but doesn't have a name record</t>
+  </si>
+  <si>
+    <t>Individual I6 doesn't complete information(missing name).</t>
+  </si>
+  <si>
+    <t>Individual I7 (Chris /Taylor/)  doesn't complete information(missing gender).</t>
+  </si>
+  <si>
+    <t>Individual I7 has a sex tag but doesn't have a gender record</t>
+  </si>
+  <si>
+    <t>Individual I8 has a birt tag but doesn't have a birthday record</t>
+  </si>
+  <si>
+    <t>Individual I8 (Kevin /Brown/)  doesn't complete information(missing birth date).</t>
+  </si>
+  <si>
+    <t>Individual I9 complete the information of name, sex and birthday</t>
+  </si>
+  <si>
+    <t>Family F4 doesn't complete information(missing marriage date).</t>
+  </si>
+  <si>
+    <t>family F4 has a marr tag but doesn't have a marriage date record</t>
+  </si>
+  <si>
+    <t>family F1 complete the information of marriage date</t>
+  </si>
+  <si>
+    <t>AT77~78</t>
+  </si>
+  <si>
+    <t>AT79~85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1918,7 +2032,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1956,6 +2070,9 @@
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2025,11 +2142,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2050,6 +2178,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>40630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,44 +2203,64 @@
                 <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="123070336"/>
-        <c:axId val="123071872"/>
+        <c:smooth val="0"/>
+        <c:axId val="102773120"/>
+        <c:axId val="102774656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="123070336"/>
+        <c:axId val="102773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123071872"/>
+        <c:crossAx val="102774656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="123071872"/>
+        <c:axId val="102774656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123070336"/>
+        <c:crossAx val="102773120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2473,14 +2624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2489,7 +2640,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2523,7 +2674,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2540,7 +2691,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2557,7 +2708,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2586,16 +2737,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2625,6 +2779,108 @@
       </c>
       <c r="J1" s="10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2639,14 +2895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="B14" zoomScale="150" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2662,7 +2918,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2700,7 +2956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2738,7 +2994,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2776,7 +3032,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2814,7 +3070,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2852,7 +3108,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2890,7 +3146,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2928,7 +3184,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2966,7 +3222,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3004,7 +3260,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3042,7 +3298,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3080,7 +3336,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3118,7 +3374,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3156,7 +3412,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3194,7 +3450,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3232,7 +3488,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3270,7 +3526,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3308,7 +3564,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3346,7 +3602,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3384,7 +3640,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -3392,7 +3648,7 @@
         <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E20" t="s">
         <v>254</v>
@@ -3419,7 +3675,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -3454,7 +3710,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -3474,7 +3730,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -3494,7 +3750,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3502,7 +3758,7 @@
         <v>293</v>
       </c>
       <c r="D24" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E24" t="s">
         <v>254</v>
@@ -3529,7 +3785,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -3537,7 +3793,7 @@
         <v>297</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E25" t="s">
         <v>128</v>
@@ -3564,7 +3820,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3575,7 +3831,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>307</v>
       </c>
@@ -3586,7 +3842,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>340</v>
       </c>
@@ -3597,7 +3853,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>342</v>
       </c>
@@ -3608,7 +3864,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>343</v>
       </c>
@@ -3619,7 +3875,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>344</v>
       </c>
@@ -3643,14 +3899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -3659,7 +3915,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +3935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3699,7 +3955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3719,7 +3975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +3995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3759,7 +4015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -3779,7 +4035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3799,7 +4055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3819,7 +4075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3839,7 +4095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -3859,7 +4115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -3879,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -3899,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -3919,7 +4175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -3939,7 +4195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3959,7 +4215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3979,7 +4235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -3999,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -4019,7 +4275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -4039,7 +4295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -4050,7 +4306,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4059,7 +4315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -4079,7 +4335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -4089,6 +4345,9 @@
       <c r="C22" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="D22" s="18" t="s">
+        <v>589</v>
+      </c>
       <c r="E22">
         <v>100</v>
       </c>
@@ -4096,7 +4355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4106,6 +4365,9 @@
       <c r="C23" s="20" t="s">
         <v>262</v>
       </c>
+      <c r="D23" s="18" t="s">
+        <v>590</v>
+      </c>
       <c r="E23">
         <v>70</v>
       </c>
@@ -4113,7 +4375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4124,7 +4386,7 @@
         <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E24">
         <v>75</v>
@@ -4133,7 +4395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38.25">
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -4144,7 +4406,7 @@
         <v>500</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -4153,7 +4415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -4163,8 +4425,14 @@
       <c r="C26" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="25.5">
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>307</v>
       </c>
@@ -4174,8 +4442,14 @@
       <c r="C27" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4185,8 +4459,14 @@
       <c r="C28" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>342</v>
       </c>
@@ -4196,8 +4476,14 @@
       <c r="C29" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>343</v>
       </c>
@@ -4207,8 +4493,14 @@
       <c r="C30" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>344</v>
       </c>
@@ -4217,6 +4509,12 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>356</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4231,24 +4529,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -4268,7 +4566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4288,7 +4586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -4308,7 +4606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -4328,7 +4626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4348,7 +4646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4368,7 +4666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4388,7 +4686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -4408,7 +4706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4428,7 +4726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4448,7 +4746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -4468,7 +4766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4488,7 +4786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4508,7 +4806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -4528,7 +4826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -4548,7 +4846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4568,7 +4866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -4588,7 +4886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -4608,7 +4906,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4628,7 +4926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4648,7 +4946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4668,7 +4966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4688,7 +4986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -4708,7 +5006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4728,7 +5026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -4748,7 +5046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -4768,7 +5066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -4788,7 +5086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -4808,7 +5106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -4828,7 +5126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25">
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -4848,7 +5146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51">
+    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -4868,7 +5166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -4888,7 +5186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -4908,7 +5206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4928,7 +5226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -4948,7 +5246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25">
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -4968,7 +5266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25">
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -4988,7 +5286,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25">
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -5008,7 +5306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -5028,7 +5326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25">
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -5048,7 +5346,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5">
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -5068,7 +5366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25">
+    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -5088,7 +5386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5">
+    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -5108,7 +5406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -5128,7 +5426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51">
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -5148,7 +5446,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -5168,7 +5466,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51">
+    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -5188,7 +5486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51">
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -5208,7 +5506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5">
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -5228,7 +5526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="51">
+    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -5248,7 +5546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5">
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -5268,7 +5566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="51">
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -5288,7 +5586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51">
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -5308,7 +5606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="51">
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -5328,7 +5626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="51">
+    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -5348,7 +5646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -5368,7 +5666,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>229</v>
       </c>
@@ -5388,7 +5686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="51">
+    <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>230</v>
       </c>
@@ -5408,7 +5706,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="25.5">
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -5428,7 +5726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="25.5">
+    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -5448,7 +5746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -5468,7 +5766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="25.5">
+    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -5479,16 +5777,16 @@
         <v>297</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>501</v>
+        <v>543</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="25.5">
+    <row r="63" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>369</v>
       </c>
@@ -5499,16 +5797,16 @@
         <v>297</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="25.5">
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>370</v>
       </c>
@@ -5519,16 +5817,16 @@
         <v>297</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="25.5">
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -5539,16 +5837,16 @@
         <v>297</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="F65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -5559,16 +5857,16 @@
         <v>297</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>373</v>
       </c>
@@ -5579,16 +5877,16 @@
         <v>297</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>374</v>
       </c>
@@ -5599,16 +5897,16 @@
         <v>297</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="F68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="25.5">
+    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -5619,7 +5917,7 @@
         <v>297</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>51</v>
@@ -5628,7 +5926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="25.5">
+    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>376</v>
       </c>
@@ -5639,16 +5937,16 @@
         <v>297</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>508</v>
+        <v>550</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25.5">
+    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>377</v>
       </c>
@@ -5659,16 +5957,16 @@
         <v>297</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="25.5">
+    <row r="72" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>378</v>
       </c>
@@ -5679,16 +5977,16 @@
         <v>297</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="25.5">
+    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>379</v>
       </c>
@@ -5699,7 +5997,7 @@
         <v>297</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>51</v>
@@ -5708,7 +6006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="38.25">
+    <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>380</v>
       </c>
@@ -5719,16 +6017,16 @@
         <v>122</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="25.5">
+    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>381</v>
       </c>
@@ -5739,7 +6037,7 @@
         <v>122</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>51</v>
@@ -5748,7 +6046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="38.25">
+    <row r="76" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>382</v>
       </c>
@@ -5759,16 +6057,16 @@
         <v>293</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="38.25">
+    <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>383</v>
       </c>
@@ -5779,7 +6077,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>51</v>
@@ -5787,6 +6085,211 @@
       <c r="F77" s="18" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="78" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>566</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>568</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>570</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>572</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+      <c r="F88" s="18"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5801,14 +6304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -5818,7 +6321,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5838,7 +6341,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -5849,7 +6352,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -5870,7 +6373,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -5891,7 +6394,7 @@
         <v>124.15384615384616</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>40630</v>
       </c>
@@ -5912,13 +6415,28 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="F6" s="9" t="e">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>40644</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1939</v>
+      </c>
+      <c r="E6">
+        <v>195</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>105.84615384615384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5938,14 +6456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -5959,7 +6477,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -5991,7 +6509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6023,7 +6541,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -6034,7 +6552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6045,7 +6563,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -6056,7 +6574,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5">
+    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -6067,7 +6585,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6099,7 +6617,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -6110,7 +6628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -6121,7 +6639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -6153,7 +6671,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -6165,7 +6683,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -6176,7 +6694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -6187,7 +6705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5">
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -6199,10 +6717,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -6234,7 +6752,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -6246,7 +6764,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -6257,7 +6775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -6266,10 +6784,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6301,7 +6819,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -6313,7 +6831,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -6325,7 +6843,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -6337,10 +6855,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -6372,7 +6890,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -6384,7 +6902,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5">
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -6396,49 +6914,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5">
+    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25">
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5">
+    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -6456,20 +6974,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -6501,7 +7019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -6533,7 +7051,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -6545,7 +7063,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -6557,7 +7075,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5">
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -6569,11 +7087,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -6605,7 +7123,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5">
+    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -6617,7 +7135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>319</v>
       </c>
@@ -6629,7 +7147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25">
+    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -6641,7 +7159,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -6673,7 +7191,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5">
+    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -6684,7 +7202,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5">
+    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -6695,7 +7213,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>324</v>
       </c>
@@ -6706,7 +7224,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25">
+    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>326</v>
       </c>
@@ -6718,10 +7236,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -6753,7 +7271,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>330</v>
       </c>
@@ -6764,7 +7282,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25">
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>331</v>
       </c>
@@ -6775,7 +7293,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -6786,7 +7304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>335</v>
       </c>
@@ -6797,7 +7315,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5">
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -6808,7 +7326,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -6840,7 +7358,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -6849,7 +7367,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="38.25">
+    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>386</v>
       </c>
@@ -6858,7 +7376,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="25.5">
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>388</v>
       </c>
@@ -6867,7 +7385,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="25.5">
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>390</v>
       </c>
@@ -6876,7 +7394,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -6908,7 +7426,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>392</v>
       </c>
@@ -6916,7 +7434,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51">
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>393</v>
       </c>
@@ -6924,7 +7442,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>395</v>
       </c>
@@ -6932,43 +7450,43 @@
         <v>396</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51">
+    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5">
+    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -6986,19 +7504,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -7030,7 +7548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -7062,7 +7580,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -7074,7 +7592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25">
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -7086,7 +7604,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -7098,7 +7616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25">
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>424</v>
       </c>
@@ -7110,7 +7628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5">
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>425</v>
       </c>
@@ -7118,7 +7636,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>426</v>
       </c>
@@ -7130,7 +7648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38.25">
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>428</v>
       </c>
@@ -7142,7 +7660,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -7174,7 +7692,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5">
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -7186,7 +7704,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -7198,7 +7716,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>439</v>
       </c>
@@ -7210,11 +7728,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -7246,7 +7764,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>457</v>
       </c>
@@ -7257,7 +7775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5">
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>459</v>
       </c>
@@ -7268,7 +7786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="38.25">
+    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>461</v>
       </c>
@@ -7279,7 +7797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>462</v>
       </c>
@@ -7290,7 +7808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5">
+    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>465</v>
       </c>
@@ -7301,10 +7819,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -7336,7 +7854,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5">
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -7347,7 +7865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5">
+    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -7358,7 +7876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5">
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>469</v>
       </c>
@@ -7369,7 +7887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51">
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>470</v>
       </c>
@@ -7380,7 +7898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51">
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -7391,10 +7909,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -7426,7 +7944,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>477</v>
       </c>
@@ -7434,7 +7952,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="38.25">
+    <row r="34" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>479</v>
       </c>
@@ -7442,7 +7960,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -7474,7 +7992,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -7482,7 +8000,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>483</v>
       </c>
@@ -7490,7 +8008,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>484</v>
       </c>
@@ -7498,40 +8016,40 @@
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="25.5">
+    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="51">
+    <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="25.5">
+    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
@@ -7548,19 +8066,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -7592,7 +8110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -7600,7 +8118,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D2" t="s">
         <v>254</v>
@@ -7624,262 +8142,387 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>495</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6" s="16">
-        <v>40638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="25.5">
-      <c r="A7" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>498</v>
       </c>
       <c r="D7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.5">
+      <c r="E7" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7" s="16">
+        <v>40638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
       </c>
+      <c r="E11" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="16">
+        <v>40644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="G11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" t="s">
-        <v>552</v>
-      </c>
-      <c r="D12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E12" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12">
-        <v>75</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12" s="16">
-        <v>40644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>540</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>541</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>542</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="E12" s="18"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="18"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>523</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>329</v>
       </c>
       <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" s="16">
+        <v>40644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22" s="16">
+        <v>40644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>530</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27">
         <v>100</v>
       </c>
-      <c r="G16">
+      <c r="G27">
         <v>45</v>
       </c>
-      <c r="H16">
+      <c r="H27">
         <v>226</v>
       </c>
-      <c r="I16">
+      <c r="I27">
         <v>90</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J27" s="16">
         <v>40638</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="D29" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51">
-      <c r="A19" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63.75">
-      <c r="A20" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="31" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="D31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51">
-      <c r="A21" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D32" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="51">
-      <c r="A22" s="18" t="s">
-        <v>532</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="591">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1899,12 +1899,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2077,56 +2077,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2142,22 +2142,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2209,62 +2198,46 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="102773120"/>
-        <c:axId val="102774656"/>
+        <c:axId val="348155904"/>
+        <c:axId val="348157440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="102773120"/>
+        <c:axId val="348155904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102774656"/>
+        <c:crossAx val="348157440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="102774656"/>
+        <c:axId val="348157440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102773120"/>
+        <c:crossAx val="348155904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000278" r="0.75000000000000278" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000289" r="0.75000000000000289" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2624,14 +2597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2640,7 +2613,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2657,7 +2630,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2674,7 +2647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2691,7 +2664,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2708,7 +2681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2737,19 +2710,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2781,7 +2754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2798,7 +2771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -2815,7 +2788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -2832,7 +2805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>342</v>
       </c>
@@ -2849,7 +2822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>343</v>
       </c>
@@ -2866,7 +2839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>344</v>
       </c>
@@ -2895,14 +2868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -2918,7 +2891,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -2956,7 +2929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2994,7 +2967,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3032,7 +3005,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3070,7 +3043,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3108,7 +3081,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3146,7 +3119,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3184,7 +3157,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3222,7 +3195,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3260,7 +3233,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3298,7 +3271,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3336,7 +3309,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3374,7 +3347,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3412,7 +3385,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3450,7 +3423,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3488,7 +3461,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3526,7 +3499,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3564,7 +3537,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3602,7 +3575,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3640,7 +3613,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -3675,7 +3648,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -3710,47 +3683,77 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
+      <c r="D22" s="18" t="s">
+        <v>589</v>
+      </c>
       <c r="E22" t="s">
         <v>70</v>
       </c>
+      <c r="F22" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22">
         <v>50</v>
       </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22" s="16">
+        <v>40644</v>
+      </c>
       <c r="L22" s="7">
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>261</v>
       </c>
+      <c r="D23" s="18" t="s">
+        <v>590</v>
+      </c>
       <c r="E23" t="s">
         <v>70</v>
       </c>
+      <c r="F23" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="G23">
         <v>70</v>
       </c>
       <c r="H23">
         <v>35</v>
       </c>
+      <c r="I23">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" s="16">
+        <v>40644</v>
+      </c>
       <c r="L23" s="7">
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
         <v>307</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>340</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>342</v>
       </c>
@@ -3864,7 +3867,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>343</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
         <v>344</v>
       </c>
@@ -3899,14 +3902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F31"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -3915,7 +3918,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4035,7 +4038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="25.5">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="25.5">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="25.5">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4375,7 +4378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="25.5">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="38.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -4415,7 +4418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>307</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>342</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>343</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>344</v>
       </c>
@@ -4529,14 +4532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -4546,7 +4549,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="47.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="47.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="47.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="47.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="47.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31.5">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="78.75">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="63">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="78.75">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="47.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="47.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="38.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="38.25">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="38.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="25.5">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="38.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="51">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="25.5">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="26.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="25.5">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="38.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="38.25">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="38.25">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="25.5">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="38.25">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="25.5">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="38.25">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="25.5">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="25.5">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="51">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="51">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="51">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="51">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="25.5">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="51">
       <c r="A50" t="s">
         <v>222</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="25.5">
       <c r="A51" t="s">
         <v>223</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="51">
       <c r="A52" t="s">
         <v>224</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="51">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="51">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="51">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>228</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>229</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="51">
       <c r="A58" t="s">
         <v>230</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="25.5">
       <c r="A59" t="s">
         <v>231</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="25.5">
       <c r="A60" t="s">
         <v>232</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="25.5">
       <c r="A62" t="s">
         <v>234</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="25.5">
       <c r="A63" t="s">
         <v>369</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="25.5">
       <c r="A64" t="s">
         <v>370</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="25.5">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>372</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>373</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="25.5">
       <c r="A68" t="s">
         <v>374</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="25.5">
       <c r="A69" t="s">
         <v>375</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="25.5">
       <c r="A70" t="s">
         <v>376</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="25.5">
       <c r="A71" t="s">
         <v>377</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="25.5">
       <c r="A72" t="s">
         <v>378</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="25.5">
       <c r="A73" t="s">
         <v>379</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="38.25">
       <c r="A74" t="s">
         <v>380</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="25.5">
       <c r="A75" t="s">
         <v>381</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="25.5">
       <c r="A76" t="s">
         <v>382</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="25.5">
       <c r="A77" t="s">
         <v>383</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="25.5">
       <c r="A78" s="18" t="s">
         <v>565</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="25.5">
       <c r="A79" t="s">
         <v>566</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="25.5">
       <c r="A80" s="18" t="s">
         <v>567</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="25.5">
       <c r="A81" t="s">
         <v>568</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="25.5">
       <c r="A82" s="18" t="s">
         <v>569</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="25.5">
       <c r="A83" t="s">
         <v>570</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="25.5">
       <c r="A84" s="18" t="s">
         <v>571</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="25.5">
       <c r="A85" t="s">
         <v>572</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="25.5">
       <c r="A86" s="18" t="s">
         <v>573</v>
       </c>
@@ -6266,29 +6269,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="F87" s="18"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="18"/>
       <c r="F88" s="18"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="18"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="18"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="18"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="18"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="18"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="18"/>
     </row>
   </sheetData>
@@ -6304,14 +6307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -6321,7 +6324,7 @@
     <col min="6" max="6" width="13.75" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40598</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40602</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>100.61538461538461</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>40611</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>124.15384615384616</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>40630</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>40644</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>105.84615384615384</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="F7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -6456,14 +6459,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="1" bestFit="1" customWidth="1"/>
@@ -6477,7 +6480,7 @@
     <col min="10" max="10" width="11" style="6" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>185</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="25.5">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="38.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -6683,7 +6686,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="25.5">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -6717,10 +6720,10 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>284</v>
       </c>
@@ -6764,7 +6767,7 @@
       </c>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -6784,10 +6787,10 @@
       </c>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>40601</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>287</v>
       </c>
@@ -6831,7 +6834,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -6843,7 +6846,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>289</v>
       </c>
@@ -6855,10 +6858,10 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -6902,7 +6905,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -6914,49 +6917,49 @@
       </c>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10">
       <c r="B34" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10">
       <c r="B37" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="25.5">
       <c r="B38" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="1" t="s">
         <v>301</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="25.5">
       <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
@@ -6974,20 +6977,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="25.5">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -7087,11 +7090,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>40608</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25.5">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>319</v>
       </c>
@@ -7147,7 +7150,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="38.25">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="25.5">
       <c r="A15" t="s">
         <v>321</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25.5">
       <c r="A16" t="s">
         <v>323</v>
       </c>
@@ -7213,7 +7216,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>324</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="38.25">
       <c r="A18" t="s">
         <v>326</v>
       </c>
@@ -7236,10 +7239,10 @@
       </c>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="25.5">
       <c r="A21" t="s">
         <v>330</v>
       </c>
@@ -7282,7 +7285,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="38.25">
       <c r="A22" t="s">
         <v>331</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>333</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5">
       <c r="A24" t="s">
         <v>335</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="25.5">
       <c r="A25" t="s">
         <v>337</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -7358,7 +7361,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>384</v>
       </c>
@@ -7367,7 +7370,7 @@
       </c>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
         <v>386</v>
       </c>
@@ -7376,7 +7379,7 @@
       </c>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
         <v>388</v>
       </c>
@@ -7385,7 +7388,7 @@
       </c>
       <c r="J30" s="16"/>
     </row>
-    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
         <v>390</v>
       </c>
@@ -7394,7 +7397,7 @@
       </c>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
         <v>392</v>
       </c>
@@ -7434,7 +7437,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
         <v>393</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
         <v>395</v>
       </c>
@@ -7450,43 +7453,43 @@
         <v>396</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="25.5">
       <c r="B41" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="51">
       <c r="B42" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="B44" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="25.5">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -7504,19 +7507,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B41" sqref="B41:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>83</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="38.25">
       <c r="A5" t="s">
         <v>419</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="38.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -7616,7 +7619,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="38.25">
       <c r="A7" t="s">
         <v>424</v>
       </c>
@@ -7628,7 +7631,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25.5">
       <c r="A8" t="s">
         <v>425</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="51">
       <c r="A9" t="s">
         <v>426</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="38.25">
       <c r="A10" t="s">
         <v>428</v>
       </c>
@@ -7660,7 +7663,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25.5">
       <c r="A14" t="s">
         <v>437</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="38.25">
       <c r="A15" t="s">
         <v>438</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="38.25">
       <c r="A16" t="s">
         <v>439</v>
       </c>
@@ -7728,11 +7731,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>457</v>
       </c>
@@ -7775,7 +7778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="25.5">
       <c r="A20" t="s">
         <v>459</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="38.25">
       <c r="A21" t="s">
         <v>461</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="51">
       <c r="A22" t="s">
         <v>462</v>
       </c>
@@ -7808,7 +7811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
         <v>465</v>
       </c>
@@ -7819,10 +7822,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
         <v>467</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
         <v>468</v>
       </c>
@@ -7876,7 +7879,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
         <v>469</v>
       </c>
@@ -7887,7 +7890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="51">
       <c r="A29" t="s">
         <v>470</v>
       </c>
@@ -7898,7 +7901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51">
       <c r="A30" t="s">
         <v>473</v>
       </c>
@@ -7909,10 +7912,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="D31" s="18"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>477</v>
       </c>
@@ -7952,7 +7955,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="38.25">
       <c r="A34" t="s">
         <v>479</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>40630</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>481</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>483</v>
       </c>
@@ -8008,7 +8011,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>484</v>
       </c>
@@ -8016,40 +8019,40 @@
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="B41" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="25.5">
       <c r="B45" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="51">
       <c r="B46" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="25.5">
       <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
@@ -8066,19 +8069,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -8110,7 +8113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>525</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>526</v>
       </c>
@@ -8158,7 +8161,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>528</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -8198,7 +8201,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25.5">
       <c r="A8" s="18" t="s">
         <v>496</v>
       </c>
@@ -8209,7 +8212,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="25.5">
       <c r="A9" s="18" t="s">
         <v>497</v>
       </c>
@@ -8220,17 +8223,20 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="18"/>
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
       </c>
+      <c r="C11" s="18" t="s">
+        <v>589</v>
+      </c>
       <c r="D11" t="s">
         <v>70</v>
       </c>
@@ -8253,7 +8259,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25.5">
       <c r="A12" s="18" t="s">
         <v>553</v>
       </c>
@@ -8266,7 +8272,7 @@
       <c r="E12" s="18"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="18" t="s">
         <v>555</v>
       </c>
@@ -8279,7 +8285,7 @@
       <c r="E13" s="18"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="63.75">
       <c r="A14" s="18" t="s">
         <v>557</v>
       </c>
@@ -8292,17 +8298,20 @@
       <c r="E14" s="18"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="E15" s="18"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>92</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>261</v>
       </c>
+      <c r="C16" s="18" t="s">
+        <v>590</v>
+      </c>
       <c r="D16" t="s">
         <v>70</v>
       </c>
@@ -8325,7 +8334,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="25.5">
       <c r="A17" s="18" t="s">
         <v>559</v>
       </c>
@@ -8338,7 +8347,7 @@
       <c r="E17" s="18"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="63.75">
       <c r="A18" s="18" t="s">
         <v>560</v>
       </c>
@@ -8351,7 +8360,7 @@
       <c r="E18" s="18"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="18" t="s">
         <v>562</v>
       </c>
@@ -8364,7 +8373,7 @@
       <c r="E19" s="18"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="51">
       <c r="A20" s="18" t="s">
         <v>563</v>
       </c>
@@ -8377,10 +8386,10 @@
       <c r="E20" s="18"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -8412,7 +8421,7 @@
         <v>40644</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>530</v>
       </c>
@@ -8420,7 +8429,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>531</v>
       </c>
@@ -8428,7 +8437,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>532</v>
       </c>
@@ -8436,10 +8445,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="B26" s="18"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -8471,7 +8480,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="18" t="s">
         <v>514</v>
       </c>
@@ -8482,7 +8491,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51">
       <c r="A30" s="18" t="s">
         <v>515</v>
       </c>
@@ -8493,7 +8502,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="63.75">
       <c r="A31" s="18" t="s">
         <v>519</v>
       </c>
@@ -8504,7 +8513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="51">
       <c r="A32" s="18" t="s">
         <v>520</v>
       </c>
@@ -8515,7 +8524,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="51">
       <c r="A33" s="18" t="s">
         <v>522</v>
       </c>
@@ -8524,6 +8533,44 @@
       </c>
       <c r="D33" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.5">
+      <c r="B38" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.5">
+      <c r="B39" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="51">
+      <c r="B40" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="B41" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5">
+      <c r="B42" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1167,9 +1167,6 @@
     <t>The children should have the same last name as their father</t>
   </si>
   <si>
-    <t>There should be no more than 4 children that are born on the same day</t>
-  </si>
-  <si>
     <t>All the individuals should be born after the year of 1900. We do not record ancient people</t>
   </si>
   <si>
@@ -1727,173 +1724,176 @@
     <t xml:space="preserve">  If threr is no divorce date continue to the next family</t>
   </si>
   <si>
-    <t>Individual I10 cannot give birth, her birth date is 1 NOV 1935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I10(Jen /Brown/) is not in pregnancy age limit. Her present age is 95
+    <t>Individaul I9 is in pregnency age, Her birth date is 1991</t>
+  </si>
+  <si>
+    <t>Family F3 divorce Date is(31 DEC 1972) and child's birth Date is (27 JAN 1974).</t>
+  </si>
+  <si>
+    <t>In family F3, Divorce date is 31 DEC 1972, Child birth date is  27 JAN 1974, born after Divorce</t>
+  </si>
+  <si>
+    <t>In Family F5, Divorce date is 5 JAN 2014, Child birth date is 6 JUN 2011, Born before divorce</t>
+  </si>
+  <si>
+    <t>AT73~74</t>
+  </si>
+  <si>
+    <t>AT75~76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one name tag: Jacky /Mao/, Jackie /Mao/. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one sex tag: F, M. </t>
+  </si>
+  <si>
+    <t>Individual I1 has more than one birthday tag: 27 JAN 1960, 27 JAN 1970.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual I1 has more than one death date tag: 1 JAN 2014, 1 FEB 2014. </t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a name tag.</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a sex tag.</t>
+  </si>
+  <si>
+    <t>Individual I2 does not have a birthday tag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F4 does not have a marriage date tag. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F5 has more than one marriage date tag: 2 JAN 2000, 1 JAN 2000. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family F5 has more than one divorce date tag: 5 JAN 2014, 5 JAN 2014. </t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>get access to each individual record</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>read every individual's famc and fams record</t>
+  </si>
+  <si>
+    <t>T21.03</t>
+  </si>
+  <si>
+    <t>if an individual doesn't have a famc nor a fams record, then he/she doesn't belong to any family</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>if an individual's name, sex or birthday record is null, then he/she doesn't complete his/her information</t>
+  </si>
+  <si>
+    <t>T22.03</t>
+  </si>
+  <si>
+    <t>T22.04</t>
+  </si>
+  <si>
+    <t>if a family doesn't have a marriage record, then this family doesn't complete its information</t>
+  </si>
+  <si>
+    <t>AT77</t>
+  </si>
+  <si>
+    <t>AT78</t>
+  </si>
+  <si>
+    <t>AT79</t>
+  </si>
+  <si>
+    <t>AT80</t>
+  </si>
+  <si>
+    <t>AT81</t>
+  </si>
+  <si>
+    <t>AT82</t>
+  </si>
+  <si>
+    <t>AT83</t>
+  </si>
+  <si>
+    <t>AT84</t>
+  </si>
+  <si>
+    <t>AT85</t>
+  </si>
+  <si>
+    <t>Individual I11(James /Brown/) doesn't have a fams nor a famc record</t>
+  </si>
+  <si>
+    <t>Individual I11 (James /Brown/) doesn't belong to any family.</t>
+  </si>
+  <si>
+    <t>Individual I12(Grace /Li/) is a wife in family F1, she has a fams record</t>
+  </si>
+  <si>
+    <t>Individual I2 doesn't complete information(missing name).</t>
+  </si>
+  <si>
+    <t>Individual I2 doesn't have a name tag nor a name</t>
+  </si>
+  <si>
+    <t>Individual I6 has a name tag but doesn't have a name record</t>
+  </si>
+  <si>
+    <t>Individual I6 doesn't complete information(missing name).</t>
+  </si>
+  <si>
+    <t>Individual I7 (Chris /Taylor/)  doesn't complete information(missing gender).</t>
+  </si>
+  <si>
+    <t>Individual I7 has a sex tag but doesn't have a gender record</t>
+  </si>
+  <si>
+    <t>Individual I8 has a birt tag but doesn't have a birthday record</t>
+  </si>
+  <si>
+    <t>Individual I8 (Kevin /Brown/)  doesn't complete information(missing birth date).</t>
+  </si>
+  <si>
+    <t>Individual I9 complete the information of name, sex and birthday</t>
+  </si>
+  <si>
+    <t>Family F4 doesn't complete information(missing marriage date).</t>
+  </si>
+  <si>
+    <t>family F4 has a marr tag but doesn't have a marriage date record</t>
+  </si>
+  <si>
+    <t>family F1 complete the information of marriage date</t>
+  </si>
+  <si>
+    <t>AT77~78</t>
+  </si>
+  <si>
+    <t>AT79~85</t>
+  </si>
+  <si>
+    <t>There should be no more than 4 children that are born on the same day in one family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Family F4, wife I9(Elena /Wilson/) gave birth to child I3(Katie /Brown/) when she was 9(not between 18 and 50)
 </t>
   </si>
   <si>
-    <t>Individaul I9 is in pregnency age, Her birth date is 1991</t>
-  </si>
-  <si>
-    <t>Family F3 divorce Date is(31 DEC 1972) and child's birth Date is (27 JAN 1974).</t>
-  </si>
-  <si>
-    <t>In family F3, Divorce date is 31 DEC 1972, Child birth date is  27 JAN 1974, born after Divorce</t>
-  </si>
-  <si>
-    <t>In Family F5, Divorce date is 5 JAN 2014, Child birth date is 6 JUN 2011, Born before divorce</t>
-  </si>
-  <si>
-    <t>AT73~74</t>
-  </si>
-  <si>
-    <t>AT75~76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual I1 has more than one name tag: Jacky /Mao/, Jackie /Mao/. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual I1 has more than one sex tag: F, M. </t>
-  </si>
-  <si>
-    <t>Individual I1 has more than one birthday tag: 27 JAN 1960, 27 JAN 1970.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual I1 has more than one death date tag: 1 JAN 2014, 1 FEB 2014. </t>
-  </si>
-  <si>
-    <t>Individual I2 does not have a name tag.</t>
-  </si>
-  <si>
-    <t>Individual I2 does not have a sex tag.</t>
-  </si>
-  <si>
-    <t>Individual I2 does not have a birthday tag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family F4 does not have a marriage date tag. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family F5 has more than one marriage date tag: 2 JAN 2000, 1 JAN 2000. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family F5 has more than one divorce date tag: 5 JAN 2014, 5 JAN 2014. </t>
-  </si>
-  <si>
-    <t>T21.01</t>
-  </si>
-  <si>
-    <t>get access to each individual record</t>
-  </si>
-  <si>
-    <t>T21.02</t>
-  </si>
-  <si>
-    <t>read every individual's famc and fams record</t>
-  </si>
-  <si>
-    <t>T21.03</t>
-  </si>
-  <si>
-    <t>if an individual doesn't have a famc nor a fams record, then he/she doesn't belong to any family</t>
-  </si>
-  <si>
-    <t>T22.01</t>
-  </si>
-  <si>
-    <t>T22.02</t>
-  </si>
-  <si>
-    <t>if an individual's name, sex or birthday record is null, then he/she doesn't complete his/her information</t>
-  </si>
-  <si>
-    <t>T22.03</t>
-  </si>
-  <si>
-    <t>T22.04</t>
-  </si>
-  <si>
-    <t>if a family doesn't have a marriage record, then this family doesn't complete its information</t>
-  </si>
-  <si>
-    <t>AT77</t>
-  </si>
-  <si>
-    <t>AT78</t>
-  </si>
-  <si>
-    <t>AT79</t>
-  </si>
-  <si>
-    <t>AT80</t>
-  </si>
-  <si>
-    <t>AT81</t>
-  </si>
-  <si>
-    <t>AT82</t>
-  </si>
-  <si>
-    <t>AT83</t>
-  </si>
-  <si>
-    <t>AT84</t>
-  </si>
-  <si>
-    <t>AT85</t>
-  </si>
-  <si>
-    <t>Individual I11(James /Brown/) doesn't have a fams nor a famc record</t>
-  </si>
-  <si>
-    <t>Individual I11 (James /Brown/) doesn't belong to any family.</t>
-  </si>
-  <si>
-    <t>Individual I12(Grace /Li/) is a wife in family F1, she has a fams record</t>
-  </si>
-  <si>
-    <t>Individual I2 doesn't complete information(missing name).</t>
-  </si>
-  <si>
-    <t>Individual I2 doesn't have a name tag nor a name</t>
-  </si>
-  <si>
-    <t>Individual I6 has a name tag but doesn't have a name record</t>
-  </si>
-  <si>
-    <t>Individual I6 doesn't complete information(missing name).</t>
-  </si>
-  <si>
-    <t>Individual I7 (Chris /Taylor/)  doesn't complete information(missing gender).</t>
-  </si>
-  <si>
-    <t>Individual I7 has a sex tag but doesn't have a gender record</t>
-  </si>
-  <si>
-    <t>Individual I8 has a birt tag but doesn't have a birthday record</t>
-  </si>
-  <si>
-    <t>Individual I8 (Kevin /Brown/)  doesn't complete information(missing birth date).</t>
-  </si>
-  <si>
-    <t>Individual I9 complete the information of name, sex and birthday</t>
-  </si>
-  <si>
-    <t>Family F4 doesn't complete information(missing marriage date).</t>
-  </si>
-  <si>
-    <t>family F4 has a marr tag but doesn't have a marriage date record</t>
-  </si>
-  <si>
-    <t>family F1 complete the information of marriage date</t>
-  </si>
-  <si>
-    <t>AT77~78</t>
-  </si>
-  <si>
-    <t>AT79~85</t>
+    <t>In Family F4, wife I9(Elena /Wilson/) was born on 1 NOV 1941 while child I3(Katie /Brown/) was born on 14 FEB 1950</t>
   </si>
 </sst>
 </file>
@@ -2199,27 +2199,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="348155904"/>
-        <c:axId val="348157440"/>
+        <c:axId val="226254848"/>
+        <c:axId val="226256384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="348155904"/>
+        <c:axId val="226254848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348157440"/>
+        <c:crossAx val="226256384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="348157440"/>
+        <c:axId val="226256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2226,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348155904"/>
+        <c:crossAx val="226254848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2237,7 +2236,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000289" r="0.75000000000000289" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000003" r="0.750000000000003" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2810,7 +2809,7 @@
         <v>342</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>254</v>
@@ -2827,7 +2826,7 @@
         <v>343</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>70</v>
@@ -2844,7 +2843,7 @@
         <v>344</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>70</v>
@@ -3244,7 +3243,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
         <v>187</v>
@@ -3282,7 +3281,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
         <v>187</v>
@@ -3320,7 +3319,7 @@
         <v>99</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
         <v>254</v>
@@ -3358,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E13" t="s">
         <v>254</v>
@@ -3396,7 +3395,7 @@
         <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>128</v>
@@ -3434,7 +3433,7 @@
         <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>128</v>
@@ -3472,7 +3471,7 @@
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>187</v>
@@ -3510,7 +3509,7 @@
         <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>187</v>
@@ -3548,7 +3547,7 @@
         <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>254</v>
@@ -3586,7 +3585,7 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>254</v>
@@ -3621,7 +3620,7 @@
         <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E20" t="s">
         <v>254</v>
@@ -3656,7 +3655,7 @@
         <v>126</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
         <v>128</v>
@@ -3691,7 +3690,7 @@
         <v>127</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E22" t="s">
         <v>70</v>
@@ -3726,7 +3725,7 @@
         <v>261</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
@@ -3761,7 +3760,7 @@
         <v>293</v>
       </c>
       <c r="D24" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E24" t="s">
         <v>254</v>
@@ -3796,7 +3795,7 @@
         <v>297</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E25" t="s">
         <v>128</v>
@@ -3861,7 +3860,7 @@
         <v>342</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L29" s="7">
         <v>40610</v>
@@ -3872,7 +3871,7 @@
         <v>343</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L30" s="7">
         <v>40610</v>
@@ -3883,7 +3882,7 @@
         <v>344</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L31" s="7">
         <v>40610</v>
@@ -3906,7 +3905,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4109,7 +4108,7 @@
         <v>109</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -4129,7 +4128,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11">
         <v>30</v>
@@ -4149,7 +4148,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -4169,7 +4168,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -4189,7 +4188,7 @@
         <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E14">
         <v>70</v>
@@ -4206,10 +4205,10 @@
         <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -4229,7 +4228,7 @@
         <v>294</v>
       </c>
       <c r="D16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -4243,13 +4242,13 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -4269,7 +4268,7 @@
         <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -4289,7 +4288,7 @@
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -4309,7 +4308,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4329,7 +4328,7 @@
         <v>124</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21">
         <v>75</v>
@@ -4349,7 +4348,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -4369,7 +4368,7 @@
         <v>262</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E23">
         <v>70</v>
@@ -4389,7 +4388,7 @@
         <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E24">
         <v>75</v>
@@ -4406,10 +4405,10 @@
         <v>297</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -4443,7 +4442,7 @@
         <v>341</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E27">
         <v>15</v>
@@ -4452,15 +4451,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
         <v>340</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>349</v>
+      <c r="C28" s="20" t="s">
+        <v>588</v>
       </c>
       <c r="E28">
         <v>35</v>
@@ -4474,10 +4473,10 @@
         <v>342</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -4491,10 +4490,10 @@
         <v>343</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E30">
         <v>35</v>
@@ -4508,10 +4507,10 @@
         <v>344</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -4535,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5160,10 +5159,10 @@
         <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
@@ -5240,7 +5239,7 @@
         <v>108</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>51</v>
@@ -5260,10 +5259,10 @@
         <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -5280,10 +5279,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -5300,10 +5299,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F38" t="s">
         <v>53</v>
@@ -5320,7 +5319,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>51</v>
@@ -5340,13 +5339,13 @@
         <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="F40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="25.5">
@@ -5360,10 +5359,10 @@
         <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="F41" t="s">
         <v>53</v>
@@ -5380,7 +5379,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>51</v>
@@ -5400,10 +5399,10 @@
         <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F43" t="s">
         <v>53</v>
@@ -5420,7 +5419,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>51</v>
@@ -5440,10 +5439,10 @@
         <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F45" t="s">
         <v>53</v>
@@ -5460,10 +5459,10 @@
         <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F46" t="s">
         <v>53</v>
@@ -5480,7 +5479,7 @@
         <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>51</v>
@@ -5500,10 +5499,10 @@
         <v>295</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F48" t="s">
         <v>53</v>
@@ -5520,7 +5519,7 @@
         <v>295</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>51</v>
@@ -5540,10 +5539,10 @@
         <v>110</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -5554,13 +5553,13 @@
         <v>223</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
         <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>51</v>
@@ -5577,13 +5576,13 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -5597,13 +5596,13 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F53" t="s">
         <v>53</v>
@@ -5617,13 +5616,13 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F54" t="s">
         <v>53</v>
@@ -5637,13 +5636,13 @@
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F55" t="s">
         <v>53</v>
@@ -5660,10 +5659,10 @@
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -5680,7 +5679,7 @@
         <v>117</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>51</v>
@@ -5700,10 +5699,10 @@
         <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -5720,7 +5719,7 @@
         <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>51</v>
@@ -5740,10 +5739,10 @@
         <v>126</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F60" t="s">
         <v>53</v>
@@ -5760,7 +5759,7 @@
         <v>126</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>51</v>
@@ -5780,10 +5779,10 @@
         <v>297</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -5791,7 +5790,7 @@
     </row>
     <row r="63" spans="1:6" ht="25.5">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>94</v>
@@ -5800,10 +5799,10 @@
         <v>297</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
@@ -5811,7 +5810,7 @@
     </row>
     <row r="64" spans="1:6" ht="25.5">
       <c r="A64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>94</v>
@@ -5820,10 +5819,10 @@
         <v>297</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
@@ -5831,7 +5830,7 @@
     </row>
     <row r="65" spans="1:6" ht="25.5">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>94</v>
@@ -5840,10 +5839,10 @@
         <v>297</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F65" t="s">
         <v>53</v>
@@ -5851,7 +5850,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>94</v>
@@ -5860,10 +5859,10 @@
         <v>297</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -5871,7 +5870,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>94</v>
@@ -5880,10 +5879,10 @@
         <v>297</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
@@ -5891,7 +5890,7 @@
     </row>
     <row r="68" spans="1:6" ht="25.5">
       <c r="A68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>94</v>
@@ -5900,10 +5899,10 @@
         <v>297</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F68" t="s">
         <v>53</v>
@@ -5911,7 +5910,7 @@
     </row>
     <row r="69" spans="1:6" ht="25.5">
       <c r="A69" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>94</v>
@@ -5920,7 +5919,7 @@
         <v>297</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>51</v>
@@ -5931,7 +5930,7 @@
     </row>
     <row r="70" spans="1:6" ht="25.5">
       <c r="A70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>94</v>
@@ -5940,10 +5939,10 @@
         <v>297</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
@@ -5951,7 +5950,7 @@
     </row>
     <row r="71" spans="1:6" ht="25.5">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>94</v>
@@ -5960,10 +5959,10 @@
         <v>297</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
@@ -5971,7 +5970,7 @@
     </row>
     <row r="72" spans="1:6" ht="25.5">
       <c r="A72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>94</v>
@@ -5980,10 +5979,10 @@
         <v>297</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -5991,7 +5990,7 @@
     </row>
     <row r="73" spans="1:6" ht="25.5">
       <c r="A73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>94</v>
@@ -6000,7 +5999,7 @@
         <v>297</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>51</v>
@@ -6009,9 +6008,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="38.25">
+    <row r="74" spans="1:6" ht="51">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>89</v>
@@ -6019,11 +6018,11 @@
       <c r="C74" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>536</v>
+      <c r="D74" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>589</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>53</v>
@@ -6031,7 +6030,7 @@
     </row>
     <row r="75" spans="1:6" ht="25.5">
       <c r="A75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>89</v>
@@ -6040,7 +6039,7 @@
         <v>122</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>51</v>
@@ -6051,7 +6050,7 @@
     </row>
     <row r="76" spans="1:6" ht="25.5">
       <c r="A76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B76" t="s">
         <v>93</v>
@@ -6060,10 +6059,10 @@
         <v>293</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>53</v>
@@ -6071,7 +6070,7 @@
     </row>
     <row r="77" spans="1:6" ht="25.5">
       <c r="A77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
@@ -6080,7 +6079,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>51</v>
@@ -6091,7 +6090,7 @@
     </row>
     <row r="78" spans="1:6" ht="25.5">
       <c r="A78" s="18" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>91</v>
@@ -6100,10 +6099,10 @@
         <v>127</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>53</v>
@@ -6111,7 +6110,7 @@
     </row>
     <row r="79" spans="1:6" ht="25.5">
       <c r="A79" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>91</v>
@@ -6120,7 +6119,7 @@
         <v>127</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>51</v>
@@ -6131,7 +6130,7 @@
     </row>
     <row r="80" spans="1:6" ht="25.5">
       <c r="A80" s="18" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
@@ -6140,10 +6139,10 @@
         <v>261</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>53</v>
@@ -6151,7 +6150,7 @@
     </row>
     <row r="81" spans="1:6" ht="25.5">
       <c r="A81" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>92</v>
@@ -6160,10 +6159,10 @@
         <v>261</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>53</v>
@@ -6171,7 +6170,7 @@
     </row>
     <row r="82" spans="1:6" ht="25.5">
       <c r="A82" s="18" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>92</v>
@@ -6180,10 +6179,10 @@
         <v>261</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>53</v>
@@ -6191,7 +6190,7 @@
     </row>
     <row r="83" spans="1:6" ht="25.5">
       <c r="A83" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>92</v>
@@ -6200,10 +6199,10 @@
         <v>261</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>53</v>
@@ -6211,7 +6210,7 @@
     </row>
     <row r="84" spans="1:6" ht="25.5">
       <c r="A84" s="18" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>92</v>
@@ -6220,7 +6219,7 @@
         <v>261</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>51</v>
@@ -6231,7 +6230,7 @@
     </row>
     <row r="85" spans="1:6" ht="25.5">
       <c r="A85" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>92</v>
@@ -6240,10 +6239,10 @@
         <v>261</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>53</v>
@@ -6251,7 +6250,7 @@
     </row>
     <row r="86" spans="1:6" ht="25.5">
       <c r="A86" s="18" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>92</v>
@@ -6260,7 +6259,7 @@
         <v>261</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>51</v>
@@ -7170,7 +7169,7 @@
         <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D14" t="s">
         <v>187</v>
@@ -7250,7 +7249,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D20" t="s">
         <v>187</v>
@@ -7337,7 +7336,7 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D27" t="s">
         <v>254</v>
@@ -7363,37 +7362,37 @@
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="38.25">
       <c r="A29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="25.5">
       <c r="A30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" ht="25.5">
       <c r="A31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="J31" s="16"/>
     </row>
@@ -7405,7 +7404,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D32" t="s">
         <v>254</v>
@@ -7431,26 +7430,26 @@
     </row>
     <row r="33" spans="1:2" ht="25.5">
       <c r="A33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="51">
       <c r="A34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5">
       <c r="A35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7559,7 +7558,7 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>128</v>
@@ -7585,10 +7584,10 @@
     </row>
     <row r="4" spans="1:10" ht="25.5">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -7597,10 +7596,10 @@
     </row>
     <row r="5" spans="1:10" ht="38.25">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -7609,10 +7608,10 @@
     </row>
     <row r="6" spans="1:10" ht="38.25">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -7621,10 +7620,10 @@
     </row>
     <row r="7" spans="1:10" ht="38.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
@@ -7633,18 +7632,18 @@
     </row>
     <row r="8" spans="1:10" ht="25.5">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" t="s">
@@ -7653,10 +7652,10 @@
     </row>
     <row r="10" spans="1:10" ht="38.25">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" t="s">
@@ -7671,7 +7670,7 @@
         <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>128</v>
@@ -7697,10 +7696,10 @@
     </row>
     <row r="14" spans="1:10" ht="25.5">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
@@ -7709,10 +7708,10 @@
     </row>
     <row r="15" spans="1:10" ht="38.25">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
@@ -7721,10 +7720,10 @@
     </row>
     <row r="16" spans="1:10" ht="38.25">
       <c r="A16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" t="s">
@@ -7743,7 +7742,7 @@
         <v>110</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>70</v>
@@ -7769,10 +7768,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>70</v>
@@ -7780,10 +7779,10 @@
     </row>
     <row r="20" spans="1:10" ht="25.5">
       <c r="A20" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>70</v>
@@ -7791,10 +7790,10 @@
     </row>
     <row r="21" spans="1:10" ht="38.25">
       <c r="A21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>70</v>
@@ -7802,10 +7801,10 @@
     </row>
     <row r="22" spans="1:10" ht="51">
       <c r="A22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>70</v>
@@ -7813,10 +7812,10 @@
     </row>
     <row r="23" spans="1:10" ht="25.5">
       <c r="A23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>70</v>
@@ -7833,7 +7832,7 @@
         <v>111</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>70</v>
@@ -7859,7 +7858,7 @@
     </row>
     <row r="26" spans="1:10" ht="25.5">
       <c r="A26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>322</v>
@@ -7870,10 +7869,10 @@
     </row>
     <row r="27" spans="1:10" ht="25.5">
       <c r="A27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>70</v>
@@ -7881,10 +7880,10 @@
     </row>
     <row r="28" spans="1:10" ht="25.5">
       <c r="A28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>70</v>
@@ -7892,10 +7891,10 @@
     </row>
     <row r="29" spans="1:10" ht="51">
       <c r="A29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>70</v>
@@ -7903,10 +7902,10 @@
     </row>
     <row r="30" spans="1:10" ht="51">
       <c r="A30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>70</v>
@@ -7923,7 +7922,7 @@
         <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>254</v>
@@ -7949,18 +7948,18 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="38.25">
       <c r="A34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7971,7 +7970,7 @@
         <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>254</v>
@@ -7997,7 +7996,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B37" t="s">
         <v>322</v>
@@ -8005,18 +8004,18 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -8072,7 +8071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:J16"/>
     </sheetView>
   </sheetViews>
@@ -8121,7 +8120,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D2" t="s">
         <v>254</v>
@@ -8147,26 +8146,26 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" t="s">
         <v>526</v>
-      </c>
-      <c r="B4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="s">
         <v>528</v>
-      </c>
-      <c r="B5" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8177,7 +8176,7 @@
         <v>126</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" t="s">
         <v>128</v>
@@ -8203,10 +8202,10 @@
     </row>
     <row r="8" spans="1:10" ht="25.5">
       <c r="A8" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
@@ -8214,10 +8213,10 @@
     </row>
     <row r="9" spans="1:10" ht="25.5">
       <c r="A9" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
         <v>128</v>
@@ -8235,7 +8234,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -8261,10 +8260,10 @@
     </row>
     <row r="12" spans="1:10" ht="25.5">
       <c r="A12" s="18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -8274,10 +8273,10 @@
     </row>
     <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -8287,10 +8286,10 @@
     </row>
     <row r="14" spans="1:10" ht="63.75">
       <c r="A14" s="18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -8310,7 +8309,7 @@
         <v>261</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -8336,10 +8335,10 @@
     </row>
     <row r="17" spans="1:10" ht="25.5">
       <c r="A17" s="18" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -8349,10 +8348,10 @@
     </row>
     <row r="18" spans="1:10" ht="63.75">
       <c r="A18" s="18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -8362,7 +8361,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>322</v>
@@ -8375,10 +8374,10 @@
     </row>
     <row r="20" spans="1:10" ht="51">
       <c r="A20" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -8397,7 +8396,7 @@
         <v>293</v>
       </c>
       <c r="C22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D22" t="s">
         <v>254</v>
@@ -8423,26 +8422,26 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>531</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>532</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8456,7 +8455,7 @@
         <v>297</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D27" t="s">
         <v>128</v>
@@ -8482,10 +8481,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
@@ -8493,10 +8492,10 @@
     </row>
     <row r="30" spans="1:10" ht="51">
       <c r="A30" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D30" t="s">
         <v>128</v>
@@ -8504,10 +8503,10 @@
     </row>
     <row r="31" spans="1:10" ht="63.75">
       <c r="A31" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D31" t="s">
         <v>128</v>
@@ -8515,10 +8514,10 @@
     </row>
     <row r="32" spans="1:10" ht="51">
       <c r="A32" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D32" t="s">
         <v>128</v>
@@ -8526,10 +8525,10 @@
     </row>
     <row r="33" spans="1:4" ht="51">
       <c r="A33" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>522</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>523</v>
       </c>
       <c r="D33" t="s">
         <v>128</v>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="615">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1700,13 +1700,7 @@
     <t>T19.02</t>
   </si>
   <si>
-    <t>get the wife age</t>
-  </si>
-  <si>
     <t>T19.03</t>
-  </si>
-  <si>
-    <t>Chech the age between 18to 50</t>
   </si>
   <si>
     <t>T23.01</t>
@@ -1894,6 +1888,84 @@
   </si>
   <si>
     <t>In Family F4, wife I9(Elena /Wilson/) was born on 1 NOV 1941 while child I3(Katie /Brown/) was born on 14 FEB 1950</t>
+  </si>
+  <si>
+    <t>get the wife age and children age</t>
+  </si>
+  <si>
+    <t>Compare the ages between 18to 50</t>
+  </si>
+  <si>
+    <t>AT86</t>
+  </si>
+  <si>
+    <t>AT87</t>
+  </si>
+  <si>
+    <t>AT88</t>
+  </si>
+  <si>
+    <t>AT89</t>
+  </si>
+  <si>
+    <t>In Family F2, husband I2(Jianguo /Mao/) and child I1(Jacky /Gao/) don't have the same last name.</t>
+  </si>
+  <si>
+    <t>In Family F2, husband I2's last name is Mao, while child I1's last name is Gao</t>
+  </si>
+  <si>
+    <t>In Family F2, husband I2's last name is Mao, and child I5's last name is Mao</t>
+  </si>
+  <si>
+    <t>AT86~87</t>
+  </si>
+  <si>
+    <t>T25.01</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>For each family, get the last name of the husband.</t>
+  </si>
+  <si>
+    <t>T25.03</t>
+  </si>
+  <si>
+    <t>Check if the last names of husband and children are the same</t>
+  </si>
+  <si>
+    <t>Get the last names of the children</t>
+  </si>
+  <si>
+    <t>In Family F2, there are more than 4 children born on the same day: I5(Emily /Mao/), I14(Emilya /Mao/), I15(Emilyb /Mao/), I16(Emilyc /Mao/), and I17(Emilyd /Mao/).</t>
+  </si>
+  <si>
+    <t>In Family F2, child I5, I14, I15, I16 and I17 were all born on 11 SEP 1971</t>
+  </si>
+  <si>
+    <t>In Family F2, only child I1 was born on 27 JAN 1970</t>
+  </si>
+  <si>
+    <t>AT88~89</t>
+  </si>
+  <si>
+    <t>T27.01</t>
+  </si>
+  <si>
+    <t>T27.02</t>
+  </si>
+  <si>
+    <t>T27.03</t>
+  </si>
+  <si>
+    <t>For each family, get the birthdays of all the children</t>
+  </si>
+  <si>
+    <t>Count the numbers of children that were born on the same day</t>
+  </si>
+  <si>
+    <t>Check if there are more than 4 children born on the same day in one family</t>
   </si>
 </sst>
 </file>
@@ -2200,25 +2272,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="226254848"/>
-        <c:axId val="226256384"/>
+        <c:axId val="227630464"/>
+        <c:axId val="231203968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="226254848"/>
+        <c:axId val="227630464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226256384"/>
+        <c:crossAx val="231203968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="226256384"/>
+        <c:axId val="231203968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2298,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226254848"/>
+        <c:crossAx val="227630464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,7 +2308,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.750000000000003" r="0.750000000000003" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000311" r="0.75000000000000311" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2710,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2760,98 +2832,194 @@
       <c r="B2" s="18" t="s">
         <v>339</v>
       </c>
+      <c r="C2" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="D2" s="18" t="s">
         <v>128</v>
       </c>
+      <c r="E2" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2" s="16">
+        <v>40652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5">
+      <c r="A4" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5">
+      <c r="A5" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.25">
+      <c r="A6" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B8" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F3">
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G8">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B10" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="C10" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F4">
+      <c r="E10" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10">
         <v>35</v>
       </c>
-      <c r="G4">
+      <c r="G10">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="H10">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10" s="16">
+        <v>40652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5">
+      <c r="A12" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="38.25">
+      <c r="A13" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="38.25">
+      <c r="A14" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F5">
+      <c r="F16">
         <v>20</v>
       </c>
-      <c r="G5">
+      <c r="G16">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="F17">
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="G17">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>344</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F7">
+      <c r="F18">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G18">
         <v>35</v>
       </c>
     </row>
@@ -2870,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:K23"/>
+    <sheetView topLeftCell="B7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3620,7 +3788,7 @@
         <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E20" t="s">
         <v>254</v>
@@ -3690,7 +3858,7 @@
         <v>127</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E22" t="s">
         <v>70</v>
@@ -3725,7 +3893,7 @@
         <v>261</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E23" t="s">
         <v>70</v>
@@ -3760,7 +3928,7 @@
         <v>293</v>
       </c>
       <c r="D24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E24" t="s">
         <v>254</v>
@@ -3829,6 +3997,30 @@
       <c r="C26" s="18" t="s">
         <v>339</v>
       </c>
+      <c r="D26" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26" s="16">
+        <v>40652</v>
+      </c>
       <c r="L26" s="7">
         <v>40610</v>
       </c>
@@ -3850,6 +4042,30 @@
       </c>
       <c r="C28" s="18" t="s">
         <v>347</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>43</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+      <c r="K28" s="16">
+        <v>40652</v>
       </c>
       <c r="L28" s="7">
         <v>40610</v>
@@ -3904,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4308,7 +4524,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4348,7 +4564,7 @@
         <v>125</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -4368,7 +4584,7 @@
         <v>262</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E23">
         <v>70</v>
@@ -4388,7 +4604,7 @@
         <v>296</v>
       </c>
       <c r="D24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E24">
         <v>75</v>
@@ -4427,6 +4643,9 @@
       <c r="C26" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="D26" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="E26">
         <v>30</v>
       </c>
@@ -4459,7 +4678,10 @@
         <v>347</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>588</v>
+        <v>586</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>608</v>
       </c>
       <c r="E28">
         <v>35</v>
@@ -4534,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A80" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -5782,7 +6004,7 @@
         <v>500</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -5802,7 +6024,7 @@
         <v>501</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
@@ -5822,7 +6044,7 @@
         <v>502</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
@@ -5842,7 +6064,7 @@
         <v>503</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F65" t="s">
         <v>53</v>
@@ -5862,7 +6084,7 @@
         <v>504</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -5882,7 +6104,7 @@
         <v>505</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
@@ -5902,7 +6124,7 @@
         <v>506</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F68" t="s">
         <v>53</v>
@@ -5942,7 +6164,7 @@
         <v>508</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
@@ -5962,7 +6184,7 @@
         <v>509</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
@@ -5982,7 +6204,7 @@
         <v>510</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -6019,10 +6241,10 @@
         <v>122</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>53</v>
@@ -6039,7 +6261,7 @@
         <v>122</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>51</v>
@@ -6059,10 +6281,10 @@
         <v>293</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>53</v>
@@ -6079,7 +6301,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>51</v>
@@ -6090,7 +6312,7 @@
     </row>
     <row r="78" spans="1:6" ht="25.5">
       <c r="A78" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>91</v>
@@ -6099,10 +6321,10 @@
         <v>127</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>53</v>
@@ -6110,7 +6332,7 @@
     </row>
     <row r="79" spans="1:6" ht="25.5">
       <c r="A79" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>91</v>
@@ -6119,7 +6341,7 @@
         <v>127</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>51</v>
@@ -6130,7 +6352,7 @@
     </row>
     <row r="80" spans="1:6" ht="25.5">
       <c r="A80" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B80" t="s">
         <v>92</v>
@@ -6139,10 +6361,10 @@
         <v>261</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>53</v>
@@ -6150,7 +6372,7 @@
     </row>
     <row r="81" spans="1:6" ht="25.5">
       <c r="A81" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>92</v>
@@ -6159,10 +6381,10 @@
         <v>261</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>53</v>
@@ -6170,7 +6392,7 @@
     </row>
     <row r="82" spans="1:6" ht="25.5">
       <c r="A82" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>92</v>
@@ -6179,10 +6401,10 @@
         <v>261</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>53</v>
@@ -6190,7 +6412,7 @@
     </row>
     <row r="83" spans="1:6" ht="25.5">
       <c r="A83" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>92</v>
@@ -6199,10 +6421,10 @@
         <v>261</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>53</v>
@@ -6210,7 +6432,7 @@
     </row>
     <row r="84" spans="1:6" ht="25.5">
       <c r="A84" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>92</v>
@@ -6219,7 +6441,7 @@
         <v>261</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>51</v>
@@ -6230,7 +6452,7 @@
     </row>
     <row r="85" spans="1:6" ht="25.5">
       <c r="A85" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>92</v>
@@ -6239,10 +6461,10 @@
         <v>261</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>53</v>
@@ -6250,7 +6472,7 @@
     </row>
     <row r="86" spans="1:6" ht="25.5">
       <c r="A86" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>92</v>
@@ -6259,7 +6481,7 @@
         <v>261</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E86" s="20" t="s">
         <v>51</v>
@@ -6268,15 +6490,88 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="18"/>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="18"/>
+    <row r="87" spans="1:6" ht="38.25">
+      <c r="A87" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="25.5">
+      <c r="A88" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="63.75">
+      <c r="A89" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="25.5">
+      <c r="A90" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="B90" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="18"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="18"/>
@@ -7509,7 +7804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="B41" sqref="B41:B48"/>
     </sheetView>
   </sheetViews>
@@ -8071,8 +8366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:J16"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -8120,7 +8415,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D2" t="s">
         <v>254</v>
@@ -8156,16 +8451,16 @@
       <c r="A4" t="s">
         <v>525</v>
       </c>
-      <c r="B4" t="s">
-        <v>526</v>
+      <c r="B4" s="18" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" t="s">
-        <v>528</v>
+        <v>526</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -8234,7 +8529,7 @@
         <v>127</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D11" t="s">
         <v>70</v>
@@ -8260,10 +8555,10 @@
     </row>
     <row r="12" spans="1:10" ht="25.5">
       <c r="A12" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
@@ -8273,10 +8568,10 @@
     </row>
     <row r="13" spans="1:10" ht="25.5">
       <c r="A13" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
@@ -8286,10 +8581,10 @@
     </row>
     <row r="14" spans="1:10" ht="63.75">
       <c r="A14" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -8309,7 +8604,7 @@
         <v>261</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
@@ -8335,10 +8630,10 @@
     </row>
     <row r="17" spans="1:10" ht="25.5">
       <c r="A17" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -8348,10 +8643,10 @@
     </row>
     <row r="18" spans="1:10" ht="63.75">
       <c r="A18" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -8361,7 +8656,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>322</v>
@@ -8374,10 +8669,10 @@
     </row>
     <row r="20" spans="1:10" ht="51">
       <c r="A20" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -8396,7 +8691,7 @@
         <v>293</v>
       </c>
       <c r="C22" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D22" t="s">
         <v>254</v>
@@ -8422,7 +8717,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>384</v>
@@ -8430,18 +8725,18 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:10">

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="636">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1966,6 +1966,70 @@
   </si>
   <si>
     <t>Check if there are more than 4 children born on the same day in one family</t>
+  </si>
+  <si>
+    <t>AT90</t>
+  </si>
+  <si>
+    <t>Individual I3(Katie /Brown/) is an ancient people born before 1900.</t>
+  </si>
+  <si>
+    <t>Individual I3 date of birth is 14 FEB 1874.</t>
+  </si>
+  <si>
+    <t>AT91</t>
+  </si>
+  <si>
+    <t>Individual I2 is not an ancient person his date of birth is 8 AUG 1963</t>
+  </si>
+  <si>
+    <t>AT92</t>
+  </si>
+  <si>
+    <t>In Family F2, I2 Husband DOB is 8 AUG 1963 and I3 wife DOB is 14 FEB 1874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In family F2, husband I2(Jianguo /Mao/) and wife I3(Katie /Brown/) has a age gap greater than 30 years.
+</t>
+  </si>
+  <si>
+    <t>AT93</t>
+  </si>
+  <si>
+    <t>In Family F4, I8 husband DOB is 1 NOV 1933 and I9 wife DOB is 1 NOV 1940.Age difference is less than 30</t>
+  </si>
+  <si>
+    <t>AT90~91</t>
+  </si>
+  <si>
+    <t>AT92~93</t>
+  </si>
+  <si>
+    <t>T26.01</t>
+  </si>
+  <si>
+    <t>T26.02</t>
+  </si>
+  <si>
+    <t>T26.03</t>
+  </si>
+  <si>
+    <t>Compare with the year 1900</t>
+  </si>
+  <si>
+    <t>T28.01</t>
+  </si>
+  <si>
+    <t>T28.02</t>
+  </si>
+  <si>
+    <t>T28.03</t>
+  </si>
+  <si>
+    <t>get each husband and wife birth date</t>
+  </si>
+  <si>
+    <t>By using their birth date find the age difference</t>
   </si>
 </sst>
 </file>
@@ -2149,56 +2213,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2272,25 +2336,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="227630464"/>
-        <c:axId val="231203968"/>
+        <c:axId val="89646976"/>
+        <c:axId val="89648512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="227630464"/>
+        <c:axId val="89646976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231203968"/>
+        <c:crossAx val="89648512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="231203968"/>
+        <c:axId val="89648512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2362,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227630464"/>
+        <c:crossAx val="89646976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2308,7 +2372,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000311" r="0.75000000000000311" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000322" r="0.75000000000000322" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2782,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2897,6 +2961,9 @@
       <c r="B8" s="18" t="s">
         <v>341</v>
       </c>
+      <c r="C8" t="s">
+        <v>625</v>
+      </c>
       <c r="D8" s="18" t="s">
         <v>254</v>
       </c>
@@ -2906,120 +2973,207 @@
       <c r="G8">
         <v>30</v>
       </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" s="16">
+        <v>40656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>70</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>43</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>50</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J12" s="16">
         <v>40652</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.5">
-      <c r="A12" s="18" t="s">
+    <row r="14" spans="1:10" ht="25.5">
+      <c r="A14" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>612</v>
-      </c>
-      <c r="D12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="38.25">
-      <c r="A13" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>613</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="38.25">
-      <c r="A14" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>614</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="15" spans="1:10" ht="38.25">
+      <c r="A15" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="38.25">
+      <c r="A16" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="D16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="C18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>20</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="16">
+        <v>40656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="25.5">
+      <c r="A19" t="s">
+        <v>631</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.5">
+      <c r="A20" t="s">
+        <v>632</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="25.5">
+      <c r="A21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>343</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F17">
+      <c r="F22">
         <v>35</v>
       </c>
-      <c r="G17">
+      <c r="G22">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
         <v>344</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F18">
+      <c r="F23">
         <v>30</v>
       </c>
-      <c r="G18">
+      <c r="G23">
         <v>35</v>
       </c>
     </row>
@@ -3038,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -3781,6 +3935,9 @@
       </c>
     </row>
     <row r="20" spans="1:12">
+      <c r="A20">
+        <v>4</v>
+      </c>
       <c r="B20" t="s">
         <v>89</v>
       </c>
@@ -3816,6 +3973,9 @@
       </c>
     </row>
     <row r="21" spans="1:12">
+      <c r="A21">
+        <v>4</v>
+      </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -3851,6 +4011,9 @@
       </c>
     </row>
     <row r="22" spans="1:12">
+      <c r="A22">
+        <v>4</v>
+      </c>
       <c r="B22" t="s">
         <v>91</v>
       </c>
@@ -3886,6 +4049,9 @@
       </c>
     </row>
     <row r="23" spans="1:12">
+      <c r="A23">
+        <v>4</v>
+      </c>
       <c r="B23" t="s">
         <v>92</v>
       </c>
@@ -3921,6 +4087,9 @@
       </c>
     </row>
     <row r="24" spans="1:12">
+      <c r="A24">
+        <v>4</v>
+      </c>
       <c r="B24" t="s">
         <v>93</v>
       </c>
@@ -3956,6 +4125,9 @@
       </c>
     </row>
     <row r="25" spans="1:12">
+      <c r="A25">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>94</v>
       </c>
@@ -3991,6 +4163,9 @@
       </c>
     </row>
     <row r="26" spans="1:12">
+      <c r="A26">
+        <v>5</v>
+      </c>
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -4026,17 +4201,47 @@
       </c>
     </row>
     <row r="27" spans="1:12">
+      <c r="A27">
+        <v>5</v>
+      </c>
       <c r="B27" t="s">
         <v>307</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>341</v>
       </c>
+      <c r="D27" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27" s="16">
+        <v>40656</v>
+      </c>
       <c r="L27" s="7">
         <v>40610</v>
       </c>
     </row>
     <row r="28" spans="1:12">
+      <c r="A28">
+        <v>5</v>
+      </c>
       <c r="B28" t="s">
         <v>340</v>
       </c>
@@ -4072,17 +4277,47 @@
       </c>
     </row>
     <row r="29" spans="1:12">
+      <c r="A29">
+        <v>5</v>
+      </c>
       <c r="B29" t="s">
         <v>342</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>351</v>
       </c>
+      <c r="D29" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29" s="16">
+        <v>40656</v>
+      </c>
       <c r="L29" s="7">
         <v>40610</v>
       </c>
     </row>
     <row r="30" spans="1:12">
+      <c r="A30">
+        <v>5</v>
+      </c>
       <c r="B30" t="s">
         <v>343</v>
       </c>
@@ -4094,6 +4329,9 @@
       </c>
     </row>
     <row r="31" spans="1:12">
+      <c r="A31">
+        <v>5</v>
+      </c>
       <c r="B31" t="s">
         <v>344</v>
       </c>
@@ -4120,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4663,6 +4901,9 @@
       <c r="C27" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="D27" s="18" t="s">
+        <v>625</v>
+      </c>
       <c r="E27">
         <v>15</v>
       </c>
@@ -4699,6 +4940,9 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>350</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>626</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -4756,8 +5000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -6570,14 +6814,85 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="18"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="18"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="18"/>
+    <row r="91" spans="1:6" ht="25.5">
+      <c r="A91" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="B91" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="25.5">
+      <c r="A92" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B92" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="51">
+      <c r="A93" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="B93" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="38.25">
+      <c r="A94" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="B94" t="s">
+        <v>342</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="18"/>
@@ -7274,8 +7589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -7804,7 +8119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B41" sqref="B41:B48"/>
     </sheetView>
   </sheetViews>
@@ -8366,8 +8681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>

--- a/Team05Report.xlsx
+++ b/Team05Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
     <sheet name="Sprint5" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="667">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2030,17 +2030,110 @@
   </si>
   <si>
     <t>By using their birth date find the age difference</t>
+  </si>
+  <si>
+    <t>AT94</t>
+  </si>
+  <si>
+    <t>AT95</t>
+  </si>
+  <si>
+    <t>AT96</t>
+  </si>
+  <si>
+    <t>AT97</t>
+  </si>
+  <si>
+    <t>Child I1 (Jacky /Gao/)  of family F2 was born ( 27 JAN 1970)  before before parents' marriage.(7 JUL 1970)</t>
+  </si>
+  <si>
+    <t>AT98</t>
+  </si>
+  <si>
+    <t>Child I3 (Katie /Brown/)  of family F4 was born ( 14 FEB 1874)  before before parents' marriage.(1 JAN 1996)</t>
+  </si>
+  <si>
+    <t>Child I3 (Katie /Brown/)  of family F4 was married (7 JUL 1970)  before before parents' marriage.(1 JAN 1996)</t>
+  </si>
+  <si>
+    <t>child I3 of family F4 was married on 7 JUL 1970, parents' of family F4 was married on 1 Jan 1996</t>
+  </si>
+  <si>
+    <t>child  I6 of family F2 was born on 11 SEP 1970, parents' was married on 7 JUL 1970</t>
+  </si>
+  <si>
+    <t>child  I3 of family F4 was born on 14 FEB 1874, parents' was married on 1 Jan 1996</t>
+  </si>
+  <si>
+    <t>child  I1 of Family F2 was born on 27 Jan 1970, parents' was married on 7 JUL 1970</t>
+  </si>
+  <si>
+    <t>child  I1 of Family F2 was married on 1 Jan 1996, parents' of family f2 was married on 7 JUL 1970</t>
+  </si>
+  <si>
+    <t>AT94~96</t>
+  </si>
+  <si>
+    <t>AT97~98</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t>T29.03</t>
+  </si>
+  <si>
+    <t>T29.04</t>
+  </si>
+  <si>
+    <t>get access to every child's record of each family</t>
+  </si>
+  <si>
+    <t>compare the child's birthday with parents' marriage date</t>
+  </si>
+  <si>
+    <t>if child was born before parent's marriage, return error message</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>T30.03</t>
+  </si>
+  <si>
+    <t>T30.04</t>
+  </si>
+  <si>
+    <t>get access to every child's fams record</t>
+  </si>
+  <si>
+    <t>if the child was married, get his/her marriage date</t>
+  </si>
+  <si>
+    <t>compare child's marriage date with parents'</t>
+  </si>
+  <si>
+    <t>T30.05</t>
+  </si>
+  <si>
+    <t>if the child was married before parents', return error message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2278,11 +2371,22 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2306,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,44 +2438,64 @@
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="89646976"/>
-        <c:axId val="89648512"/>
+        <c:smooth val="0"/>
+        <c:axId val="42742144"/>
+        <c:axId val="42743680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89646976"/>
+        <c:axId val="42742144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89648512"/>
+        <c:crossAx val="42743680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89648512"/>
+        <c:axId val="42743680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89646976"/>
+        <c:crossAx val="42742144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2732,14 +2859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -2748,7 +2875,7 @@
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2765,7 +2892,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2782,7 +2909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2799,7 +2926,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>254</v>
       </c>
@@ -2816,7 +2943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
@@ -2845,19 +2972,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B39" sqref="B37:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2889,7 +3016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2921,7 +3048,7 @@
         <v>40652</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>599</v>
       </c>
@@ -2932,7 +3059,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="25.5">
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>600</v>
       </c>
@@ -2943,7 +3070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25">
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>602</v>
       </c>
@@ -2954,7 +3081,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -2983,7 +3110,7 @@
         <v>40656</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>627</v>
       </c>
@@ -2994,7 +3121,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>628</v>
       </c>
@@ -3005,7 +3132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>629</v>
       </c>
@@ -3016,7 +3143,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>340</v>
       </c>
@@ -3048,7 +3175,7 @@
         <v>40652</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.5">
+    <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>609</v>
       </c>
@@ -3059,7 +3186,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="38.25">
+    <row r="15" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>610</v>
       </c>
@@ -3070,7 +3197,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="38.25">
+    <row r="16" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>611</v>
       </c>
@@ -3081,7 +3208,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>342</v>
       </c>
@@ -3110,7 +3237,7 @@
         <v>40656</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25.5">
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>631</v>
       </c>
@@ -3121,7 +3248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.5">
+    <row r="20" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -3132,7 +3259,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25.5">
+    <row r="21" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>633</v>
       </c>
@@ -3143,38 +3270,167 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>343</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22">
-        <v>35</v>
-      </c>
-      <c r="G22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>352</v>
+      <c r="C23" s="18" t="s">
+        <v>649</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="E23" s="18" t="s">
+        <v>329</v>
+      </c>
       <c r="F23">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23" s="16">
+        <v>40657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>651</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>652</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>654</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29">
         <v>30</v>
       </c>
-      <c r="G23">
+      <c r="G29">
         <v>35</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29" s="16">
+        <v>40657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>658</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>659</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>660</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>661</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>665</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -3189,14 +3445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I29" sqref="I26:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -3212,7 +3468,7 @@
     <col min="12" max="12" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -3250,7 +3506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3288,7 +3544,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3326,7 +3582,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3364,7 +3620,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3402,7 +3658,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3440,7 +3696,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3478,7 +3734,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3516,7 +3772,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3554,7 +3810,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3592,7 +3848,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3630,7 +3886,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3668,7 +3924,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3706,7 +3962,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3744,7 +4000,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3782,7 +4038,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3820,7 +4076,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3858,7 +4114,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3896,7 +4152,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3934,7 +4190,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3972,7 +4228,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -4010,7 +4266,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -4048,7 +4304,7 @@
         <v>40598</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -4086,7 +4342,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4124,7 +4380,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4162,7 +4418,7 @@
         <v>40602</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4200,7 +4456,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4238,7 +4494,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -4276,7 +4532,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4314,7 +4570,7 @@
         <v>40610</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4324,11 +4580,35 @@
       <c r="C30" s="18" t="s">
         <v>354</v>
       </c>
+      <c r="D30" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30" s="16">
+        <v>40657</v>
+      </c>
       <c r="L30" s="7">
         <v>40610</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -4337,6 +4617,30 @@
       </c>
       <c r="C31" s="18" t="s">
         <v>352</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31" s="16">
+        <v>40657</v>
       </c>
       <c r="L31" s="7">
         <v>40610</v>
@@ -4355,14 +4659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
@@ -4371,7 +4675,7 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -4391,7 +4695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4411,7 +4715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4431,7 +4735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -4451,7 +4755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -4471,7 +4775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -4491,7 +4795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4511,7 +4815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -4531,7 +4835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -4551,7 +4855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -4571,7 +4875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -4591,7 +4895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -4611,7 +4915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -4631,7 +4935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>83</v>
       </c>
@@ -4651,7 +4955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4671,7 +4975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -4691,7 +4995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>86</v>
       </c>
@@ -4711,7 +5015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -4731,7 +5035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -4751,7 +5055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -4771,7 +5075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -4791,7 +5095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -4811,7 +5115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4831,7 +5135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5">
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4851,7 +5155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="38.25">
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -4871,7 +5175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -4891,7 +5195,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>307</v>
       </c>
@@ -4911,7 +5215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -4931,7 +5235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>342</v>
       </c>
@@ -4951,7 +5255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>343</v>
       </c>
@@ -4961,6 +5265,9 @@
       <c r="C30" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="D30" s="18" t="s">
+        <v>649</v>
+      </c>
       <c r="E30">
         <v>35</v>
       </c>
@@ -4968,7 +5275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>344</v>
       </c>
@@ -4977,6 +5284,9 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>355</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>650</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -4997,14 +5307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
@@ -5014,7 +5324,7 @@
     <col min="6" max="6" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -5034,7 +5344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5054,7 +5364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -5074,7 +5384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5094,7 +5404,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.25">
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5114,7 +5424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25">
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -5134,7 +5444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -5154,7 +5464,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63">
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -5174,7 +5484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="63">
+    <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5194,7 +5504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="78.75">
+    <row r="10" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -5214,7 +5524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="63">
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -5234,7 +5544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="63">
+    <row r="12" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -5254,7 +5564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -5274,7 +5584,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="47.25">
+    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -5294,7 +5604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.25">
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -5314,7 +5624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -5334,7 +5644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25">
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -5354,7 +5664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="38.25">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>190</v>
       </c>
@@ -5374,7 +5684,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38.25">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -5394,7 +5704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -5414,7 +5724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="47.25">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -5434,7 +5744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="47.25">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -5454,7 +5764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.5" customHeight="1">
+    <row r="23" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -5474,7 +5784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.25">
+    <row r="24" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -5494,7 +5804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.5">
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -5514,7 +5824,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -5534,7 +5844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.5">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -5554,7 +5864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.5">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -5574,7 +5884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.5">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -5594,7 +5904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="38.25">
+    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -5614,7 +5924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="51">
+    <row r="31" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -5634,7 +5944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -5654,7 +5964,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -5674,7 +5984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.25">
+    <row r="34" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -5694,7 +6004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -5714,7 +6024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="38.25">
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -5734,7 +6044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="38.25">
+    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -5754,7 +6064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="38.25">
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>210</v>
       </c>
@@ -5774,7 +6084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>211</v>
       </c>
@@ -5794,7 +6104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="38.25">
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -5814,7 +6124,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.5">
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -5834,7 +6144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="38.25">
+    <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -5854,7 +6164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.5">
+    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -5874,7 +6184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.5">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>216</v>
       </c>
@@ -5894,7 +6204,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51">
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>217</v>
       </c>
@@ -5914,7 +6224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>218</v>
       </c>
@@ -5934,7 +6244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51">
+    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>219</v>
       </c>
@@ -5954,7 +6264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51">
+    <row r="48" spans="1: